--- a/cnki.xlsx
+++ b/cnki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>category_no</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -549,6 +554,86 @@
           <t>F426.471</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2021年，从疫情中逐渐恢复的中国汽车产业展现出强大活力和韧性，继续拥抱新一轮科技革命，在大变革中激荡沉浮。
+这一年，芯片短缺危机下，倒逼企业重新思考供应链安全与“卡脖子”关键技术自主研发；商用车企加速产品、技术研发，奔赴降碳减排新路径，助力“双碳”目标实现；资本热情再度涌向智能化、电动化浪潮前沿，特斯拉、宁德时代创下市值神话，商用车仍是自动驾驶应用重点。
+这一年，在终于“回正”的新车销量上，人们看到了市场复苏的希望，却也因背后的不确定性因素陷入沉思；造车新势力纵然好戏频出，却在小米、华为这样的ICT巨头入局造车后，大有成为“前浪”之势。
+风云变幻更亟待拨云见日。这一年中，汽车行业经历着深刻的变革，虽喜忧参半，但仍顽强向前，更加坚定地走上了由量变到质变的进阶之路。
+挑战与机遇 危机之下产销回正
+“楼，6层，跳还是不跳？”2021年8月，博世中国执行副总裁徐大全的一条朋友圈，写尽汽车产业芯片断供危机下，行业人士的焦灼与无奈。
+这一年，汽车产业面临有史以来最严重的芯片短缺、动力电池供应危机。从理想、小鹏等造车新势力，到丰田、大众等传统车企，无一不受影响。
+然而，也是在这一年，我国汽车产销在危机与挑战中，告别负增长，惊喜“回正”。2021年，汽车市场全年销量为2627.5万辆，同比增长3.8%，迎来自2018年以来年销量首次正增长。其中与交通运输领域密切相关的商用车市场，全年销量为479.3万辆，尽管同比下降6.6%，但仍步伐稳健。
+回顾2021年，重型车国六排放标准实施、碳达峰行动方案发布、国五柴油车延迟上牌、年检空车称重等，每条政策都深刻影响着商用车行业的走势，其中部分细分市场令人振奋。2021年上半年，重卡、轻卡市场纷纷以超过百万辆的销量创下历史纪录。碳达峰、碳中和战略目标下，商用车绿色转型步伐加快，新能源客车、换电重卡大单频现。这充分展示商用车市场的新机遇、新形势。
+这一年，我国汽车出口保持快速增长。数据显示，2021年，汽车出口201.5万辆，同比增长约1倍，整体呈现量价齐升的新趋势。其中以宇通客车、金龙客车、金旅客车、上汽红岩等为代表的主流商用车企业克服多重困难，派遣技术、售后服务人员，为海外用户提供技术和服务支持，通过KD（散件组装）项目合作，实现从产品输出到产能输出、技术输出的跨越。
+这一年，低迷数年的汽车市场终于阳春在望。展望2022年，业内分析认为，尽管芯片危机仍将持续，但宏观经济将持续稳定恢复、疫情防控持续向好、海外需求旺盛等多重因素有利于汽车市场发展。预计2022年汽车新车销量将达到2750万辆，同比增长5.4%。这预示着，汽车产业“最后一个寒冷的冬季”快要过去了。
+变革与重构 抢滩绿色竞争风口
+汽车产业变革的浪潮，在2021年格外波澜壮阔。
+这一年，“双碳”成为影响汽车产业链变革与重构的又一重要因素，新能源汽车以产销均跨过350万辆大关的成绩，向世界宣示了中国汽车行业正加速奔赴在降碳、脱碳路上。与此同时，各大车企争相上岸，抢滩绿色竞争风口，试图在汽车产业重构中争得一席之地。
+值得注意的是，相较于被市场广泛关注的新能源乘用车市场，新能源商用车市场有着更高增速。特别是新能源重卡市场，2021年前11个月累计销售7442辆，同比大幅增长222%。这也显示出商用车行业向新能源转型的迫切需要。
+这一年，造车新势力的行业格局已见雏形，“蔚小理”三强地位较为巩固，但更多新造车企业的生存处境仍然艰难，更是距离他们拥趸的偶像——特斯拉，还存在较大差距。
+这一年，氢能源、换电模式成为商用车市场炙手可热的风口，绿色客车、卡车产品加速面向全国乃至全球推广。
+城市公交成为氢燃料电池客车示范应用主阵地。福田欧辉、宇通客车、吉利商用车氢能源客车产品，在经历公交领域实际运营检验后，即将服务备受瞩目的2022年北京冬奥会，产品技术获得高度肯定。在2021年11月举行的第26届联合国气候变化大会上，更有宇通、比亚迪等多家主流商用车企业发出铿锵有力的低碳减排倡议。
+与此同时，上汽红岩、福田汽车、汉马科技、一汽解放、东风商用车、中国重汽等主流车企推出了多款换电重卡，并且签约、交车不断。特别是在钢铁生产重地，如河北省唐山市、山西省晋城市等，涌现了千辆级别的换电重卡订单。
+这一年，动力电池行业生动上演高歌猛进，包括宁德时代、国轩高科、蜂巢能源等在内的一众动力电池企业纷纷扩充产能规划。2021年，宁德时代在资本市场备受追捧，市值一度突破1.5万亿元，成为创业板当之无愧的龙头企业。与此同时，多家车企开始自建电池厂、绑定二线电池企业或者增加新供应商，抢占电池行业话语权。
+跨界与融合 开启下半场产业变革
+跨界与融合，无疑是2021年、2022年乃至更长久的未来，汽车产业重要的关键词。
+这一年，巨头跨界再掀风云，造车新势力进入2.0时代。以华为、百度、小米、滴滴出行、360等为代表的互联网巨头们深度涌入汽车行业，搅动一池春水。小米集团首席执行官雷军更是放言：“我愿意押上我人生所有积累的战绩和声誉，为小米汽车而战。”
+这一年，客车企业谋求深度转型，“跨界”卡车制造正在上演。2021年客车市场意料之内的没有明显起色，客车企业加速谋求转型新路径，“跨界”便是其中之一。多批宇通纯电动搅拌车、物流车交付，见证这家客车龙头企业成功“跨界”。此外，金龙客车、苏州金龙等业内周知的客车企业纷纷加码卡车研发制造。
+科技“大厂”进入汽车领域，商用车龙头企业“跨界”加速，宣示着汽车产业变革的下半场已正式开启。
+这一年，自动驾驶商用进程加快，却也陷入“改名”危机。
+2021年，国内自动驾驶从测试示范迈入商业化试点探索新阶段。而自动驾驶能否如百度董事长兼首席执行官李彦宏所言“熬得过万丈孤独，藏得下星辰大海”？至少现阶段答案是否定的。
+2021年8月，一辆蔚来ES8的交通事故将自动驾驶推上了风口浪尖，舆论关注点迅速集中在了部分车企对自动驾驶的过度包装上。事件发生后不久，理想汽车、小鹏汽车几乎同时删除了此前自家自动驾驶辅助系统中的“自动”二字。
+与此对比，商用车领域自动驾驶落地应用则显得更加稳扎稳打。今年以来，宇通、金龙、中通智能驾驶公交车在湖南、湖北、浙江等地开展示范运营，以安全驾驶里程累积口碑。上汽红岩智能驾驶重卡在上海港洋山港区等封闭区域落地运营，进一步提升智能重卡的商业价值。
+当然，自动驾驶开启商业化运营，同样意味着参与企业之间的竞争将变得更加残酷。企业不仅需要在研发上继续投入，以确保技术的迭代创新，还要建立成熟的商业模式，尽可能快地跨过盈亏平衡点，实现由不断输血到自我造血的跳跃。
+结语
+人来或人往，皆是汽车变革时代的缩影。谨以2021年汽车市场发展缩影观察，铭记时代变迁和产业变革。前路虽漫漫，未来仍可期。波澜壮阔的汽车新时代，必将留下这些顽强向前的开拓印记。
+新能源汽车 热度：★★★★★
+年销突破350万辆
+2021年，在疫情、芯片短缺等多重因素影响下，我国新能源汽车产销量仍实现逆势增长。中国汽车工业协会统计数据显示，2021年我国新能源汽车产销量分别为354.5万辆和352.1万辆，同比增长约1.6倍。
+业内人士普遍认为，2021年新能源汽车市场已进入爆发式增长新阶段，预计2022年新能源汽车销量将继续增长，达到500万辆。
+近年来，随着产业结构调整升级，我国新能源汽车的技术性能、产品质量、消费认知等发生了重大变化。在碳达峰、碳中和战略目标推动下，我国新能源汽车市场正加速摆脱补贴依赖，超过350万辆的销量正是从政策驱动为主转向市场驱动最强有力的佐证。
+自动驾驶 热度：★★★★★
+商用化进程加速
+2021年11月，全国首个自动驾驶出行服务商业化试点在北京启动，标志我国自动驾驶领域从测试示范迈入商业化试点探索新阶段。作为自动驾驶推广应用的重要领域，商用车自动驾驶一直走在行业前列。
+2021年以来，在上海临港新片区，自动驾驶公交示范线路开始载人运营；在河南郑州，宇通L4级智能驾驶巴士已在智慧岛、金融岛等多地安全运营；在重庆永川，金龙L4级自动驾驶公交车启动商业化运营，巡航时速约40公里；在上海港洋山港区，上汽红岩智能重卡圆满完成2021年度4万标箱运输任务，有效提升了港口的通行服务效率……
+目前，北京、上海、广东广州、湖南长沙等多地均已开放自动驾驶公交车或卡车等常态化运营。在多项利好政策支持下，商用车自动驾驶的商业化发展前景日渐明朗。
+低碳转型 热度：★★★★★
+多领域启动示范应用
+交通运输是实现碳中和目标的重点领域之一。国务院印发的《2030年前碳达峰行动方案》明确提出，重点实施交通运输绿色低碳行动，推动运输工具装备低碳转型。
+“双碳”目标下，2021年以来，氢能源、换电模式等各类新能源车辆示范应用加速，成为汽车行业绿色低碳发展的有力推手。2021年，财政部等五部委联合印发《关于启动燃料电池汽车示范应用工作的通知》，北京市、上海市、广东省城市群将启动实施燃料电池汽车示范应用工作，这将有力推动氢燃料电池汽车关键技术突破以及在全国范围内的示范运营。
+同时，为更好促进新能源汽车换电模式创新发展，工业和信息化部启动新能源汽车换电模式应用试点工作，包括北京、湖北武汉在内的11座城市被纳入试点范围，其中湖北宜昌、河北唐山、内蒙古包头3座城市还将重点推动换电重卡示范应用。
+重卡排放升级 热度：★★★★
+国五囤积未居奇 国六成布局重点
+2021年7月1日，全国范围实施重型柴油车国六排放标准。曾在国四国五排放标准切换窗口期“囤积”销售的经销商们再次躁动起来，纷纷投机加大国五货车的库存。然而在“双碳”目标下，环保排放标准进一步趋严，部分地区物流园区甚至给出不允许国五及以下排放车辆进入园区的规定。2021年年底，国五货车上牌缓冲期截止，不少经销商库存仍然处于高位。
+回顾2021年重卡市场，“金九”变“铜九”，“银十”失约，市场销量连续8个月下降。当前，传统燃油重卡已进入存量市场的竞争阶段，卡车企业需加快推出适应用户需求的优质卡车产品。同时，重卡制造企业更要重视服务模式创新，为用户创造更大价值。
+接下来一段时间内，国六产品将成为车企布局的重点，但故障灯、限速、限扭矩、DPF（柴油颗粒过滤器）后处理等问题仍存在，快速解决车辆性能问题成为行业关注的焦点。
+商用车销量 热度：★★★★
+高开低走同比小幅下降
+中国汽车工业协会发布的统计数据显示，2021年，商用车产销量分别为467.4万辆和479.3万辆，同比下降了10.7%和6.6%。
+分车型来看，货车仍是支撑商用车市场销量的主要车型，产销量为416.6万辆和428.8万辆，同比下降12.8%和8.5%。在各细分车型中，重卡全年销量高开低走，降幅最大。2021年上半年，重卡累计销量达104万辆，同比增长28%。进入下半年，重卡市场销量增幅逐月收窄，月销量连降。不过新能源货车在销量和口碑上均取得不俗成绩。
+2021年是客车行业历经磨砺的一年，市场趋于饱和，销量持续低迷。客车全年产销量分别为50.8万辆和50.5万辆，同比分别增长了12.2%和12.6%。
+在细分市场中，轻型客车销量在城乡公交一体化等利好政策拉动下快速增长，成为客车行业稳定发展的主要动力。处于转型阵痛期的道路客运行业，持续受到新冠肺炎疫情等因素影响，大中型客车市场回暖依然任重道远。
+缺芯少电 热度：★★★★
+断供危机愈演愈烈
+2021年，新冠肺炎疫情继续在全球蔓延，叠加汽车智能化发展浪潮，车企屡屡曝出因芯片供应不足而产能受限，甚至推出“先交付新车，后补装雷达”等补救方案。
+业内普遍认为，汽车“缺芯”并非技术封锁，主要原因是产能不足。同时，“缺芯”事件显示出，国产汽车芯片在产品技术、制程工艺等方面与国际先进水平仍存在较大差距，构建安全、可控的供应链体系已成为行业发展共识。
+在“缺芯”持续影响汽车行业的同时，新能源汽车的核心部件——动力电池也成为汽车行业的“紧俏商品”。
+业内专家分析，出现“少电”主因是新能源汽车市场需求在持续扩大。此外，新一轮造车热潮出现、高端电芯产能不足，以及动力电池产业优质产能不足、低端产能过剩等因素，进一步扩大了汽车“少电”问题。
+2021年汽车行业成绩单
+汽车保有量
+公安部数据显示，截至2021年底，全国汽车保有量突破3亿辆。
+汽车产销量
+中国汽车工业协会统计数据显示，2021年，汽车产销量分别为2608.2万辆和2627.5万辆，同比分别增长3.4%和3.8%;从细分车型来看，乘用车产销量同比分别增长7.19%和6.5%，商用车产销量同比分别下降10.7%和6.6%。
+车市亮点
+新能源汽车逆势上扬
+2021年，新能源汽车幸销分别达到354.5万辆和352.1万辆，同比增长均为1.6倍。12月，新能源汽车市场渗透率19.1%，保持了增长态势。
+汽车出口保持快速增长
+2021年，汽车出口201.5万辆，同比增长1倍。
+新能源重卡强势崛起
+根据终端上牌数据，2021年1月至11月份，新能源重卡销量为7442辆，同比增长222.4%。</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -609,292 +694,113 @@
           <t>F426.471</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>小米手机十周年：“全球第二”是如何炼成的？</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>电脑报</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>地方级</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>小米手机; 小米公司; 出货量; 何炼成; 十周年;</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>编辑观察</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>012</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>信息科技; 经济与管理科学</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>无线电电子学; 工业经济</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>F426.63</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021雷军年度演讲全文：这些年经历的艰难选择</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>企业家日报</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>地方级</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>小米手机; 投资者; IPO; 发行价;</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2021-08-16</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>华东周刊</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>经济与管理科学</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>工业经济</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>F426.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>小米造芯传递了什么信号？</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>深圳商报</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>地方级</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>钱飞鸣</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>国产手机; 联发科;</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2017-03-02</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>A01</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>信息科技; 经济与管理科学</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>无线电电子学; 工业经济</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>F426.63</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>小米二季度出货量同比跌近四成 风口上的猪飞不动了？</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>通信信息报</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>地方级</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>林作萍</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>供应链; 智能手机市场; 出货量; 二季度;</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2016-08-24</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>厂商</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>信息科技; 经济与管理科学</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>无线电电子学; 工业经济</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>F426.63</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>太过于倚重营销难以做出好产品</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>深圳商报</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>地方级</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>李迩</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>小米手机; 净化器; 出货量;</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2016-01-18</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>商报眼</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>A02</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>经济与管理科学</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>宏观经济管理与可持续发展</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>F203</t>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2021年，在整体车市销量并不景气的情况下，新能源汽车依旧保持了高歌猛进的态势。
+据中汽协最新预测，2021年全年新能源汽车销量将达到340万辆，同比增长1.5倍；而2022年中国新能源汽车销量预计将达到500万辆，占据汽车总销量的20%左右。
+在这样正处于红利期的行业，过去一年发生的故事也是颇多。
+造车的诱惑
+2021年年初，合生创展“少东家”朱一航携近20亿元跨界造车，也正式拉开了各行各业造车的序幕。
+年末，华为前高管、小牛电动创始人李一男“官宣”创立牛创品牌为这一年的造车大势画上了一个完美的句号。
+2021年，“造车热”虽然会迟到，但依旧不会缺席。
+虽有恒大集团、宝能集团、华夏幸福等公司的“前车之鉴”，却丝毫不影响房地产行业对跨界造车的热情。
+当然，雅居乐财务投资威马汽车、万达牵手一汽红旗风险并没有那么大，但合生创展似乎铁了心要直接造车。
+2021年1月5日，辞任合生创展集团董事会主席及执行董事职务不到一年的朱孟依，西装笔挺地出现在了广汽集团和珠江投管集团的战略合作签约现场。朱孟依长子朱一航实际控制的珠投智能投资约19.23亿元正式入局广汽蔚来。
+记者了解到，朱氏的智能汽车项目首期合作预计投入30亿元，后续投资将超过100亿元。
+目前，珠投智能持有广汽蔚来股份比例为68.56%，为后者的实际控制人。当然，在合生创展朱氏父子入局后，广汽蔚来也在当年5月更名为合创汽车。
+当时，朱氏父子在入局造车后还给合创汽车定下了力争2025年实现交付25万辆的目标。
+现实往往很骨感。在朱氏父子到来之前，合创汽车曾在2020年上半年上市了其首款车型007，但最终并未在市场上掀起水花，据乘联会数据，合创汽车当年6月-9月销量分别为103辆、22辆、6辆、29辆。
+2021年10月中旬，合创汽车又上市了第二款量产车型Z03，该车将官方指导价压到了13.28万元起。但此车能否拯救合创汽车仍需画上一个问号，截至目前，合创汽车官方并未公布过Z03的销量。
+在合生创展之后，2021年1月11日，百度在其公众号上发布一篇名为《是的！百度要造车了》的文章正式宣布造车，这一举动瞬间引起了互联网和汽车圈的热议。
+之后，百度联合吉利汽车火速在3月成立了合资公司集度汽车，用来打造下一代智能汽车，新公司法定代表人是前摩拜联合创始人兼首席技术官夏一平。
+就在日前，百度CEO李彦宏在百度Create 2021(百度AI开发者大会)上公布了百度造车的最新进展，其表示，集度汽车将于2022年上半年公布首款概念车，并在2023年量产交付首款汽车机器人。
+而紧随百度之后，互联网行业跨界造车又迎来了一位重量级嘉宾——小米。
+2021年3月30日晚，小米CEO雷军在小米春季新品发布会上发布了造车的重磅消息，其表示，造车将是他“人生中最后一次重大创业项目”，“到2020年末，小米集团的现金余额达到1080亿元，所以进军造车，我们亏得起”。
+为体现造车的决心，雷军决定亲自带队，首期投入资金100亿元，未来10年内小米造车项目的管理层能够调动100亿美元的资金。
+近期，雷军还退出了多家小米关联公司，对此，2021年12月14日，小米公关总经理王化曾在微博回应称，雷军今年（2021年）的精力主要放在了造车相关的事务上面，“相信大家还记得在投资者会上雷总欣喜的透露‘目前小米造车的各项进展，比我的预期要快’，这个信息已经表明了小米造车的工作提速。能不管的事情一定不管”。
+据悉，小米汽车预计在2024年上半年正式量产。
+除百度与小米外，2021年年底，一直对外宣称不造车的华为似乎也有了这个苗头。
+在华为12月23日举办的冬季旗舰新品发布会上，迎来了一个前所未有的“大件”——傲图问界M5，这也成为了发布会最大的亮点。
+据悉，傲图是由华为和赛力斯共同打造，但多方消息均称，实际上，该品牌主导方正是华为。
+在更早之前，国内互联网巨头阿里巴巴已经宣布与上汽集团、张江高科共同打造智己汽车，2021年12月26日，200辆智己L7 Beta体验版已经下线交付。
+另外，苹果造车项目虽然一直秘而不宣，但几乎已经成为了业内共识，巧合的是，有报道称，苹果汽车也将计划于2024年量产。
+除了上述不少大咖入场外，临近年末，新造车行业还迎来了不少创业型玩家。
+2021年12月15日，华为前高管、小牛电动创始人李一男“官宣”再次创业，创立了牛创新能源，并发布了其英文品牌“NIUTRON”，中文定名“自游家”。
+在高调宣布再创业的同时，自游家汽车宣布完成5亿美元A轮融资，获得IDG、COATUE等全球知名机构投资。
+据悉，李一男经历非常丰富，曾在15岁考入华中理工大学少年班，26岁被任正非任命为常务副总裁，在华为位居第二，甚至在当时被认为是任正非的接班人；但后来他出走自主创业，之后又经历了重回华为和加盟百度等。
+李一男最成功的创业经历算得上是在2015年成立小牛电动，但又很快在巅峰时期因内幕交易而受了牢狱之灾。2018年，小牛电动成功在美上市。
+李一男透露，NIUTRON项目于2018年11月就已经启动，其首推产品即为自游家NV。
+公开资料显示，目前牛创新能源聚焦于智能高端新能源汽车领域，总部位于北京，研发中心设在上海，研发及智能制造基地位于常州。其首款车型定位中大型城市越野“自游家NV”，计划今年3月小批量试生产，暂定今年9月正式启动交付。
+其实，早在牛创新能源之前，宾理汽车、轻橙时代等造车新势力品牌就已横空出世。
+2021年11月，轻橙时代于北京正式发布。
+公开资料显示，轻橙时代的创始人、董事长边标，曾服务于招商证券，有丰富投行经验。其CEO牟露则拥有10年互联网产品游戏研发经验，曾是腾讯旗下天美艺游的主策，主导《天天爱消除》《天天酷跑》等游戏的策划与研发工作。
+2021年12月初，有消息称，汽车老兵、前大众执行副总裁、现任雷诺中国CEO苏伟铭也抵不住“诱惑”下场造车了。
+事实上，由苏伟铭担任法定代表人的北京宾理信息科技有限公司（宾理汽车）在2021年6月就已注册成立，12月3日，宾利汽车还获得了由东风汽车领投的战略融资，但具体金额并未披露。
+2014年、2015年，随着蔚来、理想、小鹏、威马等造车新势力的相继成立，将创业型造车推向了高潮，鼎盛时期，有数据显示，注册的新造车企业高达436家，但最终绝大部分都归于寂灭。
+2021年，创业型造车可以称得上迎来了回春，但最终逃脱“PPT造车”命运的企业能有多少，还需画上一个问号。
+话题王者特斯拉
+无论是有网红潜质的特斯拉CEO马斯克，抑或是争议颇多的特斯拉产品，都是2021年汽车行业绝对的话题王者，一有风吹草动，一群“吃瓜群众”就蜂拥而至，探讨热度之高经常会把特斯拉推上热搜。
+2021年第一天，特斯拉就放出重磅炸弹，其“官宣”国产Model Y已经正式开启预定，预售价较之前公布的售价大幅下调，让无数购车族提前“过年”。
+这也导致元旦期间，来看Model Y的消费者把部分特斯拉门店围得水泄不通。有网友直言，去店里看Model Y就像买白菜一样。
+元旦当日，就有媒体曝出Model Y的订单超10万辆，而特斯拉官网还因访问量的剧增“崩了”。
+事后销售数据也证明，Model Y并不负年初消费者挤破头皮也要“买买买”的盛名。
+据乘联会最新数据，2021年11月，Model Y销量为2.3万辆，排在当月新能源SUV销量榜榜首；2021年前11个月，Model Y累计销售12.9万辆，同样排在新能源SUV销量榜的榜首。另外，Model Y还在11月排在了高端SUV销量首位，其在2021年前11月销量中也仅输给宝马X3排在第二。
+不仅如此，国产Model Y发售的第一年，其销量就打败了同门兄弟国产Model 3，后者前11个月销量为12.1万辆。
+2021年年初，对于马斯克来说，除了国产Model Y上市就成为爆款这一喜讯，还有一件值得高兴的事，那就是他成功挤掉亚马逊CEO贝索斯成为了全球新首富。
+美东时间1月7日，随着特斯拉股价的高开高走，马斯克在收盘时成功凭借约1950亿美元的身价超越贝索斯。
+不过，马斯克的全球首富宝座并未稳坐。随着股价的起伏，2021年马斯克和贝索斯在全球首富位置上你争我夺，已经打了数个回合。
+截至最新的2021福布斯全球富豪排行榜，马斯克依旧以260亿美元的差距输给了贝索斯。
+但这并不影响马斯克日子过得“风生水起”。2021年，他的星际事业Space X将世界上第一批全平民机组人员送入太空轨道、在币圈做成了“带货大佬”、因财富大涨陷入“逼捐门”、高抛低吸特斯拉股票、成为《时代》杂志2021年度人物……
+不过，马斯克似乎并不把“财富”当回事，在刚获得全球首富称号时，他在公开渠道疑似回应这一消息，其轻描淡写道“好了，回去工作吧……”
+不久前，马斯克还在推特上表示，他正在考虑离职，成为专职网红。这是“真·马斯克”无疑了……
+“刹车失灵”，相信这四个字依旧能牵动不少消费者的敏感神经。去年很长一段时间内，特斯拉都笼罩在这样的阴影下。
+这源于去年4月19日上海车展的一声呐喊“特斯拉刹车失灵”。据悉，一位来自河南省安阳市的张女士在特斯拉展台车顶的维权打破了上海车展的宁静，这声呐喊也把特斯拉疑似“刹车失灵”的问题推到了普罗大众面前。
+此后，特斯拉和这位车主进行了多轮你来我往的舆论战。
+特斯拉发布官微称，当事人为此前2月发生的河南安阳超速违章事故车主；该车主曾因超速违章发生碰撞事故，以产品质量为由坚持要求退车。
+但这位车主却坚持认为是车辆莫名出现刹车失灵导致事故的发生，要求特斯拉提供事故发生时车辆数据，并不接受第三方检测。
+而在特斯拉提供数据后，车主又质疑这并非完整行车数据。
+关于上述事件中特斯拉是否“刹车失灵”至今都是一个“谜”，后期还有不少“阴谋论”浮出水面。晚些时候，双方甚至还互相起诉对方侵害名誉权并闹上了法庭。近日，车主起诉特斯拉一案如期开庭，但该案并未当庭宣判……
+事实上，虽然未有定论，但关于特斯拉“刹车失灵”的事故在2021年依旧成为了热搜的常客。
+早在4月车顶维权前，2021年3月，特斯拉就在海南被曝出“刹车失灵”，一位Model 3车主称“无法刹停”导致事故，后经过特斯拉服务人员“完美复原”事故的情况，其所驾驶的Model 3在同样的情况下也没能刹停。特斯拉称，这是因为地面湿滑和车主踩踏板较轻。
+5月初，河南温先生称，驾驶Model X在高速上突发降速，并称自己“不要一分钱赔偿”，但特斯拉却称，车主要求免费更换新款Model X。
+5月13日晚上，在杭州滨江一小区地下车库，一辆Model 3疑似“刹不住车”一头撞在了墙上。车主称，车速不快且用力踩了刹车，也踩到底了，感受到了制动却已经刹不住了；特斯拉则表示，事故原因是路面湿滑且车速过快。
+就在日前，12月24日，一对夫妻驾驶一辆特斯拉冲撞江苏常州溧阳市区新城桥护栏后坠河，最终双双遇难，目前原因也正在调查中……
+临近年尾，这场闹得沸沸扬扬的特斯拉“刹车失灵”事件也未盖棺定论，但即便是负面“缠身”，特斯拉依然在2021年“越卖越火”。
+据乘联会最新数据，特斯拉中国2021年前11个月在国内销售了超25万辆汽车，同比增长120%，排在比亚迪和上汽通用五菱之后。
+进击的“蔚小理”
+自从“蔚来李斌，2019年最惨的人”火爆汽车圈后，媒体对李斌的相同句式总结文章似乎就成了每年年底的保留节目。
+2021年年底，这个节目继续，但用词却从“最惨”变成了“最‘飘’”“最清醒”;小鹏汽车CEO何小鹏也显得春风得意，日前，其在采访中直称“雷军造车是我怂恿的”“新势力里面有一些是在凑数的”;而理想汽车CEO李想则更是喊出“到2030年成为全球第一”的豪言壮语。
+这些似乎都见证了“蔚小理”扛过了2019年的穷，挺过了2020年的疫情，2021年正式大踏步前进。
+要谈“蔚小理”2021年的崛起绕不开的一个话题就是盈利能力的增强。
+2021年年初，“蔚小理”纷纷宣布彻底摆脱过去“卖一辆亏一辆”的局面，其全年毛利率开始转正并渐入佳境。
+其中，蔚来汽车宣布其2020年全年毛利率为11.5%，而上一年为-15.3%；小鹏汽车2020年毛利率为4.6%，而2019年该数值为-24%；而一直以此为荣的理想汽车2020年毛利率更是达到了16.4%。
+这种盈利能力的好转趋势在2021年也得到保持。从最新公布的2021年第三季度财报看，“蔚小理”毛利率都有较大幅度的提升，有的甚至越过了20%的健康线。
+其中，2021年第三季度，小鹏汽车毛利率为14.4%；得益于卖积分的好处，蔚来汽车和理想汽车毛利率都超过了20%，分别为20.3%、23.3%。
+当然，“蔚小理”赚钱能力的大增离不开销量增长带来的规模效应。
+从2021年下半年开始，“蔚小理”陆续宣布累计销量超过了2020年全年，销量增速也较2020年有了进一步的提升。
+根据官方数据，2021年前11个月，小鹏汽车累计交付量82155辆，同比增长285%；蔚来汽车交付80940辆，同比增长120.4%；理想汽车累计销售76404辆，同比增长188.3%。
+在解决了怎么“活下来”的问题后，“蔚小理”也理所当然地思考起了怎么活得更好，丰富的现金储备也让其逐步变得“财大气粗”。
+2021年3月，李斌就在了2020年第四季度财报电话会上定下了“烧钱”目标，2021年的研发投入预计将增加一倍，达到50亿元左右。
+除了李斌，何小鹏和李想也不约而同地选择大增在研发上的投入。
+2021年三季度，小鹏汽车研发开支为12.64亿元，同比上升99%，环比也上升了46.4%；同期，蔚来汽车研发费用为11.93亿元，同比增长101.9%，环比增长35%；而一向以“抠”闻名的理想汽车研发费用也同比增加165.6%至8.89亿元。
+除了砸研发，“蔚小理”的渠道扩张也在加速，这也意味着在销售和管理方面的费用也有了飞速上涨。
+2021年第三季度，蔚来汽车销售及管理费用同比增长94.1%至18.25亿元；小鹏汽车销售、一般及行政开支同比上升27.8%至15.38亿元；理想汽车销售、一般及管理费用同比增加198.5%至10.2亿元。
+当然，这样的大手笔也让“蔚小理”依旧处于持续“烧钱”的状态。
+2021年第三季度，蔚来汽车净亏损8.35亿元，小鹏汽车净亏损15.9亿元，理想汽车是“蔚小理”中唯一一家减亏的企业，净亏损为2150万元。
+“蔚小理”之所以无惧亏损，也与其“存粮”丰厚也有着直接的联系。
+截至2021年9月30日，理想汽车现金及现金等价物、受限制现金、定期存款及短期投资总额为488.3亿元，小鹏汽车为453.58亿元，蔚来汽车为470亿元。
+造车新势力发展阶段的前推以及资金“底气”也使蔚来汽车李斌在2021年NIO DAY后的媒体采访中直言，“造车需要储备的资金门槛，几年前我说的是200亿，现在没有400亿可能都干不了了。”
+在加速前进的路上，受疫情余波的影响，“蔚小理”在过去一年受到了前所未有的供应链考验。
+临近年末，小鹏汽车还被曝出其热门车型小鹏P7长时间交不出车，据记者了解，小鹏P7 480车型（搭载磷酸铁锂电池）交付周期达到了4个月左右。而在此之前，还有车主指出小鹏汽车需要加价才能提车。
+面对这样的质疑，小鹏汽车将矛头指向了动力电池，其回应媒体称，因疫情影响，行业面临着磷酸铁锂电池供给的极度紧张，造成了小鹏P7 480车型无法在下订时的预计交付周期内及时交付。
+而缺电池并非“蔚小理”2021年面对的唯一供应链危机。
+去年10月，受缺“芯”影响，理想汽车为了按时交车，甚至还提出了“分期交付”的方案。
+当时理想汽车称，受疫情影响，毫米波雷达芯片短缺影响了车辆交付。针对原定于10月和11月交付的用户，可先交付安装1个前正向和2个后角毫米波雷达的“3雷达车型”（正常为5雷达），并在12月到明年（2022年）春节前为用户进行免费补装。
+为了补偿选择“减配”交付方案的用户，理想汽车承诺这部分用户可享受终身质保和1万积分（折合人民币1000元）。如果不选择该方案，用户需要多等一到两个月的时间，在12月之后才有机会提车。
+这并非理想汽车独创，10月末，小鹏汽车也为即将交付的小鹏P5车型采取先交车、后续再分批补装雷达的方案。
+而没有上述方案的蔚来汽车销量则是受到了较大程度的影响。
+蔚来汽车此前一直稳居造车新势力销量首位的宝座，但受供应链危机的影响，2021年7月，蔚来汽车首次在有公开披露的月度销量排名中失去“销冠王座”，被小鹏汽车和理想汽车双双超越。
+从2021年前11月累计销量来看，本来跑在前面的蔚来汽车也被小鹏汽车超越，从双方预期来看，后者很有可能取代蔚来汽车成为年度销量冠军。</t>
         </is>
       </c>
     </row>

--- a/cnki.xlsx
+++ b/cnki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>row_no</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>title</t>
@@ -496,8 +501,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -636,8 +643,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -804,6 +813,2472 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>小米手机十周年：“全球第二”是如何炼成的？</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>电脑报</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>小米手机; 小米公司; 出货量; 何炼成; 十周年;</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>编辑观察</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>信息科技; 经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>无线电电子学; 工业经济</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>F426.63</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>小米手机的第一次发布会，是从雷军的一句道歉开始的。
+十年前的2011年8月16日，北京798艺术中心，雷军怀着忐忑的心情走上了舞台。发布会当天，狂热的粉丝将会场入口堵得水泄不通，原本500人的会场生生挤进了800人。
+“在这里，对外面还在排队，没有办法进入现场的粉丝们说声对不起。我真的没有想到会来这么多人，谢谢大家的支持！”上台之后，雷军的第一句话就是对粉丝表达了歉意和感谢。
+崛起：三年，出货量破千万
+这场多年以后依然让雷军印象深刻的小米初代发布会，是小米手机的起点。
+小米1是当年中国首款双核1.5G智能手机，也是当时全球主频最高的智能手机。在那个国产手机还以山寨和劣质为主要印象的年代，它采用了高通骁龙MSM8260双核处理器，1GB运存，还配备了一颗800万像素的后置镜头。
+这样的配置和性能，在当时的手机市场罕有敌手。而最关键的是，它的售价仅需要1999元。
+小米1最终卖了790万台。对于一个初创手机品牌来说，这是一个奇迹。
+初代产品大获成功之后，小米紧接着在次年推出了小米2。
+和初代相比，它是一款更加成熟的机型，配备了高通28nm四核+2GB RAM+4.3英寸720P分辨率IPS屏幕等一流的硬件性能。与此同时，还在设计、系统、相机等方面都做了很大的改进和提升。
+上市之后，小米2同样供不应求，受到了市场的广泛追捧。而依托成熟的软硬件方案，小米也在后续衍生出了小米2A、小米2S这一系列“家族机型”。
+2013年发布的小米3，是小米数字系列历史上最特殊的一款产品。它在产品和市场层面都做了堪称激进的改变，配置上分为两个版本：移动版是NVIDIA Tegra 4处理器，联通版/电信版则是高通骁龙800处理器。
+2013年，小米手机的出货量达到了1869万台，这是小米手机历史上第一次实现了千万级的出货量。
+危机：狂奔背后的潜在危机
+2014年发布的小米4上，可以看到小米在产品理念上的全新变化。这一次，小米4重新回归了小米手机前两代奠定下来的圆润机身设计。同时大幅调整了机身的设计，加入了号称经过40道制程、193道工序的不锈钢中框，让小米4的质感和手感都得到了大幅度提升。
+被看作是小米手机在工业设计上的一个转折点的小米4，上市之后大获成功。十个月的时间内，出货量就突破了1000万台。这一年，小米手机也拿出了漂亮的成绩单：2014年全年手机出货量达到了6112万台，同比增长 227%。
+按照出货量计算，小米公司2014年以12.5%的市场份额，成为中国最大的智能手机厂商。排在小米后面的，分别是苹果、华为、联想和三星。
+也是在这一年，小米正式启动了全球化计划，小米手机开始走向世界。
+但意气风发的小米手机，很快就迎来了挑战。2015年推出的小米Note系列，由于高通芯片过热等问题，导致冲击高端市场失利。而作为小米手机代表的数字系列，也因为小米在供应链方面的问题，首次缺席。尽管2015年小米手机依然有6655万台的出货量，但其增速相比之前，已经大幅放缓。
+可惜的是，2016年发布的小米5并没有扭转困局。这款时隔两年回归的数字旗舰带来了弧形金属中框、3D陶瓷后盖等一系列新的设计，依然是当年一流的性能配置，依然是1999元起的售价。不过还是因为供应链等问题，小米5上市之后长期缺货。2016年，小米手机的出货量为5542万台，首次出现了下滑。
+破局：黑暗中的曙光
+2016年10月发布的小米MIX可以看作是小米手机在“黑暗中的曙光”。作为one more thing，小米MIX一经推出便以“全面屏”的设计技惊四座。它采用的无额头+下巴的全面屏设计，屏幕占比达到91.3%，视觉冲击力极强。而对于小米来说，MIX更像是一针强心剂，极大鼓舞了整个团队的士气。
+很快，小米就带来了经典的产品——小米6。这次小米在工艺、设计以及功能体验上做了更多突破性的创新尝试：它率先使用了无开孔指纹识别，一体性更强。还有为人津津乐道的亮银探索版，在当时都是堪称惊艳的设计。
+小米6一经推出，便好评如潮。即便它打破了自小米手机初代就定下来的“1999元定价铁律”，也依然广受欢迎。均衡全面的功能体验，使得它成为小米手机“史上最强的钉子户”：根据小米官方的统计，至今仍然有215万用户还在使用这款手机。
+2017年，小米手机全年出货量达到了9141万台，成为当年增长最快的手机品牌。小米手机终于走出了此前的阴霾。
+2018年是小米公司成立的第八个年头，为了庆祝这一时刻，小米在数字旗舰的命名上直接跳过了小米7，新的“八周年旗舰”被命名为“小米8”。它身上有很多“秀肌肉”的味道。除了一如既往的顶级性能配置之外，小米8还在安卓平台上首次搭载了3D结构光，并带来了独具一格的透明探索版和屏幕指纹方案。
+在小米8发布前，小米还宣布成立独立的相机部门。雷军表示“一定要把小米手机的拍照品质做到世界顶级水平”。这一年，小米还将红米产品线独立为Redmi品牌，形成了小米、Redmi齐头并进的双品牌战略。
+小米9系列就是小米双品牌战略下的产物。在小米9上，小米全球首发高通骁龙855移动平台，这意味着小米在上游供应链已经有了更多的话语权。
+最关键的是，这一次小米9的起售价为2999元，已经逼近了3000元的高端手机主流价位。明眼人都能看出来：小米已经为冲击高端市场，做好了准备。
+扬帆：高端突破，冲击第一
+立志要重启高端之路的小米，将重点放在了小米10系列上。
+作为小米公司十周年的旗舰，甩掉了“性价比包袱”的小米10，更像是一个没有短板的全能“水桶机”：首发骁龙865、1亿像素AI四摄、5G+WiFi6……各种顶级的旗舰配置应有尽有。
+售价3999元起的小机10和售价5299元起的小米10至尊纪念版经受住了高端旗舰市场的检验：该系列原本计划卖200万台，而最终卖出了577万台，远超预期。
+凭借在手机市场的全面突破，2020 年小米全球智能手机全年出货量为 1.464 亿台，同比增长 17.5%。
+进入2021，今年是小米公司新十年的第一年，也是小米手机发布的十周年。用雷军的话来说，小米“要用重新创业的决心，正式开启新十年的征程”。
+今年上半年发布的小米11系列继续在高端市场一路狂奔：该机在前代的基础上进行了大量的升级和改进，性能、屏幕、影音等方面都全面突破，表现更加出众。售价方面，3999元起的小米11 依然维持了小米一贯“厚道”的定价，被称为2021年高端旗舰手机的“守门员”。
+和去年一样，小米今年也推出了他们在高端市场的代表产品——小米11 Ultra。这款被称为“安卓之光”的超大杯旗舰，用上了当前手机市场你能想到的几乎所有的豪华配置。
+在全新的小米11系列的助力下，小米今年获得了突破性的市场表现：第二季度以5280万部的智能手机出货量，16.8%市场份额，成功超过苹果，成为全球第二。
+从一个8人创业团队，成长为全球第二的手机品牌，排名第338位的《财富》世界500强企业，小米只用了十年。站在一个企业和品牌的角度来看，小米依然年轻，依然热血，依然潜力无限。
+2021年度演讲上，雷军和他的小米公布了自己的目标：三年之内，成为全球第一。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021雷军年度演讲全文：这些年经历的艰难选择</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>企业家日报</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>小米手机; 投资者; IPO; 发行价;</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>华东周刊</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>工业经济</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>F426.6</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2021年8月10日晚上19:30，小米十一周年，雷军年度演讲——“我的梦想，我的选择”如约而至。在近三小时的演讲中，雷军首次揭秘他最艰难的10个选择，向大家分享了这些年来，小米在追寻梦想的路上凭什么一路前行，又是如何一步一步成长的。
+发布会上，雷军宣布了小米的下一个目标：三年时间，拿下全球第一!
+此外，雷军还给大家带来了小米MIX4，小米平板5、Xiaomi Sound、小米电视大师77OLED及小米电视6OLED，CyberDog仿生四足机器人等一系列让米粉惊喜的新产品。同时，首位小米品牌代言人诞生，他就是今年东京奥运会男子百米赛跑亚洲纪录创造者——苏炳添。
+今年是小米手机十周年，真诚感恩所有帮助过我们的米粉朋友们和合作伙伴们，一路上，我们一起同行，相信我们都能走到梦想的彼岸。
+以下是雷军公开演讲全文，与你分享。
+大家晚上好，欢迎大家来听我的演讲。
+去年是小米公司创办十周年，我们认真做了总结和反思，用重新创业的决心，正式开启了新十年的征程。今年是小米新十年的第一年，也是小米手机发布的十周年，你会明显地感受到，小米发生了很大变化，它在一步一步成长，在一步一步长大。
+前几天，小米第三次上榜了《财富》世界500强，全球排名338名，进步了84名。还有一个好消息，大家可能都已知道：国际调研公司IDC报告显示，2021年第二季度，我们的手机销量超过苹果，首次成为了全球第二，全球市场占有率达到16.9%。也就是说，全球每卖出六部手机，就有一部小米。销量同比增长86.6%，小米正在高速成长中。
+这是一个天大的好消息，我们都非常激动。感谢所有小米同学的辛勤付出，更要感谢全球米粉十年来不离不弃的支持!
+在这个幸福的时刻，我想起七年前难忘的一幕：那是2014年11月，乌镇首届世界互联网大会上，主持人问我，小米未来发展战略。
+那时，小米手机发布仅仅三年时间，成为了中国第一、全球第三，这真的是一个奇迹。那个时候的我，正是意气风发的时候，我脱口而出：五到十年，我们要做到全球第一。
+苹果是当时的全球第一。主持人马上问在场的苹果高级副总裁布鲁斯·塞维尔，你怎么看。他说，Its easy to say,its much more difficult to do.
+当场被打脸，无比尴尬，台下几百位观众笑成一片……
+真的没有想到，7年后的今天，我们超过苹果，首次成为了全球第二!
+还有更多的好消息，我们在22个国家排到第一位。在欧洲这样的发达市场，我们市场份额达到了惊人的25%。我们在欧洲市场登顶了，成为了第一名!这是中国企业第一次达到这个成就。
+拿到全球第二之后，大家都特别高兴，觉得全球第一唾手可得。在这里，我还是需要讲实话：不要低估世界级巨头的实力。我们还是一个年轻的公司，我们需要非常冷静看到差距，继续夯实基础，稳打稳扎，当前小米的任务是真正站稳全球第二。
+小米的梦想就是“让全球每个人都能享受科技带来的美好生活”。这条路注定很漫长，很坎坷。我和小米全体同学们，都会拼尽全力去证明：小米的梦想一定可以实现!
+去年我办了人生第一场演讲，今年我决定再办一场，演讲的主题是《我的梦想，我的选择》。主要想讲讲，过去这些年，为了追寻梦想，我们克服了哪些困难，做了哪些艰难选择。
+股市风云
+◎破发
+2018年初，我们经过反复商讨，决定上市。那个时候资本市场很火，投行把小米IPO发行价定在HK$17-HK$22。几乎每个创业者都希望把价钱定得高一些，但我们毫不犹豫选择了最低价，定在HK$17。
+我们非常真诚希望，我们的股票也能和我们的产品一样，“价格厚道”。我们愿望是非常美好而朴素，但现实可能没有那么美好。
+2018年7月9号，万众瞩目的小米IPO终于来了。现场氛围非常热烈，这是香港首家同股不同权的公司上市，也是全球第三大规模的科技股IPO，港交所还专门花30万港币定制了一面大锣，现场观礼人数超过了600人。大家期待小米开盘后股价能够暴涨。
+谁也没有想到，一开盘，破发了!当时，大家全懵了。破发，就是股价低于发行价了，就是IPO投资者全部亏了。对于IPO来说，这是一件非常难堪的事。
+仪式结束后，还有很多媒体堵在门口，谁也不愿意面对尴尬时刻，我们几个躲进了港交所的一个杂物间，心里特别不是滋味。有个同事看到我们，就拍下这个尴尬的场面。
+当天晚上，我们按计划举办了内部答谢会。大家都来向我祝贺，但我心里始终沉甸甸的。晚宴致辞时，我忍不住说：“今天破发，我对不住大家了。我们会努力工作，一定要让IPO投资者至少赚一倍!”
+那天晚上，我喝了很多酒，只记得我跟同事反复说，我们一定要努力工作，不能亏别人的钱。
+第二天早上，我特地买了一条破洞牛仔裤，这是我一辈子第一次穿破洞裤。心里只有一个念头，我一定要牢记破发的这一天!我还专门发了一条微博，时刻提醒自己：虽然小米已经上市，但革命尚未成功，同志仍需努力。
+◎回购股票
+幸福来得太容易，第二天我们股价就涨回发行价，之后一路涨到了24块。
+正当我们踌躇满志的时候，中美贸易战升级，小米股票开始了一路跌跌不休。就这样，跌了一年多，到了2019年9月，一路跌到8.28港币。所有人的信心都几乎崩盘了，甚至还有人认为会跌到4块港币。
+那段时间，我的情绪非常低落，特别不愿意见投资者。有位投资者，指名一定要见我。刚见面，他就毫不客气地说，“你们小米让我亏了这么多钱，真的不知道你们是怎么干的?”接着，从战略到产品再到管理，把我们当小学生，数落了一个多小时。我衬衣都湿了。
+会后，我一个人在会议室呆了很久。那一刻，我非常绝望。
+那段时间跌跌不休，我无数次问自己：“我们是如此努力的工作，小米的收入和市场份额都在增长。为什么资本市场就是不认可小米?”我实在有点想不通：“如果我是投资者，我自己会不会买小米股票呢?”
+我们面临一个重大选择：在股价跌到大家绝望的时候，我们自己敢不敢真金白银买自己的股票。这是一个灵魂拷问。我始终相信我们小米的事业。同时我也是个自信的人，我坚信，“最好的投资，就是投资自己”，鼓起勇气说服大家进行回购。
+董事会同意后，我们掏了36亿港币的真金白银，均价9.35港币买了大量小米股票。
+今天回头看，真的抄到底了!但当时，这个决策需要巨大的勇气，万一抄到半山腰呢?
+苦心人，天不负，小米股价开始慢慢回升。2020年7月10日，上市两周年的第二天，小米股价终于涨回了17块港币，也就是IPO发行价。
+我松了一口气，时隔两年，终于可以抬头挺胸、重新做人了!接着，小米股价一路高歌，到了2021年1月4日，收盘价34块港币。让IPO投资者赚一倍，当初吹的牛，我们终于兑现了!“破发”给我造成的心理阴影也终于烟消云散。
+那天，我很认真地跟同事们说，富途、老虎、同花顺，雪球、大智慧、自选股，这些股票软件，统统可以卸载掉了，我再也不用关心股价了!
+从明天起，做一个幸福的人，喂马、劈柴、周游世界。
+高端之路
+我们是如何走出股价低谷的?这几年，越是在股价低迷的时刻，我们越是憋着一口气，拼命投研发。小米要想成为一家伟大的公司，要实现自己的梦想，就一定要突破高端。
+其实，小米手机刚起步的时候，就是从高端入手的，小米手机第一代就是当时最高端的智能手机。后来我们做了面向大众用户群的红米产品，非常成功，在全球范围内，推动了智能手机的普及和移动互联网的发展。
+谁也没有想到，这个成功极大地稀释了小米品牌。再加上我们自身实力不足，小米被很多人误解成只做中低端。
+突破高端就迫在眉睫。
+◎小米10
+小米的高端之路，从小米10正式开始。
+为了把高端做好，我们不惜一切代价，死磕体验，细心打磨所有的细节。研发完成后，一测算，大家愣住了。4G升5G后大幅飙升的原材料成本，再加上巨额研发费用，要想做到不亏损，就必须同时满足两个条件：定价必须过4000元，销量也必须过200万台。
+小米手机数字系列，定价还从来没有超过3000元过。这次定4000元，一下子贵了1000元，米粉能接受吗?这么贵的手机，我们能卖出200万台吗?
+我们的团队压力巨大，通宵达旦开会，商量着各种复杂的问题：如何破圈，如何影响商务人群，甚至是不是要找跑车品牌联名等等。我也懵了，懵了一段时间后，我认为只有一条路：相信米粉，依靠米粉。
+200万台听起来数量很大，但中国有1亿多人在用小米手机，有没有2%的用户相信我们，愿意给我们一次机会呢?我认为，只要把产品做好，一定会有。我们要做的，就是全力以赴做一款米粉真心认可的高端产品。
+想明白这一点，大家的心理包袱顿时放下了。接下来的日子里，我们集中精力死磕产品，继续打磨细节。产品完工后，我们忐忑不安等待发布会，等待产品发布后用户的反馈。
+谁也想不到，2020年初，一场突如其来的新冠疫情打乱了一切。感觉整个世界都停摆了……我们精心准备的小米10怎么办?是推迟，还是取消?我们所有人都痛苦万分。
+到了2月初，我们终于做了一个艰难又大胆的决定：按原计划执行。2月13日，我们克服了重重困难，发布会如期举办了。这是一场纯线上直播的发布会，会场里除了工作人员，空无一人。戴好口罩，走向舞台时，我还是非常担心我的状态和直播发布会的效果。
+但灯光亮起的那一瞬间，仿佛千百万米粉的身影就在眼前，仿佛听到他们此起彼伏的欢呼声。
+这次发布会空前成功，受到了米粉们热烈支持。第二天小米10首发，1分钟突破了2亿销售额，卖疯了。这是疫情后第一场发布会，为当时全行业复产复工趟出了一条路来。
+就这样，小米冲击高端市场的第一仗，历经重重坎坷，大获全胜!
+截至今天，小米10系列累计销量已达577万台，小米10S到现在还在热销中。
+◎小米11Ultra
+小米10系列大卖，团队士气高涨，我们需要乘胜追击。
+影像技术是手机行业的技术制高点。相机负责人朱丹认为，硬件上，我们一定要跨越式发展，能不能把相机传感器做到手机上，大比分领先对手，让小米登上全球影像的巅峰。设计负责人朱印立刻疯了：如果这样的话，手机可能会厚到用户无法忍受。
+经过反复争论，大家终于达成了一致：为手机拍照的发烧友专门做款手机，追求巅峰的相机体验，这就是小米11Ultra。Ultra就是极致的意思。
+在突破高端的路上，我们选择了这样一条路：我们要不顾一切追求巅峰体验，哪怕不完美!
+相机部花了18个月，巨资定制了GN2传感器，底大到吓人，尺寸将近一英寸。手机设计出来后，拍照效果非常惊艳，可以媲美索尼黑卡，但相机的凸起和Deco也非常夸张。这真的是一个大胆的设计。
+设计师们还是不放心，反复改进，后来拿出了比较优雅的方案：在相机Deco上加一个小屏幕，看起来就舒服了很多。改进后的产品原型出来后，我们内部同事们的评价不错，这让我心里踏实了一些。
+发布会后，米粉们评价非常强烈，我觉得主要原因是，Ultra太强了!它以绝对优势斩获了DXOMARK全球总分第一名，并霸榜了122天。我一直担心的设计问题，米粉们也非常喜欢，觉得有个性，有辨识度。
+发布会后，Ultra在全球范围内都引发了巨大的轰动。国际上很多科技博主都给予了极高的评价。
+这次预定的情况也远超预期，大家都特别开心。没想到，我们很快又掉到坑里了。
+Ultra这款产品非常复杂，时间又非常紧，用户预期也非常高。我们不少细节没有达到大家期待，又被用户骂惨了。这几个月，我们组织了专门的团队在持续优化，基础体验已经有了显著的提升。待会MIUI负责人金凡专题给大家做汇报。
+小米的高端之路，其实现在才刚刚开始。我们会不惜代价持续投入，我相信，小米的高端之路就一定会成功!
+飞来横祸
+最近一年，小米稳步增长，正是一派欣欣向荣的景象。
+谁也没有想到，今年年初就遭遇飞来横祸。
+1月15号早晨，美国国防部把我们列入了DoD清单。开盘后，小米股价应声大跌，跌幅超过了30%。之后，依然狂跌不已，最低跌到HK$21，小米市值跌掉了3000亿港币。
+DoD清单，就是美国国防部认定的“中国军方拥有或控制的中国企业清单”。被列入这个名单后，美国政府禁止美国投资者投资，这对海外上市公司的股价打击非常大。对小米全球业务开展，更是一个长期的阻碍。
+我们想破脑袋也不明白，小米怎么就成为了一家“涉军企业”?网上有很多段子，有网友说，是不是因为创始人叫雷军呢?
+我们第一次遇到这样的事情，都有点慌。我觉得，我们应该立刻站出来澄清。管理层很快达成一致，发布公告：我们并非涉军企业，坚决反对美国国防部的无理制裁。同时联系美国国防部了解情况。麻烦的是，美国国防部说，这是军事机密，根本就不搭理你。
+眼前只有两条路：要么认了，要么起诉美国政府。一家中国公司起诉美国政府，其实胜算不大。DoD清单，当时还没有任何一个起诉成功的案例。更大的担忧是，起诉会不会激怒美国政府，招致更大的打击。
+我们请教了很多律师和国际关系的专家，众说纷纭，分歧很大。但小米是一家在香港上市的公众公司，我们的信息高度透明，我们对打官司还是有一定的信心。
+最后我们还是做了一个艰难的选择：直接起诉美国政府，用最堂堂正正的方式来捍卫我们的合法权益!
+起诉后，美国国防部才不得不公布了原因。2019年，小米创始人雷军获得了由工信部等评选的，“优秀中国特色社会主义事业建设者”的称号，工信部是中国军民融合的推动部门，所以，小米“涉军”了。
+看到这个理由，我们大家都觉得啼笑皆非。在法庭上，我们的律师问：获奖名单中多达500人，其中有七匹狼的老板、老干妈的老板，难道做服装和辣椒酱也涉军吗?
+终于，经过几个回合的交锋。5月25日，我们赢了!
+这是史无前例的胜利!在小米胜诉的鼓舞下，又有几家中国公司起诉成功!这次胜诉，对小米未来的发展影响极为深远。
+情义无价
+前面讲的选择都是关于公司的选择，接着，我讲一个关于我个人的选择。
+这十年，大家把我和小米划了等号。其实，我还有另外一个身份，那就是金山的董事长。
+我怎么成了金山的董事长呢?这来自一个“不理智”的决定。我对金山有非常深的感情。从22岁干到了38岁，我参与金山的全部创业过程，金山就是我全部的青春。
+2011年，我们正在热火朝天创业。金山遭遇巨大危机，求伯君、张旋龙两位大哥经常来游说我，希望我能重回金山。但我已经开始创业了，这不可能呀。他们说，兼职干也可以，只要你接就行!
+当时小米手机发布在即，正是最关键的时刻，理智告诉我：小米才刚刚起步，千头万绪，千万不要感情用事，绝对不能分心!
+但金山咋办呢?两位大哥二十多年的情义，四五千兄弟们的前途，我也于心不忍!我非常痛苦，纠结了好几个月。我们小米的几个创始人看不下去了，劝我说，“与其这么痛苦，还不如接了。天大的事情，我们大家一起扛!”
+他们是小米创始人，肯定希望我专注在小米业务上。但他们了解我的性格，也了解我对金山的感情，才会给我这样毫无保留的支持，当时，我非常感动。就这样，在小米联合创始人们的支持下，2011年7月7日，我正式接任了金山董事长。
+我一接手，的确有点手忙脚乱。多亏了金山兄弟们齐心协力，金山逐步走出了困境，重新恢复了生机。
+今年是金山创办33周年，也是我接任董事长第十年，金山已经发生了脱胎换骨的变化，收入从不足10亿，增长到合并收入120亿，增长超过11倍!十年过去了，我非常欣慰，在兄弟们的帮助下，没有辜负金山，所幸也没有影响小米。
+今天看起来，当初不理智的选择，背后默默影响我的，其实就是四个字，情义无价。十年来，对用户、对员工、对合作伙伴，我们始终如此。
+范海涛老师，去年她写了一本小米的传记《一往无前》。今年她又刚写了一本金山的传记《生生不息》，今天首发，已经在全渠道上架，感兴趣的朋友可以到小米有品买一本来看看。
+一路同行
+8月16日是小米手机十周岁生日。感谢米粉朋友们一路同行，感谢大家一起见证了小米十年的成长。
+从小米1到小米11，加上，从MIX1到MIX3，这13款手机连在一起，就是小米手机的十年。
+有米粉告诉我，他把这13款手机收全了，这让我非常惊讶。我相信小米内部也很少有人能收集齐所有的型号。我去翻了一下我的收藏，找齐这13款手机，拍了一张照片。
+真诚感恩所有帮助过我们的米粉朋友们和合作伙伴们，一路上，我们一起同行，我们相信，我们都能走到梦想的彼岸。
+这十年，实在太忙了，我几乎没有休过假。去年6月，我好不容易请了几天假去云南徒步。我当时戴着墨镜、帽子，估计没有人能认出我。
+在香格里拉附近的一个国家森林公园里，我偶遇了一个年轻人，大家一起徒步，边走边聊。他叫姚聪，27岁，华能集团的一名风电工程师。他在山里工作，每个月工作二十天，休息十天。偶尔也会觉得山里的工作很枯燥，但觉得风电事业还是非常有意义。
+聊着聊着，我突然发现他用的是小米8透明探索版。我估计他没有认出我来，就装着没看见。我们一起走了大约10公里，快结束的时候，他才突然说，雷总，能不能一起合张影?我愣了一下。
+他说，我一开始就认出了你了，只是不想打扰你，就没说。他告诉我，他非常喜欢小米。小米每次出旗舰的时候，他都打电话找当地的代理商，叮嘱一定给他留台最好的，等他下山的时候去取。
+他说，他可以买得起任何一个品牌的手机，他也用过其他牌子，但最后他还是坚定地选择了小米。“因为小米不一样，小米的理念不是赚更多钱，小米选择了一条更艰难但是更有意义的路。”
+他看着我，很认真地说，“我也是一个有追求的人，所以，我更喜欢小米。”
+这段话在我心里掀起了巨大的波澜。
+我知道，世界各地有千千万万像姚聪这样的米粉，十年来一直默默支持我们、信任我们。正因为这些信任，才让我们战胜了所有困难，走到了今天的世界500强，走到了今天的全球第二。
+正因为这些信任，让我有勇气站在这里，大声告诉大家，我们下一个目标：三年时间，拿下全球第一!
+小米创业11年来，我担心过失败，担心过自己的能力能不能跟上公司的发展，也担心过体力和精力，但每当遭遇巨大危机和挑战，我都会毫不犹豫挺身而出。我不是天才，也不是什么劳模，更不是什么战神，我只是个普通的工程师，追求梦想，做自己热爱的事情。
+关于梦想与选择的演讲，我们就讲到这里。
+接下来，我们就进入新品发布环节。
+首位小米品牌代言人苏炳添
+今天发布的下半场开始前，先给大家报告一个最新的好消息：中国最耀眼的短跑明星苏炳添正式成为小米的品牌代言人。
+在看东京奥运会比赛时，苏炳添深深地打动了我。一位大学副教授，32岁的年龄，依然活跃在最激烈的男子100米赛场上，苏炳添，这次以9秒83的成绩，再次突破自我，刷新了亚洲纪录，成为第一个进入奥运会男子100米决赛的亚洲人，实现了历史性的突破。这是中国的骄傲，也是亚洲的骄傲。
+苏炳添那种奋斗、拼搏、追求极致的精神，和小米的品牌精神完全契合。能邀请到苏炳添成为小米品牌新的代言人，我非常高兴。更高兴的是，苏炳添告诉我，他一直很喜欢小米，能够为小米代言，他感到非常骄傲。
+接下来，我们正式开始新品发布环节。
+小米MIX4一款面向未来的全面屏手机
+2016年10月25日，小米推出了全面屏概念手机小米MIX，拉开了智能手机全面屏时代的帷幕。
+今天，在万千米粉的期待中，小米MIX4正式亮相!
+◎CUP全面屏
+小米MIX4搭载了前沿的「CUP全面屏」屏下相机科技，将前置相机完美隐藏于屏幕下方，没有挖孔、水滴的视觉阻碍，正面尽是一块完整的屏幕。
+◎Unibody全陶瓷机身
+小米MIX4延续了MIX系列在陶瓷工艺上的探索，采用了行业独一无二的Unibody全陶瓷机身，其质感温润如玉，重量减轻30%，整体机身无接缝。它还有一款全新配色影青灰，其灵感源自宋代影青瓷，质地优雅，握在手中仿佛一件艺术品。
+◎UWB一指联
+作为首款支持UWB功能的国产手机，小米MIX4实现了厘米级精准空间定位，让手机与AIoT智能设备的连接更为安全准确，轻松选配一指连伴侣，实现完美遥控。
+◎充电速度再提升
+小米MIX4配备了120W有线秒充与50W无线秒充，让充电速度再度提升。在疾速模式下，有线秒充15分钟即可充满，无线秒充28分钟充满。
+MIX，因梦想而生。它是工程师对科技的理想，它是设计师对美学的执着，更承载了万千米粉对未来的想象。小米MIX4，献给最初的梦想，献给每一位米粉。
+小米平板5
+梦想人生，这次由自己执笔
+三年打磨，小米平板系列正式回归!此次小米平板5系列实现了高效办公、灵感创作和大屏娱乐三个核心应用场景的领先体验。
+◎高效办公
+小米平板5的分屏和小窗功能，可以同时使用多个软件，还可以在应用之间任意拖拽文件。另外，配备的键盘与电脑键盘布局相符，更符合打字习惯。
+这个轻薄便携的专业生产力工具，可以轻松提升工作效率。
+◎灵感创作
+小米平板5，可随时记录创意，搭配的小米灵感触控笔，让速写笔记、设计绘画、随手涂鸦更轻松，像在纸张上书写一样自然、精准。
+◎大屏娱乐
+小米平板5，工作娱乐两不误。屏幕拥有2.5K超高分辨率和120Hz最高刷新率，支持杜比视界和杜比全景声双杜比，配合8扬声器带来的环绕立体声，精彩大片、动感音乐，都能完美呈现。
+不仅如此，它的67W有线快充，67分钟充电100%，让你随时享受，乐趣不间断。
+MIUI12.5增强版4大优化，体验升级
+MIUI12.5增强版，修复了用户集中反馈的系统头部问题163个，系统应用问题250个，同时从底层框架到上层应用进行了全方位优化。
+◎液态存储
+频繁的删除文件，也不怕存储空间碎片化造成手机卡顿，让手机久用如新。
+◎原子内存
+就算内存不足，也不用杀后台，手机自动压缩清理无用功能，为新应用腾空间。
+◎焦点计算
+将手机算力集中在最需要的地方，让手机全面流畅。
+◎智能均衡
+平衡各硬件的运行，让手机更加低耗省电，对比功耗平均下降了10%。
+第一批稳定版将于8月13日起逐步推送，共包括11款机型，我们希望我们的努力能够进一步改善大家的使用体验。
+Xiaomi Sound小巧身材，震撼音质
+此次全新发布的Xiaomi Sound，拥有创新的计算音频能力、最新的联动技术，还有充满设计感的外观，好听、好看又聪明!
+◎震撼音质
+HARMAN殿堂级调音和Hi-Res Audio高解析认证，带来全新的听音体验。
+◎全新外观
+悬浮式触控顶盖、360度全向上出音，环形透明机身的材质，摆哪儿都好看。
+◎UWB连接
+音箱手机音乐接力，一键实现小米妙播。
+◎家庭传声
+小爱同学全屋对讲、智能联动，多设备串联成环绕立体声。
+作为小米人工智能的拳头产品，小爱音箱会为越来越多的米粉提供更好更一流的智能语音控制体验。
+小米电视大师77超高端电视“天花板”
+超高端小米电视大师77OLED及价格厚道的小米电视6OLED，一款是超高端新作，一款是“甜品级”爆款，共同亮相。
+小米电视大师77OLED拥有超震撼视觉体验，77英寸大尺寸的OLED面板，亮度更高、色彩更惊艳。由小米音效(Mi Sound)与哈曼卡顿“金耳朵”团队联合打造的声音模组，带来了最专业与真实的声音享宴。
+同时，这也是小米第一台支持UWB 一指连的电视，用手机就可以轻松遥控电视，可谓超高端电视的“天花板”。
+此外，我们还推出了年轻人第一台OLED电视—小米电视6，用厚道的价格带来影院级的视听效果，轻松入手无负担。
+一个有趣的小项目CyberDog仿生四足机器人
+这是一个有趣的小项目，却是工程师的大梦想。今天，CyberDog正式亮相，小米第一代仿生四足机器人，来了!
+它有一个很酷的名字——CyberDog，还有一个很萌的名字——铁蛋。它采用自研伺服电机，支持语音操控，能跑会跳，还能自主避障自动跟随。
+目前我们为大家提供了工程探索版，支持开源，后续会有小米开源社区。来小米社区报名，让我们一起探索未来吧。
+1999元，3.7亿回馈小米1首批18.46万名用户
+1999，看到这个数字，我心里还是一阵感动，这是我们小米过去十年最深的记忆。
+十年前的今天，我一直忐忑不安：一个没有任何硬件行业经验的创业者，做了款当时最高端的手机，定价1999元，只在网上销售，并且没有任何线下体验店，能卖得动吗?不可思议的事情发生了：8月16日发布，9月13日首发，第一次预订量就高达30万台。真的太疯狂了，远超了我们的想象。
+当时的小米，一家非常小的公司，这么多的订单完全搞不定，连滚带爬干了三个多月，到了12月17日，才完成了第一批的所有订单。
+我们最近仔细统计了一下，耐心等了我们几个月并支付完尾款的用户，高达18.46万人。
+1999元，18.46万台，3.7个亿，这是我们创业收到的第一笔款。有了这一笔收入，我们滚动发展，才有了今天的世界500强，才有了今天的全球第二!
+怎么才能表达我们的感激之情呢?首先肯定是把小米办成一家伟大的公司，才能不辜负大家的支持。
+在十周年这个特别的日子，我还想做一件特别的事情。我跟大家商量：能不能把小米手机首批用户的购机款全部退了?
+啊，3.7亿，全退了?这是一笔不小的数字。
+财务部同学提醒我，我们是上市公司，这会不会影响我们的财报?市场部同学提议，这3.7个亿拿来打广告，影响会不会更大?
+我跟同事们说，当年大家的这3.7亿，是小米成长路上的第一滴水、第一缕阳光。没有用户的支持，就不会有今天的小米。用户的心，是永远无法用金钱来衡量的!
+我们正式决定：向小米手机1首批18.46万用户，每人赠送1999元红包!
+现在开始，我想诚挚地邀请所有小米手机首批用户，回到小米商城，输入“小米手机十周年”，领取这份心意。这个红包，在8月16日当天，可以在小米商城买任何东西，没有任何门槛，没有任何套路。
+1999元红包，代表了小米三万六千名员工感恩的心!我们会永远感恩所有帮助过我们的米粉朋友们和合作伙伴们!
+小米的梦想就是“让全球每个人都能享受科技带来的美好生活”。这条路注定很漫长，很坎坷。但一路上，有全球几亿米粉同行，我相信，我们都一定能走到梦想的彼岸。
+谢谢大家。</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>小米造芯传递了什么信号？</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>深圳商报</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>钱飞鸣</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>国产手机; 联发科;</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2017-03-02</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>信息科技; 经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>无线电电子学; 工业经济</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>F426.63</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>低调许久的小米成功刷屏。2月28日，小米正式发布自主研发芯片澎湃S1，成为继苹果、三星、华为之后，全球第四个拥有自家芯片的手机厂家。
+对于缺芯少屏的中国手机行业来说，小米的突围确实振奋人心。点赞之余，不妨还是保持清醒的认知，避免点赞变成捧杀。
+小米造芯改变了什么？在媒体解读里，目光集中在“四大”，即能够拥有自主芯片的手机厂家由三变四。但是，这样的解读不免有着误导的成分。因为，全球智能手机谁都绕不开高通和联发科这两大芯片供应商。不谈高通，不谈联发科，只关注四大手机厂商，这好比一届顶着世界杯头衔的足球赛，突然间少了巴西和阿根廷。
+和小米造芯一起出现在报道里的，有这样一组数字：2016年1月到10月，中国仅在进口芯片上就花费了1.2万亿元，超过了进口原油的费用。拿走大头的，其实还是高通和联发科。能否配载高通骁龙的最新芯片，已是智能手机成败重要因素。雷军在发布会上说，自主研发芯片是占领了制高点，但是，占领并不代表站稳。因此，即使有华为的海思在前，小米的松果在后，芯片的大格局只能说多了中国的参与者，还不足以说拥有改变的力量。
+在小米造芯的发布会上，雷军关于“下半场”的判断更值得细读。这意味着，尽管国产智能手机去年创下了6亿部的出货量，在市场份额上拥有了和苹果、三星比肩的实力，看似红火的中国手机还是将进入残酷的淘汰赛。
+“下半场”比什么？是技术，是品牌，最终还是由此产生的赢利能力。进入2017年，舆论焦点里的中国智能手机陷入“能力危机”。“能力危机”可以说是全行业的共同难题。正在进行的巴塞罗那通信展，业内的评价是“平淡”，原因是本届展会尚无风向标意义的产品推出。在相关评论里，提到了二十多年前划时代的移动通信，提到了十年前PC化的苹果iPhone，直言智能手机处在创新空白期。如何不会错过下一个爆发点，核心的芯片无疑是重中之重。小米造芯，无疑是长远的固本强基之举。
+从营销策略上，小米借助造芯也将获得品牌提升。华为手机的崛起，在时间上和海思芯片的成熟保持同步。经过十年的磨练，海思在2014年站稳脚跟，随之而来的是MATE系列的应用，华为得以跻身高端市场。从雷军的表述里，不难看出小米同样期待重复华为的成长路径。专注核心技术研发，这是理想的品牌形象，可以摆脱国产手机一直强调性价比的中低端形象，从而杀入利润空间更大的高端。小米造芯，外战的效果尚需观察，内战的加剧却可预期。
+小米造芯会走多远？能走多远？这有待时间给出答案。处在产业链下游，国产手机的供应链把控能力普遍缺失，何时推出新品？何时扩大产量？都得看高通的脸色。小米造芯提升的产业话语权，带来的积极意义却是显而易见。今年以来，国产手机纷纷调价，究其根源却是一次来自外部的“被涨价”，因为上游核心零部件行业“缺货”，屏幕、芯片、模组等等元器件纷纷呈现涨势。小米造芯，仅仅是举动本身，就已增添了重要的博弈砝码。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>小米二季度出货量同比跌近四成 风口上的猪飞不动了？</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>通信信息报</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>林作萍</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>供应链; 智能手机市场; 出货量; 二季度;</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2016-08-24</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>厂商</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>信息科技; 经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>无线电电子学; 工业经济</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>F426.63</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>继今年一季度销量断崖式下跌后，市场调研公司IDC发布数据显示，小米智能手机2016年第二季度出货量同比再次暴跌38%，不敌华为、OPPO、vivo三大厂商，滑落成中国市场第四大手机厂商。作为曾经迎风而起，长期占据国内智能手机销量第一宝座的“猪”，小米手机究竟经历了什么？
+小米手机销售屡遇滑铁卢
+根据市场调研机构IDC发布的《全球手机季度跟踪报告》显示，2016年第二季度小米手机销量约为1050万部，较2015年同期的1710万部减少了660万部，降幅达38.4%。在国内市场方面，相比于华为、OPPO、vivo二季度出货量达到1910万部、1800万部、1470万部的数据，可以说小米智能手机已然被上述三家厂商远远甩到身后。
+实际上，小米手机销售乏力的姿态早在去年就已初露端倪。虽然，2105年小米接连推出了小米Note、红米系列等多款旗舰手机，但根据市场调研公司Canalys的数据显示，小米在2015年第三季度首次出现销量下滑，并被老对手华为超越，跌落至国内第二。而到了2015年第四季度，由IDC提供的数据显示，小米手机出货量与市场份额更是双双下跌，遭遇华为与苹果的围攻，沦为国内智能手机市场老三。
+进入2016年后，持续低迷的小米销售形势更加严峻。据行业咨询机构IDC发布的2016年第一季度《IDC亚太手机季度跟踪报告》显示，小米今年第一季度出货量不及千万，仅排名国内市场第五名，交出了2014年以来销量最差成绩单。反观对手华为、OPPO、vivo，一季度销量飘红，业绩狂增一举霸占了国内市场前三强席位。
+风口没风，猪难飞了
+曾经“为发烧而生”的小米，以突破性的互联网思维卖手机，刷新了公众对国产手机的认知，更打破了由苹果、三星等外国品牌统治的智能手机市场格局，是国产手机与中国手机市场的功臣。然而并没有任何一个品牌是完美的，持续“退烧”中的小米也是如此。米粉们在无限唏嘘小米的销量之时，也不得不面对以下几个问题。
+首先，小米智能手机新品无法及时推出。2015年底，各大产商纷纷推出新品，抢滩智能手机换机潮，小米却在等待高通骁龙的芯片量产，无限期地推迟自家旗舰款手机的发布时间。原定在2015年12月发布的旗舰款手机小米5，就是这么硬生生的被拖到了2016年3月才正式发售，极大程度的耗尽了购买者的耐心与信任，也失去了市场先机。
+其次，由于完全依赖于代工生产，小米的产品供应链十分吃紧。尤其是已发布的小米5，至今还未能实现批量上市。透过此前雷军对外表态将亲自坐镇生产供应链，也足以见得小米在这一方面的被动。须知，供应链的不足直接反应在出货量上，而出货量的“短腿”则直接导致小米迫不得已的“饥饿营销”。使不少厌倦“饥饿营销”的目标用户转身购买华为、OPPO、vivo等货源充足的品牌手机。
+另外，小米硬件性能的优势也在逐步失效。“为发烧而生”是小米打出生就喊出的口号，其从小米手机1到后来的小米手机2S，均配置了市场同期最强硬件与最优性价比，称得上是硬件性能的带头人。可如今，个别产品如小米4C遭用户反映机身存在发热问题，旗舰机型小米5的黑科技被业界人士数反驳为“黑用户科技”，并同样存在遭用户投诉机身发热的情况，都让小米名副其实的成了为“发烧”而生。
+最后，也是最关键的一点在于小米品牌定位的考量。在诸如华为荣耀、OPPO R7等品牌旗舰机型调整售价，进军中高端市场时，小米却依旧还在坚持千元机，推出“国民手机”红米系列。不可否认，低价是小米最初迅速抢食市场份额的关键，可是随着用户需求与市场的转变，小米的钥匙已然失效。当最初一批的智能手机消费者逐渐成熟，他们开始追求更舒适的体验、更知名的品牌、更个性化的功能，而不仅仅是一台“性价比”手机。此时小米所执着的低价不再对用户产生吸引，反而拖累整体品牌，将低端手机形象根深蒂固。
+多角度战略部署,小米能否重新起航？
+值得庆幸的是，直面销量滑坡的危机，以创新为本的小米并没有坐以待毙。随着我国智能手机市场发展如火如荼，小米也在革新发展，开展多角度战略部署。小米总裁林斌与联合创始人黎万强年初出席公开场合时，就对外表态2016年小米品牌将采取精准定位，布局三层级：低端大众的红米系列、中端发烧的小米系列、高端精致的黑米系列，进军更为广阔的销售市场。
+如今的小米，在着力打造品牌与产品开发之外，也从曾经执迷不悟的互联网营销里走出，开始重视线下销售渠道与销售市场的全新布局。今年6月，小米CEO雷军开始加快“小米之家”计划，扩张线下销售渠道，意图建成覆盖全国范围的线下自营门户网络，并强调“以每月新开5-10家小米之家的速度扩张，计划三年内做到1000家”。除此之外，在国内智能手机市场日趋饱和的当下，雷军还在全国两会期间透过媒体发声，宣布2016年小米将以印度为首的智能手机新兴市场作为主要目标，进一步拓宽海外市场，以寻求小米手机全新的销售增长点。
+小米采取的一系列应对措施，无不透露着其力图“洗心革面”重新崛起的决心。可是在被华为、OPPO、vivo等国内智能手机厂商夹击，以及苹果、三星等国外智能手机大厂强压下，未来的小米手机究竟会将继续走低，还是触底反弹，重新起航，我们仍需静观其变。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>太过于倚重营销难以做出好产品</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>深圳商报</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>李迩</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>小米手机; 净化器; 出货量;</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2016-01-18</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>商报眼</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>宏观经济管理与可持续发展</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>F203</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>上周，上海市质量技术监督局发布《2015年上海市空气净化器产品质量监督抽查结果》，公布4家不合格产品名单。格瑞卫康、EW10N、三个爸爸和小米等四个产品，被认为质量监督抽查不合格。其中，小米空气净化器还被备注：质量问题严重。该报告一出，马上引起强烈反响。
+半个多月前的圣诞节，北京小米公司楼下的清河小米之家，涌现出大批市民排队购买小米空气净化器。那般热闹场面，与报告的严词形成鲜明对比。一家号称以技术立身，“为发烧而生”的科技标杆企业，却屡屡曝出产品质量问题，从小米手机掉漆到屏幕货不对板，再到如今空气净化器被质监局点名“质量问题严重”。这既在我们意料之外，又在意料之中，毕竟小米互联网营销做得比产品好是大家公认的。
+作为第一家用互联网模式做手机的厂商，小米享受到第一波市场红利，在短短几年时间里，就从一家创业型公司，发展成为中国最具潜力的创新性互联网企业，并且市场估值高达450亿美元，被称为最有可能成为“中国苹果”的公司。然而，营销却代替不了产品，去年底雷军在国家会议中心用“很乔布斯”的方式发布红米 Note 3、小米空气净化器等新品。可“米粉”的尖叫还未散去，小米却屡屡因为质量问题被打耳光。
+不管小米承认与否，消费者的眼睛都是雪亮的，或许对小米来说，某一个手机，某一个空气净化器的质量问题只是个案，只是报表上的良品率问题，但这对消费者来说就是百分之百，质量问题就是质量问题，消费者会用脚投票。“小米营销比产品做得好”，与其说是消费者对小米营销手法的肯定，倒不如说是大家对其产品质量的调侃，号称有追求的雷军，听了应该脸红才对。毕竟，世界上没有哪一家伟大的公司，是靠营销吹出来的，即使如今估值高达450亿美元的小米也不行，如果小米始终奉行营销第一、产品第二，终究会被市场抛弃。
+其实，小米产品屡屡出问题的背后，是遭遇了成长危机，高估值让小米成为中国最有潜力的科技企业，也让小米背上沉重的负担，必须要由高成长来回应资本市场的期待。可事实上，当小米大步流星地在中国智能机市场超越苹果、三星电子后，要维持其增长势头却很难。调研公司Canalys的数据显示，去年第三季度，小米手机国内出货量同比下滑8%，出货量首次出现下滑。调研公司IHS的数据则显示，2015年上半年小米在国内的销量为3470万部，勉强领先于华为。这与雷军预言，小米2015年将售出1亿部手机的目标相差甚远，2015年前9个月，小米仅售出约5300万部。
+当过去一机吃天下的策略失效之后，小米用了最粗暴的做法，一是牺牲消费者的感受，以三个月迭代周期推出新产品，为市场打鸡血；二是全面撒网重点捕捞，市场什么热就做什么，美其名曰生态圈。
+可缺乏核心技术和打磨的产品，不是被消费者投诉，就是被人指责抄袭，虽然小米凭借高超的营销手法和公关手段都能涉险过关，但小米能一直如此吗？靠此就能支撑起450亿美元的估值吗？靠此就能成为“最具潜力的科技公司”吗？
+我看未必。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>破解手机“诚信门”要靠真诚</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>深圳商报</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>李迩</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>国产手机; 小米公司;</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2015-09-24</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>商报眼</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>工业经济</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>F426.63</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>“带头大哥”不仅是孤独的，更要不断迎接挑战和质疑。刚刚把三星拉下国内智能手机销量头把交椅的小米，最近不断遭遇诚信质疑。
+昨日凌晨，小米公司的一个官方账号“小米公司发言人”发表声明表示，小米4c将售机型屏幕均采用夏普、友达、LG的定制屏幕，不存在虚假宣传，并称诋毁国产手机者不属于这个梦想的时代。然而，小米的深情告白，却阻止不了人们对小米手机的质疑，仍有不少网络媒体指小米手机涉嫌虚假宣传。
+其实，从8月中旬开始，小米新发布的红米Note 2手机，就遭遇纷扰不休的“换屏门”，不断有专业用户爆料称，红米Note 2实际上采用的并非是官方宣传的夏普/友达等一线国际厂商的屏，而是国产厂商天马的屏。除此之外，包括摄像头器件等也引发质疑，一时之间，包括京东、1号店等平台都传出用户“退货”。专业打假人王海，也发出了召集令，称要组织消费者进行集体诉讼。屏幕事件成为小米又一次萦绕不去的诚信危机，这已经不是小米第一次遭遇诚信危机了。2013年秋季，小米3也曾因为更换芯片事件被推到风口浪尖。彼时，小米在发布会上宣称小米3使用高通800系列8974AB芯片，但随后被踢爆联通版采用的是8274AB系列，引起粉丝哗然。面对舆论重压，小米最后也是以技术文档交流不严谨、提出退货政策平息了这一事件。
+或许，正如小米说的那样，有人在背后黑小米，但苍蝇不叮无缝蛋，如果小米没有错在先，别人黑得了吗？退一步讲，如果小米不过度营销，不在广告上打擦边球，别人哪来的黑材料呢？擅长危机公关的小米，如今将“换屏门”说成是对国产手机行业有组织的诋毁，小米是国产手机的大佬没有错，但小米能够代表所有的国产手机吗？也许，能够代表的只是国产手机过度宣传，虚假标称参数的“潜规则”罢了。
+我们乐见国产手机扬眉吐气重新夺回市场，乐见小米这样充满创造力的新兴企业出现，但也希望小米这样的厂商，不要动辄拿国产手机说事，拿国产手机给自己当挡箭牌。不管什么时候，一个品牌要获得消费者的认可，首先必须要学会尊重消费者，懂得保护消费者的权益，小米当初为什么能赢得消费者？除了其把智能手机拉入千元区间外，“为发烧而生”的初心，良好的用户体验功不可没，可为什么成为中国手机“一哥”之后，却忘了自己的坚持了呢？
+不管小米有怎样漂亮的说辞，实际上无非是两点：一是不管承认与否，国产手机行业就是个大酱缸，小米或许认为自己这样做已经很“良心”了，在这个大酱缸里，没有几个比自己更白的了。二是小米虽然“为发烧而生”，却为资本而活，当其估值高达450亿美元后，卖千元机，赚百把十元的利润，早已不是“雷布斯”的兴趣所在，所谓的互联网思维下，他关注的是怎么尽量多拉人头，多攒用户，去资本市场上实现价值，而不是卖手机赚辛苦钱。在这样的逻辑下，要尽一切办法压低成本，干点偷梁换柱的事情也就在所难免了。
+所以，小米要怨就怨自己，怨自己忘记了初心，怨自己在资本世界迷失了自我，怨自己忘记该怎么去尊重消费者，特别是哪些曾经的“米粉”。如今，小米与其用拿国产手机偷换概念，搞危机公关，倒不如好好想想，该如何用实际行动重获消费者信任，用真诚走出“诚信门”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>创新创业企业这样孵化出来</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上海证券报</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>左晓蕾</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>创新创业; 支持体系; 天使投资人; 创业初期; 科技园; 多层次资本市场; 创业企业成长; 纳斯达克市场;</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2015-07-08</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>上证观察家</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>企业经济</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>F279.2</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>“科技园”最大的成功是探索出了一条符合“创新创业企业成长规律”的培育之路。创新首先需要新思想，“科技园”应该是思想孵化器。“科技园”的这些“咖啡厅”和轻松的聚会场所，实际上起到创业“社会中介”机构的作用，集聚了创新创业的思想和人才，也实现了草根创新与创新趋势的对接，完成了“新思想”的孵化。“科技园”提供了创新创业企业第二个不可或缺的孵化生态环境，大批“天使投资”公司为创新创业的公司提供创业初期最需要的资金支持。
+只有风险承受能力较强的天使投资，才是扶持创新创业企业最重要的基础资金的支持，由天使、风投和不同阶段股权投资基金组成的融资体系才是创新创业体系的融资体系。21世纪初的IT泡沫危机给美国创新创业企业最大的教训就是在创业初期要远离华尔街，危机同时也培育了美国为新业态企业成长过程提供融资的成熟体系，即初始期以天使、风险为主，中后期以不同阶段股权投资为主，也就是我们说的“场外”多层次资本市场。
+借鉴全球成功案例，以天使投资资金开始的“多层次场外”投资资金的“接力式”扶持机制是最有效最合适的支持初期创新创业企业发展的方式。也就是说，创新创业企业的融资支持体系在“场外”而不是在“场内”。重视“场外多层次”融资市场的发展，特别是重视“场外多层次”中“天使”基金层次市场的发展，是扶持创新创业企业成长的重要的金融生态环境。
+政府的创业引导基金作为有限合伙人，加上民间天使投资基金，引导国内“场外”多层次资本市场的建设，加大培育创新创业企业融资体系的支持力度，这可能是推动大众创业万众创新发展战略最基础、最有效、最实质性、最有必要的基础设施建设。
+两个月前，李克强总理参观了中关村科技园（“科技园”），并在大众创业万众创新相关的电视电话会议上，花了相当长的时间谈中关村科技园。各类“工业园”在国内已经有20多年的历史，“科技创新园”的概念也超过15年，近期12个“高新科技园”还上升到了国家层面，“中关村科技园”更是耳熟能详。李克强总理为什么百忙之中专门踏上这条不足200米长的街区？日前，笔者有幸随一国家级智库调研团重走了总理“科技园”之路。半天的“科技园”之行，让笔者大开眼界，非常兴奋地看到，“科技园”完全颠覆了过去的“开发区”、“创新工业园”的概念，形成了一个与当下很多支持中小创新创业企业发展完全不同的培育思路和金融支持体系。“科技园”的实践与笔者的思路不谋而合。“科技园”成功实践了“互联网+”是一个跨界融合的思维方式而不是简单的互联网企业，笔者反复强调的“创新创业初期的公司是不合适上市融资的”以及“场外多层次资本市场才是支持创新创业企业的融资体系”的观点，也得到了“科技园”实践的支持。从“科技园”成功走出了2万家创新创业的企业，但更大的成功是“科技园”真正创出了一个孕育创新创业企业的全新模式，成为大众创业万众创新战略最好的试验基地，最值得被借鉴和推广。
+没有围墙的“科技园”
+“科技园”最大的成功是探索出了一条符合“创新创业企业成长规律”的培育之路。创新首先需要新思想，“科技园”应该是思想孵化器。过去我们熟悉的所谓科技园区，一般是政府出面圈一块地，建一些办公楼或者厂房，然后引进一些企业安营扎寨收取租金维持运转。因为政府提供一些补贴或者信贷担保，入驻企业一般只进不出，往往导致它们不思进取，鲜有持续创新走出园区做大做强的案例，基本没有按照初衷，把园区建成创新创业企业的孵化器。
+而“科技园”是完全不同的布局，没有围墙更没有门卫。这里的物理生态仅是一条200米长的完全开放的街区，街区两边以两类“景观”为主。一类是创业咖啡、车库咖啡和餐厅等等谈话聊天的场所。这一类“景观”提供创新思维碰撞的环境，成就了创新创业企业两个最重要的“环节”之一“新思想”的孵化。据介绍，在“科技园”经常看到刚下飞机拖着拉杆箱的创客们走进某创业咖啡，加入新思想的讨论；来自全国的“奇思妙想”或者“胡思乱想”可能在车库咖啡刻意寻找的“碰撞”中擦出火花，转变为创业的平台；大学研究室的新概念和新技术，可能在这里找到转化的共识和共建一个技术转化主体的合伙人；大学生的“海阔天空”的想象力可以在这里得到专业的指点和引导落地成一个创新的企业；“互联网+”的新的思维，使各行各业呈现层出不穷的新业态和新商业模式。没有围墙、没有厂房的创业园区全新的物理生态释放了无限想象空间，孵化了“没有做不到只有想不到”的创新文化，孵化了给创新创业企业的“新思想”插上飞翔翅膀的生态环境。
+值得重视的是，“科技园”还形成了对“新思想”进行专业化市场化的筛选机制。不是所有的“新思想”都有价值和市场，不是所有的“新概念”都具备未来成长空间，成为一个可持续经营的企业主营业务。
+从防范创新泡沫化风险的意义上，上世纪90年代末21世纪初美国纳斯达克市场出现的IT危机教训是非常值得引以为鉴的。纳斯达克的IT危机就是一次“创新”概念泡沫化的危机。当时一位麻省理工学院教授的一个概念，比尔·盖茨给两千万美元包装一下，两年后就上市了；费城大学商学院一年开出400门IT方面的课程，基本上是老师们希望通过授课的方式进一步完善自己的一些“思考”，进而变成“创新”公司登陆纳斯达克。几乎是一个概念加上“炒作”就可以成就一家上市公司。在短短的几年时间里，近3000家“创新”公司在纳斯达克上市。世纪之交“创新”泡沫破灭，IT危机爆发，2400多家公司退市，纳斯达克指数从5200点下跌至1000点。纳斯达克危机引发了全球创业板市场危机。日本加斯达克关闭，韩国K斯达克经历了九死一生，我国香港创业板基本失去了资本市场所有功能，当时不完全开放的中国内地市场逃过一劫。
+与“创新的泡沫化”思路不同，“科技园”里“咖啡厅”或者“创新工场”实际上都是某类专业人士搭建的“创新思想碰撞”平台。比如“分期乐”是IC领域浸淫多年的270多位精英人士合伙组建的，专门为在IC领域的创意和发展提供咨询。对于一些不成熟的思路给予指点，好的思路可能被接纳入会，并给予必要的发展资金支持。因为是专业人士，他们对该领域未来发展的态势更有前瞻性，他们对创新思路的判断起到了一种是否有发展前景的筛选作用。还有李开复的创业工场，也属于蕴育信息化智能化领域创新创业企业的专业平台。进入工场的企业都要经过李开复先生和其他专家的评估和筛选。不是所有的创新思路都有发展的价值，但也不能轻易让有价值的思想被埋没，保证思想资源和各类资源的优化配置和有效使用，市场化专业化的筛选非常重要。
+“科技园”的这些“咖啡厅”和轻松的聚会场所，实际上起到创业“社会中介”机构的作用，集聚了创新创业的思想和人才，也实现了草根创新与创新趋势的对接，完成了“新思想”的孵化。
+创新创业企业融资支持在场外不在场内
+“科技园”的另一类“景观”提供了创新创业企业第二个不可或缺的孵化生态环境。200米长的街区挂牌了一连串的“天使投资”公司，为大批创新创业的公司提供创业初期最需要的资金支持。
+这些天使投资人，大多数是曾经的创业者，国内外的经验包括这些天使投资人自己的成功和失败的经历都反复证明，创新创业企业在开创初期的很长时间里是不赚钱的，而且未来是不是有成长性也是不明朗的，创新创业企业失败的概率很大。就算经过专家“筛选”的创新企业一般也需要至少5-8年甚至更长的时间来完成产品的创新和开发过程，这是创新创业企业必经的发展阶段和基本规律。亲身亲历的创业经历使他们深刻认识到，只有风险承受能力较强的天使投资，才是扶持创新创业企业最重要的基础资金的支持，由天使、风投和不同阶段股权投资基金组成的融资体系才是创新创业体系的融资体系。21世纪初的IT泡沫危机给美国创新创业企业最大的教训就是在创业初期要远离华尔街，危机同时也培育了美国为新业态企业成长过程提供融资的成熟体系，即初始期以天使、风险为主，中后期以不同阶段股权投资为主，也就是我们说的“场外”多层次资本市场。美国的300万天使投资人造就了成千上万的创新创业的企业，也成就了美国成为第三次产业革命的世界创新基地。
+对比之下，目前国内资本市场把“为创新创业服务”简单理解为降低门槛，让一些处于创新创业初期的企业上市融资，显然违反了创新创业企业的成长规律。创新创业企业是否具有持续盈利能力，在创业初期是很难判断的，所以创新创业公司生生死死是非常正常的，并非所有创新的公司未来都有成长性。有统计显示，创新创业公司成功的比例是10：1，甚至有观点认为是100：1。很大一部分被淘汰的企业并不完全是“钱”的问题，不具备潜力和发展前景得不到市场检验是主要问题之一。不是所有新业态公司，都能成为阿里巴巴。马云的创业经历也是历经失败挫折。阿里巴巴在15年前的创立初期，得不到国内投资人的支持，不能够认识和准确判断15年后的经营前景是主要原因之一。因为，互联网电商平台模式有一个摸索完善的过程，消费者长期消费购物的习惯不是一天就能改变的，特别是网上购物的主力80后、90后这些互联网的原居民十几年前还根本没有进入消费市场，更重要的是支付宝体系的支持和物流快递行业的跟进，这些都不是阿里巴巴早期具备的环境和条件。也就是说，电商模式是随着信息化发展和年轻一代对传统消费行为和生活方式的颠覆性变化而逐渐发展起来，而这种经历了十数年时间几乎是一代人的变化，一般不可能在创业初期对这种变化带来的经营前景具有前瞻性的判断，这也是阿里巴巴早期必须寻求国外的“风险承受能力较强”的天使投资的支持的原因。
+因此，我认为把《证券法》中“持续盈利”的条款改为“持续经营”，可能使盲目包装上市甚至虚假包装上市行为合法化，加剧市场劣币驱良币的现象，损害资本市场的“三公”秩序。在近期“三板降低门槛建立科技创新板块”、“上市融资解决中小企业融资难融资贵”、“互联网企业回归”、“加快三板市场转板”等等改革传闻的影响下，创业板也受到波及，一些年经营规模仅千万元的公司已经被炒到上百亿元的市值；“创新企业”在注册制后将被允许低门槛高估值上市，被国内外的财务投资基金和“创新”概念公司强烈预期；因为“重组”不再审批，10%的上市公司停牌准备打重组概念推动股价上涨或借壳上市；三板、四板不断向场内市场的交易规则靠拢，也引发“创新”概念快速包装挂牌三板、四板的热潮。被预期的“创新”概念公司上市潮，与当年纳斯达克市场上市的疯狂极其相似，对资本市场的发展是极为不利的。
+美国近期有一些并不盈利的公司，比如Twitter、Facebook等也成为纳斯达克甚至纽约交易所的上市公司，并不能作为一般性上市公司不要求盈利的借鉴。因为，这些互联网公司已经创造了互联网公司最具特征的盈利前景，这些公司已经集聚了巨大的点击率，facebook上市前已经在全球拥有超过8亿使用者，点击率已数十亿计。按照互联网经济的第三方付费模式，为这些流量和人气付费的大有人在。更重要的是，已成气候的互联网公司未来的发展模式，没有只停留在点击流量和人气上面，互联网+高科技硬件将把他们推上更高层次的发展。这些公司的经营前景是非常明朗的。“科技园”孵化的“小米”公司上市前也具有这样的特点，小米上市后的成长性已经在上市前充分显示。但是，这与我们三板市场希望通过交易扩大市值来判断经营前景的思路是完全不同的。通过交易扩大的市值是虚拟的市值，不是真实的经营规模。根据虚拟市值判断可持续经营前景然后转板，转板公司完全是一个圈钱的空壳都不是不可能的。
+借鉴全球成功案例，以天使投资资金开始的“多层次场外”投资资金的“接力式”扶持机制是最有效最合适的支持初期创新创业企业发展的方式。也就是说，创新创业企业的融资支持体系在“场外”而不是在“场内”。重视“场外多层次”融资市场的发展，特别是重视“场外多层次”中“天使”基金层次市场的发展，是扶持创新创业企业成长的重要的金融生态环境。
+“科技园”聚集了一大批专门为创新创业企业提供初始资金、与创新创业企业共进退的天使基金，按照创新创业企业成长规律，采取的孵化“新思想”和天使资金与其他股权投资资金“接力”投资的资金支持的思路，已经孵化了2万个创新创业的“思想”并脱颖成创新创业的企业。
+必须指出的是，目前国内的场外多层次资本市场还是不成熟的，还远未能形成支持创新创业企业的融资生态体系。近期，一批来自美国、加拿大的创新企业带着最新民用创新产品到中国寻找合作的制造企业，在场的投资人问了一个问题，你们产品研究和开发经历了至少8—10年时间，你们的投资人怎么能够忍受这么长时间投资没有收益，他们没有催促你们赶快上市后退出吗？外国企业觉得这问题提得很奇怪。国内当前流行的快进快出的最后一公里的投资文化，显然不是支持创新创业企业成长的生态环境。而近期一些关于推动创新创业企业上市融资的改革，对于建立正确的投资文化和场外多层次资本市场的建设是不利的。
+政府的创业引导基金作为有限合伙人，加上民间天使投资基金，引导国内“场外”多层次资本市场的建设，加大培育创新创业企业融资体系的支持力度，这可能是推动大众创业万众创新发展战略最基础、最有效、最实质性、最有必要的基础设施建设。
+“科技园”是创新的配角
+“科技园”管委会自始至终是创新过程中的配角而不是主角。管委会强调的“提供服务就是不服务”是我们最感震撼的思想，也是“科技园”最大的管理创新。管委会一致认为，如果互联网+传统机制和传统思维，结果将等于零，不会改变任何东西，不会带来任何创新发展。因此，管委会首先创新自身的思维方式和管理体制。“科技园”没有物理上的围墙，也不设制度上的门槛，秉承创新以创新主体为主的原则，不设任何限制，最大限度地给各类新思想、新概念释放的空间。“科技园”倡导跨界融合的“互联网+”思维方式。互联网思维认为世界是平的。互联网思维就是要冲破所有的物理障碍、垄断的市场、规则的壁垒，让信息快速传递。传统意义上的距离、便利、成本等等问题都被瞬间打破。“互联网+”的思维就是融合跨界。融合跨界是信息化时代创新的特点。制造业与服务业高度的融合创新了“小米”公司；人脑+电脑的创新诞生了没有厂房的“科技园”；科技创新+商业模式创新成就了许多大专院校研究机构的技术转化。“科技园”还创新政府支持创新创业专项资金的管理模式。管委会利用政府创业投资资金，一部分作为贴息支持那些经过市场碰撞而脱颖而出的企业，一部分以有限合伙人的方式，参与风险承受能力较强的民间天使投资基金投资，重点引导和孵化“科技园”的天使投资基金成长，培育专门支持初期创新创业企业的天使投资基地。“科技园”改变政府“赤膊上阵”主导一切的传统做派，坚持行政资源、市场资源和社会组织协同创新的模式，推动联合治理不断优化创新的生态系统，方寸之地出现创新创业企业井喷式增长。社会普遍存在中小企业融资难融资贵的情况，在“科技园”则是“投资难投资贵”；大学生就业难也是一个社会难题，但在中关村不是人找工作而是工作找人。据说，全国500万创新创业的新秀一半在中关村。
+“科技园”独特的物理生态和按照创新创业企业发展规律提供的“不服务”的发展生态，创造了大众创业万众创新发展的经典模式。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>和而不同：儒商文化的战略意义和作用</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>企业家日报</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>管益忻</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>儒商文化; 经济学; 微笑曲线; 最大公约数; 全球化战略; 三元文化; 战略举措; 意义和作用;</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2015-01-11</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>经济学家周刊</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>哲学与人文科学; 经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>哲学; 经济理论及经济思想史</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>B222;F01</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>一、和而不同：方法论解说
+（一）颠覆没有头脑的经济学、管理学
+这是作为本题目展开的前置论说。可以毫不含糊地说，全部的经济学就是追求效率，从斯密的分工效率到熊彼特的创新效率到奥尔森、科斯的制度效率，都是以帕瑞特最优为至高境界——都是无视价值观而专注于效率、效益、效应的。而现实乃至全部历史事实一再警告人们：人们必须将价值观置于经济学、管理学体系之中，或者说，必须将全部经济学、管理学置于价值观的统领之下才能有正确的、科学的方向和作为。正是从这个视角上看问题，才有可能认清所谓“和而不同”对经济学理论尤其是实践中的伟大战略意义和作用。人类社会种种问题甚至种种灾难都出在价值观方面。
+工业化说到底就是加工物质、加工信息、加工价值观三个加工。自从上世纪七、八十年代企业文化诞生以来，特别是21世纪之初文化创意产业的诞生，互联网思维的兴盛，人们越来越强调软实力，越来越注重文化产业化，创意产业化，产业创意化，这就必然提出这样的历史性诉求：必须颠覆无价值观的经济学、管理学。
+1、“和”与“不同”范畴的定义性、内涵。
+就仅从新的世纪来说，2008年世界金融危机以来，使人类面临的全球性挑战急剧增加，任何国家都无法单枪匹马解决全球性问题。在这种情况下，金融危机、生态环保、可持续发展等问题迫使几个、十几个、几十个国家组建国家集团，如20国集团，金砖集团等多边架构应运而生。2008（年）的G8扩展为G20，以此为标志人类社会开始进入G（集团）化时代。
+由此可以明了，诸多子系统和谐相处谓之“和”；其特点是，为解决诸多共同面临的全球化问题，大家必须“和”。
+这就是说，不同主体、不同利益导致诉求差异谓之“不同”；各国、各类型国家集团又有各自不同的利益诉求。如金砖国家G5，乃5个主体，5个“不同”诉求之共同体。
+以“和”（系统质）协调各系统和谐运作谓之“（而）不同”之“和”——“致中和”。“致中和”的关键在统质，而系统质“即整体大于各部分之和”的极值；如1+1&gt;2，其内在能形成3、4、5……N的机制。G8、G20、G5、中国东盟10+3总称GX等都内涵这样的系统质。
+“和而不同”的中庸内核。东西方哲学的一个根本分野，尤其表现在亚里士多德形式逻辑搞“排中律”；而孔子则“极高明而道中庸”。这里尤应注意的一点——“究天人之际”是从系统的、整体的视角去认识客观世界，把握事物、把握规律，把握生态系统的。
+十八届三中全会提出全球化价值链，这是一个大概率事件。体现着这样一个内涵要旨，抓全球产业链是一个把握全球化的根本战略制高点的问题。而这同时更告诉人们，由经济学语言表述之全球化产业链引发的东西文化的交流与综合之中，贯彻“和而不同”方针的必要性和迫切性。作为传统文化、儒家思想的核心命题之一，其精髓在于它揭示了不同国与国之间、不同国家集团之间、不同企业之间，必须以“和而不同”的态度，方式，方法来实施共同的（全球化的）资源配置及其如何获得各自不同的利益。
+2、与“不同”结合的“和”范畴。
+在“和而不同”这个总体逻辑体系之中，可以，也必须承认“不同”，但又一定要“和”。我们来看股份制。股份制机制体制大体可分为二大类型。A：传统的以股权份额占比大小决定决策权大小；B：将控股权占比额度大小同决策权大小分开。比如阿里模式，控股权额大小直接同分红多少挂钩，而决策权则主要拿在合伙人团队手中。这是先进的代表生产力发展方向的制度安排。在关于如何处置相邻部分国家有关边界争议问题，邓小平同志确立的“（主权在我）搁置争议共同开发”方针，正是“和而不同”这一古典智慧在今天的科学发展和经典应用。
+新兴互联网思维，产业跨界融合等等；海尔、阿里、美的、小米等若干企业之线上线下结合，莫不如此。
+3、“和”与“不同”的辩证关系。
+科学的辩证法主张两点论的重点论；重点论的二点论。海尔同阿里，美的同小米，腾讯同XX都是线上线下结合，而尤应引起重视之点在于，90%好口碑来自线下。至于董明珠说小米与美的合并是“二个骗子”结合在一起的说法，其是否有知识产权纠纷等本文不拟赘说，但它表明世界存在诸多的“不同”与“和”的是非纠葛，却是不言而喻的。
+4、“不同”而“和”之证伪问题。
+关于互联网思维，有人主张“去中心化”，说这样才是个性化要求的。我认为“去中心化”是错误的，一个大系统中的若干子系统若都按照自认为是合理的办法、策略行动，那必将是一场灾难。不管是O2O还是P2P或者什么宝都得有个平台，而平台就是“中心”。
+5、“和而不同”之三元文化底色解说。
+这亦就是古为今用，洋为中用，即普朗克的“转用”与“借用”。
+这些年来，我一直认为，我们必须坚持以马列主义，毛泽东思想为主导；以传统文化特别是儒家思想为主体；以西方文化为时代参照系的三元文化底色。就是说，在强调马克思主义时代化、中国化、大众化的同时必须对儒家思想，传统文化实施对接今天现实的“转用”；对西方科技、文化等必须紧密对接中国经济社会生态系统实际，实现“借用”。
+6、和而不同的矛盾内涵之不可排除性。
+矛盾是客观存在的，人为“排除”最终必将为矛盾所“绑架”。
+“不同”还是要“和”的——美国同古巴自1961年断绝外交关系。经过半个世纪岁月的冲刷之后，还不是在去年的12月17号奥巴马同劳尔·斯特罗分别发表讲话，宣布要恢复两国外交关系了吗？他们正在抛弃旧政策，开启新合作的新篇章。要知道，美国人曾638次谋杀菲德尔·卡斯特罗而终未“成功”。
+然而，正是缘于共同利害制约，多么的“不同”也是要走向“和”的。毫无疑问，这个“和”之后仍然存在或者还会产生新的“不同”。就古美关系来说，首先，菲德尔·卡斯特罗指明，我们应当“学会承认差别，文明相处”。同时相互释放间谍，相互开放投资，当然仍然存在差别、矛盾，还会出现新的纷争。
+7、“和而不同”之重“和”与重“不同”。
+下面，说一下市场经济下资本二重性的问题。
+众所周知，所谓发展是发展生产力。可是，可发展生产力的具体形态是什么？是资本，而资本是有二重性的。它既可激发人们的积极性，活力，又可能激起人们对财富之占有的贪婪本性。因此我们要打造对资本之抑（制其贪婪本性）扬（威其生命活力）机制。在这个意义上说，片面的凯恩斯主义，或片面社会达尔文主义都不能保证市场经济长期稳定而健康的发展活力。
+说美国搞QE1、QE2、QE3……QEN都不会通胀理论得到“共识”，这行吗？
+关于资本的二重性，马克思曾深刻揭示其掠夺、贪婪本性指出，资本来到人间，从头到尾都流着鲜血；同时又科学地指出，股份制带来巨大的生产力能量。杜拉克讲，人类二大发明，一个是议会制，一个是股份制。这就是说资本既可激发人们积极性，激发活力，又往往激发人们的无比贪婪本性。周永康、徐才厚这些大佬们不就是这样践行着资本负向本性吗？
+对资本既重其“和”，鼓励其生命活力的一面，又要抑制其贪婪本性的一面。
+（1）“和而不同”对作为神经中枢的金融资本，一定要通过制度创新使它真正为实体经济，尤其是中小微企业发展服务。我们现在的最大危险之一就在于未能做到这一点。
+（2）2013年大半年中实行定向降准10月份之后至年底，2014年11月22日，央行全面降息，这就是在总体“和”的框架下，搞“不同”。定降做了但效果不是很理想，因为最终大部分又回到大国企，银行和地方债务平台去了，中小微、三农获益不多。
+（3）积极的财政政策，和稳健的货币政策不能仅仅停留在不搞赤字财政上，更要有效解决财政对实体经济发展的有效支持上。
+二、和而不同:资源配置的基本指导线索
+从经济学视角上看问题，和而不同是所有经济形态，所有时空条件下之资源配置的最根本的方法论依据，最基本的引领方针和指导线索，“不同”要素之按特定规则融合、配置即“和”：“不同”要素达成一致的核心环节——交易之双方（多方）“愿意”即“和”；交易主体“愿意”不愿意决定市场交易成败，决定经济运行的命运。实质上是两个（多个）价值观、价值理念体系交互作用，正负能量的调适、配置能否达成一致决定交易、决定经济运行的命运。
+市场起决定作用就是“和”（及其必定相应的“不同”）起决定作用。例如：
+（1）价格上要“和”。现在苹果，大豆等农产品都在亏本，农民的“愿意”大打折扣，这就“和”不好，当然不行了。
+（2）工资粘性度太低。职工们感到工资太低，但要太高企业又受不了；这就难以“和”。
+（3）物流问题。收路费关卡太多，层层剥皮，这使司机30吨车装70吨，事故频发，压坏高速公路。山东高速老板讲，路原本10年大修一次，现在不到6年即大修。高速上乱收费破坏了“和”。
+（4）金融方面。影子银行问题就更严重了。
+1、“和”（而不同）乃市场之所以起决定作用的根本缘由所在。
+“和”，生意才能做成功；“愿意”才能成功。制度经济学鼻祖康芒斯早就指出，市场主体之间交易中之“愿意”，不但是一个经济学范畴，同时还是一个法学的、心理学的、政治的、文化的范畴。十八届三中《决定》提出市场起决定作用之正确、英明正在此。
+从经济、产业、交易视角上看都有一个根本价值观同一性问题，即二（几）个交易主体之间的“愿意”与否，是一个价值观枢纽问题，市场决定说到底乃“愿意”与否决定。
+2、“和”及“致中和”即“居中”核心。
+这是价值链、产业链运行能否成功的关键。
+儒家学派主张“中也者，天下之大本也；和也者，天下之达道也。致中和，天地位焉，万物育焉。”（礼记·中庸）是将“中”之特殊，能量之于“大本”和“达利”境地。
+“和”（而不同）乃“性本然”。片面地强调“人性善”、“人性恶”均不可取。
+现在看来，贯彻“性本然”方法论，科学地把握资本二重性是市场经济下的一个理论基石之一。这儿特别要注意人本资本化和物本资本化的问题。几次经济危机问题根源均在此。在实践中，正向资源配置的正向作用，负向资源配置的负向作用，在经济运行发展中是同时存在，交替主导的。
+必须彻底抛弃“人性恶”假说，用真正科学的“性本然”说武装我们的民众。多少年来，西方经济学沿着“性本恶”的路子走来，在根本不讲价值观，不讲正向价值观前提下，一股脑儿的性恶论，“单打一”的经济效率论引领下，人们一再地循着路易十六的罪恶之路走向深渊，不能自拔。“我死后那管它洪水滔天”，认为市场经济就是以人性恶为理念指导线索的，这是极其有害的。
+（1）每个市场上的人都形成一种如此这般的心理暗示，久而久之它就成为全社会泛滥到处通行的习惯化了的思维定势，见怪不怪，习以为常。于是乎，什么三鹿毒奶、南京桥糊糊，上海楼歪歪，武汉长江二桥十年来返修24次，什么假冒伪劣满天飞等等都大肆泛滥开来。
+（2）社会达尔文主义盛行，动物界的适者生存，物竞天择引用到人类自身上来了。
+（3）出了一批又一批的大中小老虎，2014年共干掉102168个。
+3、“和”主导下之“不同”：不失“中”的关键在“和”致“不同”。
+从经济学、管理学侧面来说，这儿的“不同”之所以能“和”，重心在微笑曲线的把握上。
+事实上每一个别企业、每一个别产业集群、每一个别城市（区域经济板块），都有其特定的微笑曲线。它是企业品牌，核心能力以及整个流程运作的根本机制和载体。由此可以明了，企业整个的流程中每个节点之贯彻微笑曲线和其核心价值观的总体战略，便成为调度凝聚力、向心力的关键。在实践中，在产业价值链上，正是核心价值观居中央——控微笑曲线二头（研发与销售）演化出企业活生生的商业实践。稍细分一下大致有以下几个大类型：
+（1）由个别企业微笑曲线整合之凝聚力、向心力。
+（2）由个别产业集群微笑曲线整合之凝聚力、向心力。
+（3）由一个城市区块的微笑曲线整合之凝聚力、向心力
+4、“和而不同”乃G（集团）化时代的定海神针。
+去年11月份，北京雁楼湖会议作为一个集团非正式会议的最大成果，一是中美俄成为领袖；二是压抑了日、越、菲等因而弱化了美国的PTT；三是树立了中国的形象。
+它们在全球经济一体化的进程中获得了“时空位置”上“居中”特殊功能和现实意义。我国传统文化中把最高权力机关叫“中央”，实际上就是突出了“中”的特殊功能和含义。
+（1）APEC会，从一定意义上说，中国成了高举“和”之大旗的中心。即使普京给彭丽媛披大衣这种小事不也带点政治温度吗？
+（2）非正式会议达成了诸多正式协议。
+（3）开启了中国参与全球化规则制定的步伐。
+2014年11月份APEC会等三会的顺利召开，实质乃“和而不同”理念起了重要作用。
+5、和而不同：中国G（集团）化全球产业链化发展三个阶段。
+世界上几次大经济危机均从货币引燃，正是因货币“居中”导致。
+危机都源于货币、金融政策却是相同的。这正深刻地说明了货币金融作为媒介是因为其“居经济系统之中间位置”，所以它便成为分析和把握经济大危机根源的最重要抓手。
+我国经济G（集团）化的三个阶段。中国全球化中和而不同三阶段。第一阶段：脱离西方主导的国际体系。这是2001年之前；第二阶段：2001年加入WTO后进入既有规则（实为西方主导的规则）体系之中；第三阶段：现在，要发出我们中国的声音，直接成为规则的参与、制定者。
+中国国力的不断增长要求我们不但要主动融入世界，还要在其中拥有更大的话语引领权和规则制定权。改革开放前，我国基本上脱离于西方主导的国际体系；此后，我们虽然加入其中，但在很大程度上仍是一个既有规则的被动接受者。进入“G时代”后，在多边大舞台上发出自己的声音，不仅是中国作为大国的责任，也已经成为我国争取良好外部发展环境的迫切需要。从北京APEC会议中将“一带一路”、“互联互通”等本国国家战略融入到地区共同战略之中，到在G20峰会中话语权不断增强并获得2016年峰会主办权，都标志着中国已经成为全球多边框架中越来越重要的一边。
+6、和而不同：循环往复，以至无穷。
+（1）求“和”，求最大公约数。
+APEC会的各入会成员，带着各自不同利益诉求来到北京的雁棲湖畔寻求利害最大公约数——最大的“和”（而不同）。
+我们也应该对多边外交的局限性保持清醒认识。本质上这些都是成员国寻求最大公约数的社交平台。“G”的数目越大，多边的边越多，被世界各国共同接受的可能性或组织的合法性就越高，但同时寻求最大公约数的难度也会不断上升，有效性则随之下降。中国有句民谚：做天难做二月天，蚕要暖和麦要寒，种田哥哥要下雨，采桑娘子要晴天。一个无所不包的“G200”，必然会因无法平衡异常复杂的成员利益诉求而在集体行动困境中寸步难行。
+（2）没有永远的敌、友，只有永远的GX。
+要解决问题在GX中X个数越少越好办，越多越难达成共识。可是全球化产业链、互联网，全球气候问题又迫使人们必须依靠全球化的GX，各种不同诉求的解决是很不容易的。没有永远的敌人，也没有永远的朋友，只有永远的合作（利益和冲突）。要利益这是绝对的，那么你就得进行资源配置、资源融合，就得“和”，“不和”，不融合，不进行资源配置就永远得不到利益。
+正因如此，无论是APEC还是G20，热闹的多边舞台中的各种“双边”或“少边”会晤，也是重要看点。具体到布里斯班峰会，金砖国家15日在峰会前的“小多边”会晤，显然具有重要的国际政治意义。
+（3）GX是永远不完美的“代议制”。
+可又是人们永远亦无法抛却的“和”（而不同）的模型，必须明了，“和”是绝对的，“不同”是相对的，归根到底必须“和”，“和”而不同，当然，“不同”一定要找“和”。然而，旧的“不同”以“和”（包括种种互相妥协）解决了，可能甚至必然又出现新的“不同”了，又要协调，互动，争取新的“和”和新的“不同”，如此不断循环往复，以至无穷，这就是人类的历史。
+中国外交既要善于利用多边，也要重视在多边舞台上对“少边”或“双边”的运用。作为全球化新阶段中的多边组织，以“G20”为标准样板的“GX”虽是远不完美的“代议制”，却仍不失为一种迄今为止最符合民主精神的国际框架。多边的长处在于民主协商、促进共识和集思广益，但在解决实质性问题上仍然作用有限。双边是多边的基础，“少边”往往比“多边”更有效率和针对性，这一点在“G时代”没有改变。
+油价大跳水。仅仅是普京的危机的危机吗？这至今还仍然是策略性，还有人将其划分为四个波段：
+第一波段是对俄罗斯委内瑞拉的；
+第二波段是对产油小国的；
+第三波段是对发达国家的；
+第四波段是对中国、印度这些大的发展中国家的。
+三、和而不同：战略发展模式的打造
+1、和而不同之“贵和”模式。
+（1）战略定位：实现第三次转型。
+江苏实现二次战略转型之后，正在向第三次战略转型过渡，亟待创出3或4版模式。
+（2）战略重点：由弱变强。
+（3）战略举措：打造产业、经济（社会、文化的）高凝聚度，大凝聚力，卓越的聚合机制。
+江苏通过发展乡镇企业和开放型经济，成功实现了两次战略转型。2013年已有11个国家高新区、12个省级高新区、25个国家级经济技术开发区。人均GDP达1.2万美元。已开始进入工业化后期发展阶段。然而，面对国际金融危机和国内要素成本上升的挑战，亟须全方位打造新型的聚合机制，以加快推进第三次战略转型，开拓创新驱动的自主发展道路。
+2、“和而不同”之“一系多”模式。
+中国古典哲学命题：“一即多”亦属“和而不同”。和而不同之中关村“一区多园”模式、广州“四区合一”模式均属此类模型。
+（1）战略定位：超大产域群。
+（2）战略重点：打造新型样本。
+（3）战略举措：一区带多园。
+北京中关村市属和区属开发区统一管理的“一区多园”模式，以及广州经济开发区、高新区、保税区、出口加工区“四区合一”管理模式，全面整合产、学、研各自为政的开发区、大学城、高新区，统一组建为紧密一体化的高水平、开放型国际科学园区，构建强大的区域创新体系
+3、和而不同的“天下观”模式。
+要大搞全球化战略。一定要坚持和平崛起的方针。中国没有侵略过任何人。至于为什么打越南，那是因当时他们想拉“苏修”一起攻打中国；甚至搞的自己“地区霸权主义”——要当“南亚联邦”帮主。
+这亦即全球化模式。大抓以全球化产业链为产业机制的一带一路全球化战略发展。
+对外开放：“一带一路”助力中国“走出去”。普天之下，莫非华土，置业、金融各有不同。
+（1）基础设施；（2）贸易和投资；（3）人民币国际化。
+4、和而不同的人本模式。
+儒家文化以人为本模式。
+（1）战略定位：以客户需求为中心。
+（2）战略重点：更深入、具体地认识和把握用户消费生活方式演变轨迹。
+（3）战略举措：平台彻底开放化。
+未来电视市场将不存在产品的概念，因为它必然要演变成一个平台，一个能够根据用户需求实现自优化、自演进的生态系统。换句话讲，未来电视将不再是封闭的节目播放终端，而是一个开放的资源整合平台，可根据用户需求吸附产业资源及相关内容。
+5、和而不同的迭代创新模式。
+儒家自强不息创新模式。君子以自强不息，不断创新。
+（1）战略定位：不断创新。
+（2）战略重点：重新定义产品（服务）。
+（3）战略举措：实施迭代创新。
+海尔与阿里联手推出的购物智能电视是双方战略合作，这一推动电视行业发展产品是“去电视化”模式的有效探索。体现着电视属性实现了质的变化，从播放“节目”转变为播放“商品”，实现了电视的迭代创新。
+6、和而不同的“天人合一”模式。
+（1）战略定位：生态革命。
+（2）战略重点：天更美，水更绿。
+（3）战略举措：实施新工业文明。
+新工业文明的最终目标是返璞归真。清新的空气、水、蓝天、白云，如果我们回到了最初的文明，回到了我们最根本的东西，这才是新工业文明的目的。
+7、和而不同的G（集团）化模式。
+G20、中国东盟10+3等模式。
+（1）战略定位：区域全球化。
+（2）战略重点：互利共赢。
+（3）战略举措：互联互通，抑制摩擦，倡场合作。
+8、和而不同的G中美合作博弈模式。
+（1）战略定位：崛起与守成并存。
+（2）战略重点：中美“双赢”。
+（3）战略举措，积极“合作”，斗而不破。
+博弈结果分析：
+（1）中美气候方面，美碳排放从17%提高到24—26%；中国也相应提出至2030年碳排放达到峰值。
+（2）通信，高科技术方面放宽，作出些妥协。科技创新领域的互相放宽的科技领域互相胶着状态，一方面美控高端，不给中国；一方面中国创新发展步伐神速，令他们害怕。苹果产业链上中国已占有50%利润。
+（3）双边相互投资，中国已成净投资国了。（完）</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>小米的目标并不是苹果</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>深圳商报</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>李迩</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>爱奇艺;</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2014-11-12</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>商报眼</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>经济与管理科学; 信息科技</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>工业经济; 无线电电子学</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>F426.63</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>当大家还在讨论小米今年“双十一”将创造怎样的纪录时，媒体却曝出一条令人惊讶的消息——小米投3亿美元入股爱奇艺，并将在二级市场购入千万美元级别的优酷购票，曲线入股优酷。（相关消息见A07版）
+几天前，业内还在盛传小米将以500亿美元的估值，向风投融资15亿美元。这多少就有点让人纳闷了，小米并不是钱多得烧得慌，为什么要把成立以来最大的一笔投资，投给并不缺钱的百度全资子公司爱奇艺呢？百度和小米何以能一拍即合呢？小米频频入股视频网站，仅仅是为了获得内容吗？
+很多人把这些交易与原新浪总编辑陈彤加盟小米，主管投资和内容联系在一起，但接近小米的人士透露，这些交易与陈彤关系并不大，都是在其加盟小米前敲定的。其实，小米脚踏两只船，一边豪掷3亿美元入股爱奇艺，一边又与优酷勾勾搭搭，显现出其对优质内容的极度渴求。
+尽管小米以手机切入互联网，成为中国发展最快、潜力最大的互联网公司，也在第一时间推出小米盒子，与乐视、阿里等一起抢占客厅，却不得不承认小米在家庭娱乐方面起步晚了，发展慢了，作为一个纯技术公司，缺乏内容作为支撑，并屡次遭遇广电总局的政策危机。此次雷军启用陈彤，拿出10亿美元来做互联网电视内容，就是想补足“小米生态”最薄弱的内容环节，用一个各方都体面的金额，来最快速压缩时间成本，这也是小米为什么把第一笔投资投向视频领域的原因。
+一直频频出手，不断刷新国内互联网企业收购记录的百度，愿意被小米反向入股，让爱奇艺与小米联姻，自然也不是为了钱。实际上，在“BAT”阵营中，百度相比阿里和腾讯，业务一直比较单一，在移动端并没有可以与手机淘宝和微信直接抗衡的产品，所以如何打破移动互联网的僵局，一直是李彦宏的一块心病。而随着小米手机的热卖，小米毫无疑问具有一批忠实活跃的用户，这正是百度想要的，小米直接入股爱奇艺意味着从内容到app分发，爱奇艺都将被纳入小米生态链，小米商店能给爱奇艺带来的下载红利显而易见。
+与百度结盟，又入股优酷，聪明的雷军示好心态明显：小米只是为了优质内容，不会、也无力卷入“BAT”的资本大战中。毕竟，估值500亿美元的小米，与市值超2000亿美元且还在不断上涨的阿里差距明显。
+当然，雷军的野心远不止如此。打造内容板块，只是其布局的一部分，手机也只是其生态链条中的一个环节，其目标不是做中国乔布斯，小米的目标也不是苹果，雷军在布一个更大的局——智能家居生态圈。在智能手机市场竞争趋向白热化的同时，小米已经推出智能路由器，作为智能家居的核心设备，以智能电视抢占客厅第一屏，并准备发布智能插座、智能摄像头、智能灯泡等智能家居产品。智能手机是其生态圈的入口和控制器，而内容则是支撑整个智能家居生态圈的土壤。所以，小米这样一家以技术起家的互联网公司，为什么要豪掷10亿美元打造内容就不难理解了。其实，雷军巨资投的不是内容，而是未来。或许，不久的将来，智能家居将成为中国互联网企业的新战场。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>“硬汉服软”</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新金融观察</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>王琳曹晓龙</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>智能手机市场; 智能机; 市场份额; 国产手机; 国产品牌; 手机品牌; 小米公司; iPhone; 高端产品;</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2013-09-09</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>深度调查</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>信息科技; 经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>无线电电子学; 工业经济</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>F416.63</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>“今天，所有公司都是互联网公司”，全球商业的变迁慢慢验证着李彦宏这句经典的话。在继摩托罗拉被谷歌收购后，昔日的手机巨头诺基亚于近期被微软收购。
+对手机产业来说，传统的生产经营模式正在被逐渐淘汰，生态建设才是下一步的重点。面对市场格局的变化，洋品牌手机和国产品牌手机都在经历着一场史无前例的转型。
+失落的昔日巨头
+对于手机发烧友陈聪来说，诺基亚被微软收购的新闻并没有让他感到太多惊讶。他一度一直混迹的Symbian论坛，早已经改名并转型成为“智能手机产业网”。
+这个论坛曾经红极一时，国内现在把Symbian系统称为‘塞班’，就是从这里延续下来的习惯。
+但这个光辉的历史也无法更改论坛难以运营下去的事实。“这就是趋势。”陈聪说。
+业内对这个收购行为的解读几乎是一致的，微软和诺基亚希望能够通过合作，来从苹果和谷歌手中夺取智能手机市场主导地位。
+微软和诺基亚此前合作已有近三年的时间，微软手机软件市场占有率仅为4%左右，虽然在智能手机市场排名第三，但实际上被前两名远远甩在身后。
+根据Strategy Analytics的数据显示，截至本年度6月份，全球有75%的智能手机搭载的是谷歌安卓操作系统，苹果iOS系统占17%。
+而在2007年，诺基亚在智能手机市场曾占据49.4%的市场份额。
+曾经的辉煌让诺基亚拥有一批忠实的怀念者，从黑白屏功能机到此后的N73、N95等，全键盘、双滑盖——潮流曾经属于诺基亚。
+回顾诺基亚的发展，陈聪说：“诺基亚不甘心像其他厂商一样沦为硬件生产商，所以选择了跟微软合作，但WP是一个封闭性甚于iOS的系统，起步晚，搞封闭，软件相对较少，用户体验差。”
+2007年之前，平板、翻盖、滑盖——市面上的手机是多种多样的，但是自从iPhone出现之后，所有手机都趋于雷同，成为一块平板。
+而被忽略的是，如今iPhone使用的多点触控技术，是由诺基亚最先实现的。但由于当时的诺基亚键盘功能卖得很好，因此就没有开发新的生产线。诺基亚高层甚至在彼时看到新生的iPhone时，自信满满地判断用户不喜欢触屏。
+“现在诺基亚除了跟微软的Windows做深度的整合之外，也没有其他出路了。”国信安达信息技术有限公司社会化媒体营销总监、科技专栏作者阑夕对新金融记者表示，“微软跟诺基亚的关系一直很好，行业对于这次收购并不意外。诺基亚由于自己的原因没有去搭载安卓系统，现在整个份额由iOS跟安卓系统平分天下，夹杂少量的WP。”
+这似乎成了无奈下的选择。
+而与大多数收购不同，资本市场并没有因此掀起小高潮，甚至有点冷淡。微软股价当日下跌4.6%，至31.88美元。
+互联网评论人刘兴亮对新金融记者分析称：“主要还是战略性错误，诺基亚放弃塞班，放弃MeeGo，没选安卓，选择微软WP系统，但是整体微软WP生态没起来，假如选择安卓的话，效果会好得多。”
+得生态者得天下
+“得生态者得天下。安卓跟苹果，已经把这条路探出来了。只要构建一个生态系统，就能实现全产业链通吃。手机硬件可以赚利润、应用也可以抽成。当生态达到一定份额后，企业的利润点是多样的，不会因为一个环节的落后就满盘皆输。”阑夕说。
+非硬件出身的科技企业似乎更容易领会这个规律，所以谷歌和苹果成功了。反观国内，在构建生态上花费大力气的，也是科技企业为先，比如9月5日刚刚发布了小米手机3的小米公司。
+“做手机是为了更大的一个生态圈。”此前，小米科技联合创始人洪峰就对公众明确表示。洪峰正是来自谷歌。
+早在小米手机问世之前，小米团队就在安卓基础上研发了MIUI系统，提前搭建好了软件平台。MIUI在全球拥有1600万用户，超10万人参与了MIUI系统开发。
+此后在手机硬件出来时，小米公司同时设置了自己手机的配件和周边产品，手机上的USB、MHL接口犹如一个硬件制造圈的开放平台。当然，如果再把生态链往外延到“物联网”，智能眼镜、智能汽车、智能手表……这个闭环将拥有无比巨大的想象空间。
+把目光收回现阶段，小米手机目前要夯实的是所谓“铁人三项模式”：硬件、软件和互联网服务。
+生态圈的初步建设让小米手机近期也得到了不错的成绩。小米公司方面对新金融记者表示，2011年10月至2013年3月，小米18个月共售出1100万部手机，同时最近推出的“红米”手机，24小时的预订量也超过了350万。
+这也就是为什么微软公司CEO鲍尔默在一个与分析师举行的电话会议上说，他相信微软要成为一家硬件制造商，而不是让其他公司负责生产运行微软软件的电脑和手机等设备。微软在为构建生态做准备。
+而对于诺基亚来说，如果彻底革命抛弃微软，投奔安卓生态，其经营了多年的独特品牌形象和文化将会渐渐遗失。
+所以两者抱团共建生态成了最佳选择。
+诺基亚在近两年也在小步伐地采取行动，酝酿生态建设。它找到时下热门的应用公司，为它们提供技术和推广支持，吸引对方开发Windows Phone应用，包括Weico、街旁、名片全能王等都是诺基亚背后支持的产物。
+易观国际分析师胡婷婷认为，微软通过收购诺基亚提升市场占有率，扶持生态链，将吸引更多的开发者加入Windows Phone，而打造健康的生态链才能保持自身的竞争力。
+两条不同的转型路
+危机中的诺基亚，除了寻求合作外，也在产品线上调整策略。一度以潮流、高端作为关键词的诺基亚，重新把目光转移到低端机市场，扩充产品全线。
+近期，诺基亚推出了两款功能手机——诺基亚207、208，售价仅68美元，距这两款手机发布两个月前，诺基亚刚刚发布了超低端手机1050。
+事实上，在大牌机中，诺基亚对中低端的关注并不是个例，许多洋品牌手机都重新瞄准中低端市场。
+以三星为例，在其推出的手机中，除了声势浩大的S系列和NOTE系列，其他机型几乎都是中低端机，这些手机定价多低于100美元，主要锁定印度尼西亚与印度等新兴市场，这些市场将会是未来的成长动力。
+包括苹果在内，发布低价版手机iPhone 5C的传言一直没有停止过。
+IDC中国计算机系统研究部助理总监王吉平表示：“在中国智能手机市场，三星的市场策略已经从主力与苹果争夺高端市场转变成维持高端市场份额，并开始争夺被国产品牌占据的单价200美元以下产品市场；而苹果则利用给予渠道的激励政策来激发低价iPhone4的出货量，进而扩大用户群体。”
+长期以来，国产手机的优势是高性价比和外观多变，因此，大牌手机发力中低端机被业内解读为国产手机的危机。
+在大的局势变化下，国产手机也在调整自己的生存之道。
+华为、中兴、酷派都将 2015年作为一个重要的时间节点。华为、中兴将目标定为手机行业全球前三，酷派目标为全球前五。许多国产手机品牌开始设立自己的高端产品线，抛弃简单粗暴的“低价”噱头，从性能到设计，都在向高端机转型。如华为Ascend P6、联想K900等。
+华为方面对新金融记者表示：“华为终端已经建立了以千元档智能手机为基础，产品向中高档方向发展的金字塔结构式精品化战略。在这个战略的引导下，华为从去年4季度开始各中高端产品发布量都是百万级，截至5月份，华为在千元机档位市场份额已经达到一定水平，在中国智能机出货量达到810万部，排名第二，这是国产品牌最高的出货量。”
+针对华为近期在英国发布的P6手机，华为技术有限公司高级副总裁余承东称：“我们的设计瞄准的机型是iPhone 4、iPhone 5，甚至未来的iPhone 6。我们团队是盯着下一代做的。这个产品为什么叫P6，他们开玩笑叫PK iPhone 6，这个是我们的客户强烈建议的，他拿到手机一看，感觉这就是iPhone 6。”
+苹果公司成为许多国产厂商比对的标杆。
+在刚刚结束的小米手机发布会上，NVIDIA全球CEO黄仁勋称，小米手机3代使用的Tegra4处理器，实现多项大幅改进，每秒可进行970亿次浮点运算，超越iPad4近25%。
+“我们国内企业，到了一个转折点。像苹果、三星它们的创新速度慢了一下，我们的速度就加上去了，这对我们来说也是一个机会点。”余承东对新金融记者表示。
+国产手机的逆袭
+国产手机的确在面临着一个转折点。
+据中国电子信息产业发展研究院统计，今年上半年，国产品牌智能手机销量达到1.3亿台，较2012年同期大涨115%，在国内智能手机市场的占比超过60%，联想、酷派、华为、中兴进入国内智能手机市场销量前五，另一位是三星。
+“传统手机制造商，原本大多靠满足用户差异化需求，现在面临最大问题是，智能手机时代，整体产业链配合都明显提高了，从非智能手机向智能手机转移，从传统卖手机到卖应用，产业链整合要求提高，规模经济效应越加明显。搭载渐趋成熟的安卓系统的国产手机以低成本满足用户差异化需求，解决了这一问题，便在市场上逐步获取份额。”刘兴亮称。
+一方面，在洋品牌未受重视的低端机市场，国产厂商凭借千元智能机站稳脚跟，夺取了庞大的市场份额；另一方面，3G时代运营商渠道变得十分重要，国产厂商与三大运营商有良好的合作关系，在定制方面占有天时地利与人和的优势。
+此外，安卓的开放性也给国产厂商带来许多机会。
+“当初联发科的MTK平台为诸多山寨厂商提供了很好的解决方案，简单到直接把一堆价格低廉的零件拼起来手机就能用，这就导致了山寨机的盛行；而进入智能手机时代，开源的安卓也为诸多厂商提供了很好的解决方案，差一点的品牌直接用原生，稍微有理想点的品牌开始打造属于自己品牌的ROM，这就是当下安卓手机百花齐放的原因。”陈聪说，“但与普通功能机不同的是智能手机不能简单拼接起来了事，所以小作坊的山寨机开始没落。”
+国产手机进入“后山寨时代”，零散的小作坊逐渐被市场淘汰，马太效应凸显，成熟的品牌更加规模化、规范化，甚至高端化。
+“另外移动的补贴政策对国内厂商的打击也很大，所以现在手机两极分化严重，大的厂家会越做越大，小的厂家很难生存。”深圳弘年通讯一资深业内人士曹锋对新金融记者分析。
+一直以来，高端市场的缺失、品牌认可度低、品牌溢价能力及供应链整合能力不强，是国产手机品牌利润微薄的主要原因，这些是国产手机在转型过程中首要调整的方向。
+据中国互联网络信息中心的数据，截至6月底，我国手机网民规模已达4.64亿，网民中使用手机上网的人群占比提升至78.5%。中国市场是一块巨大的蛋糕，大到不容忽视，这也就是为何苹果新手机发布会会选择设立在中国北京。
+对国产品牌手机来说，要抓住契机，就要逐步实现功能机到智能机、低端机到中高端机的转型。
+后山寨机时代
+洋品牌手机部分产品线向中低端转型，似乎是终于参透了史玉柱“得屌丝者得天下”的理论。而中国国产手机今年的飞速发展，也正是因为提早迈出了“农村包围城市”的步伐。
+“便宜、量足——是最为原始也是最为有效的竞争策略。”阑夕总结称。
+价格优势以及和通信运营商的捆绑是国产品牌手机最大的杀手锏。
+阑夕说：“华为中兴过去走的多是低端路线，以出货量为主要目的，不求利润。小米不按常理出牌。它的配置能够吸引它的目标受众——买不起iPhone的大学生。小米抓住了性价比，舍弃了利润，相对其他厂商，它的互联网基因能够让它舍弃硬件利润，这是典型的‘中国版苹果’的特色道路。”
+由于国产手机发迹于“高性价比”，因此在消费者心中早已形成了一种不利于市场的心理惯性。
+“根据中国消费者的心理，假如有一款国产品牌手机和一款外国品牌手机，配置差不多、价格差不多，他一定选择外国品牌。如果3000元是高端手机的分水岭，没有几款国产手机敢卖3000元以上。”陈聪说。
+陈聪的判断没有错。
+以近期最热的华为P6为例，虽然包括硬件配置和外观设计的整体定位都为高端，但价格也只是2688元而已。
+对此，余承东也只能无奈地表示，华为内部许多人也在对这个价格强烈抗议，认为低于3000元是没有道理的。
+在如今的智能手机市场，还有一些空降的“散兵”，比如由北京云辰科技有限公司推出的手机品牌“大可乐”、由北斗手机网推出的手机品牌“小辣椒”。这些手机产品几乎有着共同的特征——有很多核、有超大屏、只能在网络上买得到，并且只卖XXX元哦！
+电商渠道冲击着国产手机厂商的定价体系，联发科解决方案和深圳大量代工厂，使得智能手机行业准入门槛非常低，电商成为成本最低的销售渠道，再加上没有太多研发、人力和线下渠道成本，价格战成为这些小品牌企业的唯一选择。
+长期把精力放到高性价比上，品牌形象和用户体验就会下降，就连国产手机领军企业华为都不得不承认UI方面的不完善。
+“我们起步比较晚，两年前华为主要是给运营商做OEM，我们没有UI，我们的UI就是运营商要求做成什么样就做成什么样。我们从去年开始做自己的UI，跟消费者的要求比还有差距，所以说我们还会继续加大在UI方面的投入。”华为终端云业务部总裁黄冀称。
+这些都在表明，国产手机高端化和品牌建设迫在眉睫。
+从事手机行业十余年的曹锋说：“国产手机中高端产品价格卖得低，但配置和洋品牌比较并不低。”
+在高端市场，赢得市场靠的不是价格，而是产品竞争力。“所以我们在欧洲没有采用低价策略，我们国内同行都采用低价，国内的中兴、酷派和TCL，报的价格比我们低那么多，中国企业喜欢搞低价竞争，我们在欧洲搞市场靠的是技术和产品领先，所以我们不走低价这条路。”余承东说。
+一方面，在洋品牌未受重视的低端机市场，国产厂商凭借千元智能机站稳脚跟，夺取了庞大的市场份额；另一方面，3G时代运营商渠道变得十分重要，国产厂商与三大运营商有良好的合作关系，在定制方面占有天时地利与人和的优势。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>新引擎 新机遇</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>经济观察报</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>云计算服务; 海航集团; 春秋航空; 低成本航空公司; 移动互联网; 手机支付; 中央经济工作会议; 大中华区; 城镇化发展; 移动支付;</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2013-02-18</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>经济体制改革</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>F124</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>经济观察报 报道组
+中国经济增速趋缓，向常态回归。
+去年12月召开的中央经济工作会议，为今后经济发展定调，继续“稳中求进”。在此背景下，中国主流企业的领军者们在较为乐观的预期中，审慎地开启新一轮的增长周期。以“稳”为主，加快转型，加大创新，重视人才，成为大部分商界精英的共同选项。
+自2008年起，每至岁末年初，《经济观察报》都会邀请中国重点行业主流企业的领军者，参与CEO年度问卷调查或访谈，把脉来年的宏观经济形势和产业走势，透析企业把握机会、应对挑战的决策思路与行动路线。
+在参与本报“领军者看2013”的CEO调查问卷中，有61%的企业领军者认为，今年的经济增长将超过去年；3%的领军者认为，经济形势会大幅好转；30%的领军者认为，与去年相当。
+与前两年相比，2013年经济形势的不确定性正在减少：出口形势不乐观、投资动力不足、通胀存隐忧。在外需不振时，内需成为重中之重，消费有望成为今年中国经济增长的第一驱动力。
+消费引擎启动
+中国政府一直提倡以消费来推动经济增长。
+无论是“十八大”还是“十二五”规划，都明确框定了未来发展的驱动力，在于扩内需、促消费。特别是“十八大”报告中首次提出“实现国内生产总值和城乡居民人均收入比2010年翻一番”的新指标。居民收入的增长，为消费提供了基础。
+预计2012年社会消费品零售总额达21万亿元，增长14%左右，对经济增长贡献率提高至55%左右。消费终于走向台前，被认为是驱动中国经济发展“三驾马车”的首位。
+无论是处于消费服务的金锣集团，还是身居制造业的赢创工业集团和身处物流行业的春秋航空，在今年的访谈中都提到了消费对经济和企业发展的重要作用。
+金锣集团总裁郭维世更直言，消费已经取代投资成为中国经济增长的最大驱动力。
+大连万达集团董事长王健林认为，中国接下来的消费阶段是文化和旅游，这种趋势越来越明显。王健林表示，中国出现了新的消费趋势，从最早的吃饱喝足，到开始讲究穿，再往下发展是住，住之后是行。“只要是好东西，在中国就不愁没市场。”
+赢创工业集团大中华区总裁李汉卓和春秋航空董事长王正华则是从政府层面表达了对消费的期待。
+李汉卓认为，近年来，中国政府一直在推动消费升级，这给特种化学品提供了广阔的市场。例如，化妆品、高速公路建设和涂料的需求都在急剧扩大，为赢创提供了巨大的潜在市场。
+王正华则表示，目前，经济环境出现了一些回暖态势，随着新一届政府的上台，一些推动经济发展的新措施也将推出，这将提振经济和消费。
+国家出台刺激消费的政策，无疑是对扩大内需的扶持，而城镇化将成为“扩内需”的重要推手。
+城镇化助力
+去年11月28日，国务院副总理李克强表示，未来几十年最大的发展潜力在城镇化。我们推进城镇化，是要走工业化、信息化、城镇化、农业现代化同步发展的路子。
+李汉卓称，中国城镇化的不断发展，将鼓励越来越多的人从农村向城市迁移，从而创造更多的投资机会并刺激消费，这对于中国和世界来说是一个绝佳的机会，对赢创亦如此。
+戴尔大中华区总裁杨超也认为，中国将会建成全球最大的城市化体系，城镇化人口将会超过8亿人，戴尔也将拥有全球最大的现代化的设施基础。
+在城镇化发展方向方面，留得住人的城市才是宜居城市，要从物的城镇化转化到人的城镇化。从外延扩张、粗放发展转向内涵为主，通过结构优化实现集约发展。
+格力集团董事长董明珠更是提醒企业，要珍惜城镇化机会。中国的城镇化改变了农民的生活习惯，不是像过去日出夜归，更多的是生活方式的改变，使得市场对家电行业的需求量不断地放大。“这样的机会来了，我们应该珍惜，更好的服务市场。如果真诚对待这样的机会，就会得到回报。”
+城镇化的推进，离不开信息技术的支持。
+英特尔中国区总裁杨叙表示，就像李克强副总理所说的，城镇化核心是“人的城镇化”，目的是造福百姓和富裕农民。其中，信息技术大有可为——从各种计算终端设备的普及到云计算服务，从三网融合到未来的物联网，从数字家庭再到智能城市。
+云计算技术的触手可及，成为大多数企业的共识和加快变革的核心动力。甲骨文、微软、英特尔、浪潮、戴尔等公司，都提到了云计算的重要作用。
+甲骨文公司高级副总裁及大中华区董事总经理潘少海表示，2013年，企业和政府将继续加大对云领域的投入，云计算相关的硬件制造、软件开发、运营服务等将是投资的重点，云计算将是战略新兴产业的增长点。
+通胀隐忧
+虽然大部分企业领军者对2013年的整体经济形势表示乐观，但也表示了对不确定性的担心，他们对2013年通货膨胀的预期也趋于一致。
+今年参与本报访谈的40位企业家，绝大部分都是各行业龙头企业的掌舵者。他们包括了国有、民营、外资等各种性质的企业，并均匀地分布在能源、原材料、消费、服务、制造、物流、科技、IT等几大板块。
+相较于预期，有52%的企业表示，2012年的整体物价水平适度上涨，18%的企业表示大幅上涨。2013年，这一趋势仍将持续，70%的企业认为，2013年物价整体水平会继续适度上涨，9%的企业认为会大幅上涨。
+原材料价格、人力成本、营销费用高，成为影响企业利润的重要因素。
+虽然存在担心，但是对于2013年，有58%的企业表示，会加大主业投入，27%的企业表示会加大并购方面的投资，9%的企业表示会跨行业拓展业务，4%的企业则表示会增加财务性投资。
+经济观察报 报道组
+中国经济增速趋缓，向常态回归。
+去年12月召开的中央经济工作会议，为今后经济发展定调，继续“稳中求进”。在此背景下，中国主流企业的领军者们在较为乐观的预期中，审慎地开启新一轮的增长周期。以“稳”为主，加快转型，加大创新，重视人才，成为大部分商界精英的共同选项。
+自2008年起，每至岁末年初，《经济观察报》都会邀请中国重点行业主流企业的领军者，参与CEO年度问卷调查或访谈，把脉来年的宏观经济形势和产业走势，透析企业把握机会、应对挑战的决策思路与行动路线。
+在参与本报“领军者看2013”的CEO调查问卷中，有61%的企业领军者认为，今年的经济增长将超过去年；3%的领军者认为，经济形势会大幅好转；30%的领军者认为，与去年相当。
+与前两年相比，2013年经济形势的不确定性正在减少：出口形势不乐观、投资动力不足、通胀存隐忧。在外需不振时，内需成为重中之重，消费有望成为今年中国经济增长的第一驱动力。
+消费引擎启动
+中国政府一直提倡以消费来推动经济增长。
+无论是“十八大”还是“十二五”规划，都明确框定了未来发展的驱动力，在于扩内需、促消费。特别是“十八大”报告中首次提出“实现国内生产总值和城乡居民人均收入比2010年翻一番”的新指标。居民收入的增长，为消费提供了基础。
+预计2012年社会消费品零售总额达21万亿元，增长14%左右，对经济增长贡献率提高至55%左右。消费终于走向台前，被认为是驱动中国经济发展“三驾马车”的首位。
+无论是处于消费服务的金锣集团，还是身居制造业的赢创工业集团和身处物流行业的春秋航空，在今年的访谈中都提到了消费对经济和企业发展的重要作用。
+金锣集团总裁郭维世更直言，消费已经取代投资成为中国经济增长的最大驱动力。
+大连万达集团董事长王健林认为，中国接下来的消费阶段是文化和旅游，这种趋势越来越明显。王健林表示，中国出现了新的消费趋势，从最早的吃饱喝足，到开始讲究穿，再往下发展是住，住之后是行。“只要是好东西，在中国就不愁没市场。”
+赢创工业集团大中华区总裁李汉卓和春秋航空董事长王正华则是从政府层面表达了对消费的期待。
+李汉卓认为，近年来，中国政府一直在推动消费升级，这给特种化学品提供了广阔的市场。例如，化妆品、高速公路建设和涂料的需求都在急剧扩大，为赢创提供了巨大的潜在市场。
+王正华则表示，目前，经济环境出现了一些回暖态势，随着新一届政府的上台，一些推动经济发展的新措施也将推出，这将提振经济和消费。
+国家出台刺激消费的政策，无疑是对扩大内需的扶持，而城镇化将成为“扩内需”的重要推手。
+城镇化助力
+去年11月28日，国务院副总理李克强表示，未来几十年最大的发展潜力在城镇化。我们推进城镇化，是要走工业化、信息化、城镇化、农业现代化同步发展的路子。
+李汉卓称，中国城镇化的不断发展，将鼓励越来越多的人从农村向城市迁移，从而创造更多的投资机会并刺激消费，这对于中国和世界来说是一个绝佳的机会，对赢创亦如此。
+戴尔大中华区总裁杨超也认为，中国将会建成全球最大的城市化体系，城镇化人口将会超过8亿人，戴尔也将拥有全球最大的现代化的设施基础。
+在城镇化发展方向方面，留得住人的城市才是宜居城市，要从物的城镇化转化到人的城镇化。从外延扩张、粗放发展转向内涵为主，通过结构优化实现集约发展。
+格力集团董事长董明珠更是提醒企业，要珍惜城镇化机会。中国的城镇化改变了农民的生活习惯，不是像过去日出夜归，更多的是生活方式的改变，使得市场对家电行业的需求量不断地放大。“这样的机会来了，我们应该珍惜，更好的服务市场。如果真诚对待这样的机会，就会得到回报。”
+城镇化的推进，离不开信息技术的支持。
+英特尔中国区总裁杨叙表示，就像李克强副总理所说的，城镇化核心是“人的城镇化”，目的是造福百姓和富裕农民。其中，信息技术大有可为——从各种计算终端设备的普及到云计算服务，从三网融合到未来的物联网，从数字家庭再到智能城市。
+云计算技术的触手可及，成为大多数企业的共识和加快变革的核心动力。甲骨文、微软、英特尔、浪潮、戴尔等公司，都提到了云计算的重要作用。
+甲骨文公司高级副总裁及大中华区董事总经理潘少海表示，2013年，企业和政府将继续加大对云领域的投入，云计算相关的硬件制造、软件开发、运营服务等将是投资的重点，云计算将是战略新兴产业的增长点。
+通胀隐忧
+虽然大部分企业领军者对2013年的整体经济形势表示乐观，但也表示了对不确定性的担心，他们对2013年通货膨胀的预期也趋于一致。
+今年参与本报访谈的40位企业家，绝大部分都是各行业龙头企业的掌舵者。他们包括了国有、民营、外资等各种性质的企业，并均匀地分布在能源、原材料、消费、服务、制造、物流、科技、IT等几大板块。
+相较于预期，有52%的企业表示，2012年的整体物价水平适度上涨，18%的企业表示大幅上涨。2013年，这一趋势仍将持续，70%的企业认为，2013年物价整体水平会继续适度上涨，9%的企业认为会大幅上涨。
+原材料价格、人力成本、营销费用高，成为影响企业利润的重要因素。
+虽然存在担心，但是对于2013年，有58%的企业表示，会加大主业投入，27%的企业表示会加大并购方面的投资，9%的企业表示会跨行业拓展业务，4%的企业则表示会增加财务性投资。
+腾讯集团高级执行副总裁、网络媒体事业群总裁刘胜义：门户的数字化变革
+在刚刚过去的一年里，数字营销变革的大潮继续不可阻挡地向前推进，视频、社交、移动营销在蓬勃兴起。互联网的视频化进展迅速，这种趋势已经不可阻挡。
+今天美国在线视频用户超过总人口一半，中国已有4.9亿网民观看在线视频。在线视频在月度覆盖人数，以及阅读浏览时长方面已经占据了所有互联网产品应用第一的位置。
+事实上，在线视频已经发展为非常重要的广告投放介质。两年前，中国视频贴片广告总收入仅为13亿人民币，而我们的预计是，2年后将达到97亿人民币，5年内这个行业的收入将增长7倍多。
+越来越多的广告主，将在线视频作为首要的战略要地进行布局，比如说英特尔、联想、宝洁、联合利华等，他们已经与腾讯视频共同创造了很多的成功案例。
+未来移动视频的渗透率也会高速增长，作为主要的网络应用，视频业也在向移动化、大屏化、资讯化、互动化进军，这些趋势将促进在线视频新的营收增长。
+早在2011年4月，腾讯就开始在视频领域发力，整合腾讯旗下多款视频产品形成了现在的腾讯视频。腾讯通过与华纳兄弟、环球、米拉麦克斯、狮门等好莱坞知名电影公司达成合作协议，开创新的网络视频业务——“好莱坞VIP”。腾讯视频凭借“弯道超车”策略，借助精细化运营和平台力量，迅速超越对手成为覆盖第一、成长第一、专业第一，改变了视频行业原有的格局。
+取得这样的成绩，是因为我们洞察行业变革，兼顾媒体属性和专业性，不仅以全覆盖的综合网络视频平台，来满足最广泛的用户需求，同时以专业媒体品质和各种专项资源优势，来构建集大事件运营、新闻资讯、体育资源、大剧和原创内容资源于一体的综合运营能力。
+当然，除了视频化的大趋势，腾讯在去年还看到了更加多的变化。比如说，社交关系链的价值被继续放大，O2O促进线上营销接轨线下实体销售等等。所有的变革都在透露给我们一个非常明确的信息：数字媒体是主流，数字营销是未来。
+顺应这样的趋势，腾讯作为中国数字媒体最主流的代表，在线广告业务也得到了跨越式的大发展。
+去年，腾讯实现了从规模到精品的媒体产品策略转变，腾讯网、腾讯微博、腾讯视频三大媒体产品融会贯通，整合的效果不断得到体现。我们在努力让腾讯视频实现全面战略升级，开始调整市场策略，从低调转变为高调发展。腾讯的社交媒体去年第三季度注册用户已破5亿。
+集合社交、视频和移动的“下一代腾讯网”成为门户变革的引导者，一经上线就获得了超过80%用户的认可。而为了顺应资讯移动化的大趋势，腾讯新闻客户端也通过APP和微信插件的共同覆盖，现在每天有超过2亿用户使用。
+这些用户的关注转化为收入的效果也很明显，腾讯在线广告业务的营收从2012年第一季度开始就跃居行业第一，全年领跑成为中国第一大在线营销平台。
+我们认为，数字媒体的变革带来全新的商业机会，开拓全新的商业思路和营销模式，而更具个性化的开发、更低成本的生产、以及更高ROI（投资回报率）的营销，将产生更多的新商业机会。
+小米科技CEO雷军：延续移动互联热潮
+2012年对于小米来说是非常重要的一年。我们发布了新一代高性能智能手机小米手机2，MIUI的用户数量已经突破1000万，米聊的活跃用户也已经突破2200万，我们小米手机出货量为719万台。曾经有一个资深的媒体界人士对我说，小米的成绩在全球商业历史上都能称得上是一个奇迹，足以让每一个小米的员工自豪。
+但是我之前也说过，小米有目前的成绩，背后85%靠的是运气。小米的成功很大程度上得益于世界上最大的手机市场，也就是中国市场的用户开始更换智能手机，加上中关村良好的创业的大环境，让小米有了可以良好生长的土壤。
+我曾经说过，“站在风口，猪都会飞”，小米赶上了好时候，赶上了一个适合小米发展的恰当的时机，我们确实幸运地站在了台风口。另外，我们小米手机的模式是“软件＋硬件＋互联网”，也就是大家所熟知的铁人三项，我到现在仍然认为这是我们小米的核心竞争力所在。
+没几个人能像乔布斯这种天才一样准确地抓住用户需求，但互联网能。所以我们铁人三项模式，让硬件和软件都向公众开放。互联网有Bata形式，我们把这个带入到了米UI的服务，甚至是硬件研发中去，消费者通过互联网的方式和我们直接面对面沟通，这样米粉也会有参与感和拥有感，另外他们的口碑会影响到他们的朋友。
+这种铁人三项模式现在影响到了很多人。在一年前，小米的模式当时没几个人会认可，甚至有人跟我说，小米手机要是能卖出30万台就是满分了。但是现在，我们看到的是行业普遍接受了互联网方式的手机，认同了软件+硬件+互联网服务的模式，开始尝试自己互联网渠道的手机销售，开始培养自己的粉丝群体。要说小米对行业的贡献，那就是我们打开了手机行业的黑盒，让互联网与手机终端成为一体，开辟了一条属于中国互联网手机的独特道路。
+而且，经历了2012年之后，移动互联网在2013年将持续成为热潮，手机取代PC的趋势也更将明显。
+联想集团总裁兼CEO杨元庆:“PC +”时代的野心
+2012年初，当杨元庆喊出所谓的“PC+时代”时，很多业内人士不以为然。他们的理由足够充分，在苹果、谷歌所代表的那个时代里，PC只是摆在办公室里的那个“打字机”而已，怎么可能会成为一个时代的发起者呢？
+联想之后一年的表现都在证明杨元庆并不是只起了一个概念。他说联想的智能电视就是“大号的PC”，智能手机则是把联想在PC供应链上的那一套搬了过来，联想也并没有像惠普和戴尔那样有意卖掉PC，而是成为了超极本最早的推动者之一，这一切都跟PC脱不了干系。
+而且他的这一套商业模式几乎都做成了，尤其是智能手机，已经做到了国内销量的第二名。在基础毫不占优的情况下，联想智能手机这种高度依赖供应链和渠道的另类打法的确是最有效地“消费”了在PC上的资源。
+杨元庆更加务实了，在第一代乐Phone打造明星机型的战略搁浅后，他就意识到了中国市场以及联想的独特性。抱着金饭碗，却非得去要饭，之后在谈到智能手机战略时，他都说首先要让更多的人开始用联想手机。通过供应链管理以达到更便宜的价格，越来越强大的销售网络可以让联想手机有机会出现在任何一个消费者眼前。最关键的是，“我可以容忍只要规模，不要利润，你可以吗？”
+联想智能手机的这条路径几乎是在复制联想PC，它们都主打高性价比，都认同“农村包围城市（电信运营商定制是其最重要的市场）”的价值。当品类足够多时，杨元庆所说的“PC+时代”多终端的互联互通就可以实现了。
+但他的野心远不止于此。对于联想而言，三星显然是下一个对手。但不同的是，三星玩的是产业链，联想可以用成本去压死那些还不够分量的国内OEM厂商，而面对三星这个有技术，又有成本优势，还可以控制上游零部件供应的对手，联想显然没有现成的办法。
+所以，杨元庆的2013年注定要经历很多。“我们已经在明处，这是跟以往最大的不同。”他把更多的精力放在了产品上，很多负责产品研发的联想高管都要随时接受他的PK。他很清楚，如果说此前的联想用销售来驱动，就可以足够成功，那么想要成为一家能代表中国在国际市场上发声的公司，就要在自己的基因里加入技术的维度，这比什么都重要。
+联想又一次做出了业务结构调整：分成了“Lenovo”和“Think”两个产品集团。杨元庆的目的很明确，针对两个不同的使用人群，联想提供的不再只是PC，它会是一整套的解决方案，这里面有手机，也可能有电视，而这才是他所说的“PC+时代”。
+盛大总裁兼盛大文学董事长邱文友：创新、大胆突破带来增长
+2012年对各行各业都是充满挑战的一年，我们一开始就把它定位为转型或“再投资”的一年。集团核心企业基本都完成了年初所设定的目标。其中以文学、视频（Ku6）和支付（盛付通）完成了很多艰难的突破，超出我们自己的预期。
+在经历盛大网络退市后，盛大在线拆分成支付、广告、云计算新三家公司。与游戏、文学、视频组成的内容三驾马车，搭配成“三横三纵”。而35亿出手旗下两家“非主流”公司一度成为业界谈资。这也使得外界疑惑未来盛大是否会成为一家投资为主的公司。
+事实上，盛大今年做的种种布局，大体上的战略思维是几年前就勾画了蓝图的。其两大主要目的就是，第一，将集团母公司转型成为战略控股公司，让集团旗下企业各自独立发展，由母公司根据各个集团公司发展阶段和需求不同给予不同的协助；第二，彻底定位清楚盛大是一家由用户驱动和创造内容的公司，这也许是一条辛苦的道路，确实在中国乃至全世界少有的。
+盛大文学目前还在美国证管会有公开filing，所以不能谈有关IPO的事。我可以分享的是，盛大文学早就可以上了，只是看我们愿不愿意中国股在美国市场现况下去上而已。这是战术问题，早已不是战略问题。
+至于移动互联网让互联网行业基本归零，重新洗牌。跟不上脚步，没有找好自己的战略定位的企业，不管在传统互联网时代多强多大，都很快会被淘汰。
+移动互联网绝对是我们花最多精力的地方。而在移动互联网时代对我们最有利的是我们是掌握“内容”的企业。内容在本质上在移动互联网和传统互联网没有什么不同，它依然是所有娱乐型式的源头，其重要性依然不可取代。所以相比于其他互联网企业，移动互联网带给我们盛大的更多是机会而非威胁。
+我们所必须注重的，是如何将我们的内容利用移动互联网的新技术和新渠道更高效、精准、便利、高质量地送到用户的眼前，然后变现。我们过去几年已经投入大量资源，包括我们各个集团公司，我们中国和美国的创新院，还有我们基金投资了一些非常有潜力的移动互联网新兴公司，都在研发特别是能够让内容如虎添翼的移动互联网的新技术和新产品。
+2013年，将是盛大完成转型后重新起飞的一年。以创新和大胆突破带来新的增长点是我们的主轴。我们的游戏、文学、视频内容平台都会给大家带来惊喜。甚至我们的电子阅读器Bambook锦书，都会让大家耳目一新。
+当当网CEO李国庆：资本重构电商
+重温2012，电商价格战对毛利率低的垂直电商打击很大，如商品超市类电商等，因为价格战打的可能连同城运费都不够，家电则从微利变成了巨亏。随着资本的收紧，平台电商格局将会发生裂变。前期有大笔物流布局的企业将会尝到服务提升后的红利。
+随着天猫开放平台的上线，当当、京东、亚马逊等逐步从自营为主扩展到自营和开放平台两条腿走路，轻模式的平台模式开始上位，成为了B2C电商谋求规模扩张的核心业务。
+尽管当当赖以起家的图书的客单价不高，但图书品类是用户黏性较强的品类，是当当的用户池，而基于此的流量开放来向母婴、美妆、家居等品类进行扩张，包括靠开放平台给第三方商家，则可走轻模式的发展之路。
+在未来，B2C电商中会有多个通用电商平台，且每个都有自己的特性和目标客户群。如，天猫注重满足顾客淘的乐趣，当当则更注重品质和品类组合；天猫以年轻客户群为主，当当的客户群则年龄稍大。电商零售最重要的就是实现品类的组合，一定要聚焦，而不是什么都做。比如当当就主要聚焦在图书、母婴、服装、家居家纺四大品类，目标是占到该行业10%的市场份额。
+其实，在品类扩张上，特难的有三个东西，一个是个性化推荐，云计算，另一个是按人群差异来细分的社交化电子商务，第三是定制个性化。在服装上，当当已在尝试限量版的定制商品，避免大家撞衫。通过云计算技术，商品的销售数据是可以预测的，这样就可实现零积压零库存。未来，预售、个性化、顾客定价，这三种C2B模式都会是预售商业革命的重点。
+2013年，我认为还会是资本的寒冬，一定会有大电商倒闭，也会有并购和重组。其实电商的竞争力和销售绝对与规模无关，而与品类定位和细分市场的份额有关，还要看集客能力、订单转化率、活跃用户数。电商想盈利至少要在两个领域占据市场份额第一或第二。
+最终平台型电商会从目前的多家争霸演进到三国演义，大家会在不同的品类里发力，有所侧重，而不再平均使劲。
+快钱CEO关国光：移动支付将大爆发
+2012年是第三方支付高速增长的一年，随着央行近日再次颁发新一批第三方支付“牌照”，第三方支付行业已经有200余家企业，成为我国金融服务创新的重要力量。
+虽然新兴的支付企业不断涌入，但是已发放的牌照中，真正全国性、综合性的牌照仅支付宝、快钱等少数几家，其余大部分的业务类型是相对单一的线上、线下支付，或者是区域性、预付卡的发行或受理。在行业格局以及企业差分定位基本形成的背景下，2013年，第三方支付行业将迎来理性成长期，整体市场格局不会有大的变化，但是移动支付等新兴业务领域的竞争将日趋激烈。
+2012年移动支付标准之争尘埃落定后，银行、运营商、银联等行业大佬开始了NFC近场支付的角逐，而另一种以二维码为主要近场识别技术的路径也在开始发力。可以预见，2013年在移动支付领域，产品、技术的升级换代仍会是市场的主旋律，而移动支付的落地应用也将成为各家发力的焦点。
+当前，移动支付市场虽然百花齐放，但是行业尚未形成成熟的商业模式。因此各大支付企业在业务模式的探索实践过程中，将会更加专注于自身竞争优势所在的领域，选择与自身DNA最为契合的发展路径。
+就快钱而言，我们认为在移动支付方面，自身的DNA不会改变。快钱始终坚持从商户的需求出发，用商户需求来撬动移动支付业务，全面，务实，覆盖商户现有需求。正因如此，你会发现，我们的刷卡器产品“快刷”从来不向个人发售，完全服务于行业应用。
+与单纯的个人应用不同的是，商户对移动收款的需求相对复杂，不仅要求降低移动收款的门槛，而且还需要与其移动应用无缝整合，这正是快钱“快刷”在商用领域得以立足之处。目前快钱“快刷”已经在保险、商旅、物流、直销等行业大范围商用推广，同时快钱还在开发具备优惠券管理、订单推送、订单合并等功能的手机支付产品。未来，快钱的移动支付解决方案除了提供手机支付外，还会整合更多产品在其中，并与快钱现有业务紧密捆绑。
+众所周知，移动支付领域独树一帜的美国Square公司真正的核心并不在于刷卡器这款产品本身，而是抓住商户需求形成的一整套解决方案。脱离了需求的产品，不会赢得市场，移动支付也不例外。至于是从用户出发，还是从商户出发，并无定式，抓住需求才是关键。虽然快钱和Square都是立足于商户，然而与Square不同的是，我们的解决方案必将结合更多中国商户的本地需求，并由此融合更具创新性的产品。
+作为一个新兴的市场，移动支付各种模式还处在实践摸索的阶段，未来还将面临诸多挑战。只有以应用为市场驱动力，将产业链条上相关各方利益协调一致，才有可能促使商业模式完整，甚至是创造出新的商业模式，进而形成移动支付产业新生态。
+IBM CEO钱大群：大数据热潮持续
+近年来随着互联网、移动终端以及社交网络的全面兴起，若要在时代浪潮中保持旺盛的生命力和强大的竞争力，紧跟科技创新的步伐，以技术推动企业发展，便是当下企业的不二选择。
+对于企业发展而言，政策、科技以及管理与商业模式是需要关注的三个重要趋势。进入2013年后，发展和改革的呼声不断走高，如何紧抓这一时代变革的主流，在新的商业趋势中推动企业的转型与发展，值得当下每一个企业认真思考。
+我对目前最值得关注的几个重要的科技与商业趋势谈谈我的观点，他们或已被企业广泛采用，或还在初步的探索阶段，但毋庸置疑的是，他们都将在未来几年对各个行业和企业产生重要的影响。
+第一个重要的趋势是互联经济的发展。互联经济是指个人与社会、经济与组织、有形世界与虚拟世界相互关联的经济。近年来伴随因特网以及移动智能终端的迅速普及，人与人，人与企业，企业与企业的交互方式正在发生重大改变，如个体的影响力持续扩大，企业与客户间的信息更加对等，从某种意义上颠覆了原有买方与卖方间的制衡关系。
+互联经济为客户带来了更多更先进的数字化工具，赋予了他们强大的权利和能力。IBM将这些新时代被科技武装起来的客户称为“首席执行客户”。“首席执行客户”们对于商业行为的主导权与市场影响力不亚于一个企业的高层管理者，因此未来在制定任何决策时，企业都要将“首席执行客户”以及互联经济作为重要的考量因素，并由此对组织架构、业务流程和企业文化做出相应的调整。
+第二个重要的趋势是业务的前线化。可以说业务的前线化是互联经济发展所引发的连锁反应之一。过去IT系统往往在后端支持企业的日常运营、业务流程以及企业决策等。但随着“首席执行客户”的出现，企业前端响应客户需求的效率不断提升，一线员工需要掌握更多的资源和能力来服务客户，也因此带动业务的前线化转移。同时，这一转移也对传统的营销理念、管理体系等提出挑战，现在企业的CMO与CIO再也不能各自为政，而需要携手合作，将科技力量作为一种企业文化注入到营销活动中，共同为直接面对市场的一线人员提供技术支持，推动企业业务的前线化转型。这一变革将是大势所趋。
+最后一个重要的趋势是大数据的应用。如今大数据已经成了业内热点，企业已经普遍意识到对于数据这一自然资源的分析和应用，将深刻地影响到未来企业的成败，并在各行各业创造了很多精彩的案例。
+比如在银行业，对于大数据的分析将帮助企业了解客户的地理分布，从而使企业优化网点布局，提升服务能力。而在能源电力行业，大数据则帮助企业及时排除故障，在提升服务质量的同时提升经济效益。在公共服务领域，大数据分析正在助力巴西里约热内卢政府大幅度提升对自然灾害的预警和应对能力，以及对大型活动的承载能力。尽管如此，我们对于大数据的探索与应用才刚刚开始。
+对于企业而言，大数据就像是通往未来之门的钥匙，谁先拿到，谁先应用，谁就将在未来的发展道路中抢占先机。在2013年，大数据的热潮还将进一步持续，并在越来越多的企业中得到更加广泛的应用。
+把握重要的发展趋势，制定富有洞见的策略，以科技求创新，以变革求发展将成为2013年企业发展的主旋律。
+微软全球资深副总裁张亚勤：移动三国催生创新
+2013年，“移动三国”的竞争将越来越激烈，还会持续很久，其本质是iOS、Android和Windows之争。苹果、Google、微软都在设法强化自身的生态系统，微软最近几个月，陆续宣布了Windows 8、Windows Phone 8等一系列新终端平台。三大平台之争已进入了新阶段——触摸技术及人机交互，让数以百亿计的新机器与传统的IT设备和网络连接到一起。
+由于云计算基础设施建设需要巨大的资金投入，长时间、大范围的部署和持续的更新维护，有足够的资源、实力去构建大规模云计算平台的企业并不多。而云服务和彼此连接的人群与海量设备，将带来最大机会。
+发展出反映真实世界中人与人、人与机器、机器与机器关系的社会化网络，并在其上诞生消弭真实与虚拟界限、更加人性化、交互更自然的商务和社交平台，以及应用。
+显然，三大平台里，云是前提，是基础。过去我讲过很多次，云计算其实在计算量越来越大、数据越来越多、越来越动态、越来越实时、越来越需要结构化的产业背景下被催生出来的一种基础架构和商业模式。
+我们看到，将现实社会关系数字化、网络化、商业化的尝试早已开始。但迄今为止，现实世界数字化的程度还不够，真正超越国别、种族和文化壁垒的社会化网络的平台仍未建成，这也正是中国IT产业的重大机遇。
+无论是云计算本身、或是智能终端，还是凌驾于云和端之上的，基于社会化网络的平台和应用，都会让数以百亿计的机器、企业、个人随时随地都在获取和产生新的数据，即使是在摩尔定律的支撑下，计算设备硬件性能进化的速度也早已赶不上数据增长的速度，并且这一问题会日渐严峻。这样的背景下，只有云才能解决“赋予数据以更大价值”的问题。这也就引出了新的话题，也是最近产业和社会都非常关注的“大数据”的话题。
+和云计算一样，业界对达到怎样的数量级才算是大数据并无定论，其实在很多行业的应用场景里，数据集本身的大小并不是最重要的，是否完整才最重要。
+进入Web 2.0时代，PC用户不单单可以通过网络获取信息，还成为了信息的制造者和传播者。这个阶段，不仅是数据量开始了爆炸式增长，数据种类也开始变得繁多。
+如今，通过各种有线和无线电网络，人和人、人和各种机器、机器和机器之间无处不在的连接，用户想驾车去吃饭，先用地图应用查询餐厅的位置、预计行车路线的拥堵情况、停车场信息甚至是其他用户对餐厅的评论。吃饭的过程中，他会用手机拍摄食物的照片，编辑简短的评论，发布到微博上，还可以用LBS应用查找在同一间餐厅吃饭的人，看有没有好友在附近。通俗地说，就是将信号转化为数据，将数据分析为信息，将信息提炼为知识，以知识促成决策和行动。归根到底，大数据的最终意义在于获得洞察力和价值。
+对商业竞争的参与者们来说，大数据意味着激动人心的业务与服务创新机会。零售连锁企业、电商业巨头都已在大数据挖掘与营销创新方面有着很多的成功案例，它们都是商业嗅觉极其敏锐、敢于投资未来的公司，也会因此获得丰厚的回报。
+在未来数年，这样的“小而精”、“快而准”企业会越来越多，并做出有可能改变世界的颠覆性产品。数据已经被认为是宝贵资源，任何一家有雄心、渴望获取洞察力的企业，都应及早制定大数据战略和方案。否则，所有的机会将被“数据鸿沟”所延宕。
+甲骨文大中华区董事总经理潘少海：加码投资中国市场
+2013年，甲骨文将继续推行“中国增长计划”，增加在中国的分公司数量。
+在经济增长趋缓，经济转型升级加快，企业和政府组织走向经营集约化、管理精细化的背景下，企业对信息化建设的需求仍然保持高速增长。这是甲骨文所看到的趋势和机遇。
+首先，工业和信息化部运行监测协调局统计数据显示，2012年1～11月，中国软件产业稳中有升，软件业务收入2.19万亿元，同比增长27.3%。大部分企业正在进行新一轮软件投资，以跟上政府提出的向“两化深入融合”的转型策略。在这一趋势下，企业对信息化建设的需求将继续保持上行。
+其次，是政府对于未来十年信息化的定位，所蕴藏的商业机遇。“十二五”规划中明确了战略新兴产业是国家未来重点扶持的对象。同时，全球IT产业正迎来云计算、大数据、移动、社交等新趋势带来的革新浪潮。有专家预计，三年间，云计算市场规模年均复合增长率将达91.5%。中国云计算的市场规模2013年将达1174.12亿元。云技术将逐渐成为大多数企业加快变革的核心动力。
+2013年，企业和政府将继续加大对云领域的投入，与其相关的硬件制造、软件开发、运营服务等将是投资的重点，云计算将是战略新兴产业的增长点。随着新型城镇化政策为智慧城市建设指明了方向，交通云、政务云、教育云、医疗云建设将在全国范围内成为智慧城市建设的重要环节。
+大数据是2012年企业信息化谈论最多的话题。海量数据的爆炸性增长原因有很多，包括交易型IT过渡到交互型IT，社交媒体的兴起以及移动设备的大面积普及等。充分利用大数据和挖掘大数据商业价值将为企业带来强大的竞争力。
+有数据显示，移动终端将超过个人电脑成为用户访问互联网时使用最多的终端，企业级用户对移动互联网的需求已经从收发邮件和办公自动化，开始拓展到业务类应用的移动化。随着移动社交的广泛应用，移动和社交媒体都将会在2013年更多的与企业级软件融合，移动和社交媒体会成为企业级应用的新入口。
+可以预见，企业级市场的竞争和角逐将延伸到应用软件企业之外，成为包括互联网服务提供商在内的更多企业的竞技舞台。
+英特尔中国区总裁杨叙：把握融合创新机遇
+随着终端形态的创新，消费者个性化需求更加多样化。短短一年内，触控、变形超极本激发了移动互联设备的形态创新。2013年，终端设备厂商将有机会做更多创新，特别是融合的创新，创造出更多样的智能设备。
+同时，随着云计算、大数据的发展，局端和终端设备间的融合将更平滑、更智能，可在局端识别不同的终端设备，并推送匹配的个性化内容，同时实现终端体验一致性和最优化。未来云端创新重点就在于智能化和大数据处理。
+从行业的发展来看，当前计算和通信更紧密融合，信息服务边界不断延伸，设备形态推陈出新，人机交互方式出现更大突破。
+从最新的消费趋势来看，智能终端进入了“一对多”时代——用户既可选择一款全功能设备，也可多种设备交替使用；尤其是触控、变形超极本这样的创新，能同时满足工作和娱乐、内容创建和内容享用所需，精彩体验层出不穷。
+作为一位产业人，我认为当前信息通信产业最大的趋势就是融合，融合将是个性化计算发展的新方向。
+首先是计算力的创新，计算改变了我们的工作和生活，过去20年在个人计算领域，同样的价格所获得的计算性能已经提升了500倍。摩尔定律仍然是计算技术创新的指南。
+其次是应用体验。触控正成为各种终端设备的标准配置，语音识别也会成为重要的人机交互方式；同时这些体验可实现跨平台的一致性效果。
+我相信，计算创新会越来越体现“以人为本”的思想，带来更高的效率、更低的成本、更好的体验。
+在新的十二五规划中，“新四化”为整个经济发展指明了发展方向。我理解“新四化”中，信息化和工业化深度融合，是要加快形成新的经济发展方式，推动工业转型升级，同时，工业化、信息化在推动城镇化、农业现代化中发挥着重要支撑作用，这其中信息技术大有可为——从各种计算终端设备的普及到云计算服务，从三网融合到物联网，从数字家庭到智能城市，英特尔希望用自己的专长，和产业链分享融合创新的机遇。
+戴尔大中华区总裁杨超：企业级市场潜力无限
+在过去，IT资源的紧缺与分布不平衡在很大程度上制约了企业的长期发展以及提供服务的能力。在很多企业里，高达80%的IT支出只是用来维护已有的IT环境，而仅有20%左右的IT资金被用于推动企业发展的战略性及创新的支出。随着中国现代化进程的发展，对IT的需求也将继续稳步增长。
+从十八大展示的数据来看，下一个十年中国的经济规模将会在2010年的基础上实现再次翻倍，同时实现多个全球第一。比如将会建成全球最大的城市化体系，城镇化人口将会超过8亿人。并且，中国还将追求更均衡的发展，比如说促进家庭的消费。
+而这巨大的IT投入是否一定会帮助企业实现更高的投资回报、快速达成目标？企业又将如何提高资源的使用效率和IT的运营效率？
+在2013年，我们希望可以通过在这方面的努力，帮助更多的企业把IT支出比例从“80/20”变成“50/50”，将IT部门从“成本中心”转变成“创新中心”和“竞争力中心”，让IT部门成为推动企业持续发展的强动力。
+中国已成为全球第二大的科技体，IT需求正在逐年稳步增长。一方面，当前企业信息化正面临着大数据时代和云时代的全新挑战；另一方面，大数据时代和云计算为企业的变革带来了巨大的机会。
+IDC进行的一个预测中显示，在新兴市场中，中国的IT支出将会很快超过发达国家，增速将是发达国家的2.5倍。2012年的中国IT市场规模已达到1700亿美元，而这一数字到2016年将增长到2500亿美元。
+我想中国市场之所以有这样的地位不仅与中国GDP 7.5%的增长率相关，更与中国人所拥有的激情活力、教育传统以及创新精神所分不开的。
+移动互联技术的演进更为我们开启了一个崭新的计算时代。2015到2020年移动业务量更将以指数级增长。移动互联带给大家的，不仅是消费领域的体验，更是企业进行快捷、迅速部署的全新办公模式。
+此外，我们也在这些新兴市场中看到一个不断显现的重要趋势，即商业企业的创业精神，这种精神在中国更突出。新兴的中小企业正在以前未有的速度发展，而技术在其中扮演了重要的角色。支持这些创业者迅速扩大企业规模，迅速走向全球舞台，这个速度要比以往任何时候都快。戴尔在这方面倾注了很多热情。
+浪潮集团董事长兼CEO孙丕恕：探索云计算商业模式
+经过多年的积累，浪潮集团在云计算技术创新和商业模式创新上已有所建树。
+2012年，浪潮集团加速向云计算全面转型，形成了覆盖IaaS、PaaS、SaaS云计算三个层面的整体解决方案，也是国内唯一一家拥有覆盖云计算三个层面的整体解决方案及服务能力的IT厂商，已经与全国25个地市和行业签订了云计算战略合作协议。
+2013年，浪潮将更加侧重行业和区域的市场开拓，加强云计算在全国的市场推广力度。
+当前，云（云计算）、移（移动互联）、物（物联网）、大（大数据）、智（智慧、智能，如智慧交通、智能电网、智能城市等）可谓IT行业的五大热点。在这五大热点中，除了移动互联外，浪潮的业务与其他四大热点都是密切相关的。
+2013年浪潮集团重点突破的工作，首先是在云产品及云方案方面，将继续加大云计算核心装备、PaaS及SaaS层产品与方案的研发力度，丰富和完善云产品及云方案，进一步强化软硬一体化的云计算整体解决方案服务能力。
+其次，在市场拓展方面，浪潮将加强区域拓展力度，在全国成立区域云公司。2012年已经尝试建立5家云公司，处于探索阶段。2013年要在全国全面铺开，将在全国30个省建设云公司，推动当地的云计算业务。同时，对云计算应用领域，浪潮尚未涉足的领域，将会进行广泛的战略合作或者是并购，我们还准备联合政府及业内合作伙伴共同发起成立云计算投资基金，用于推动“中国云”的建设和发展。同时加强行业拓展力度，针对中国政府行业垂直管理、紧耦合的架构特点，成立行业部，针对每个行业推广云计算。
+今年也有比较担心的问题，就是宏观经济走势还不甚明了。在国家的宏观经济调控下，经济增长速度放缓，必将为各行业的IT投入带来一些影响。但在现行的经济环境下，要转变经济增长方式，还是需要靠信息化来解决，我相信未来信息化的旺盛需求还是不会改变。
+苏宁电器董事长张近东：线上线下交互融合
+过去的9年时间，苏宁电器营业收入年复合增长达到40%，净利润年复合增长近60%，2004年到2012年，市值增长近20倍。在中国传统零售业领域，没有人比苏宁跑得更快，这也使得苏宁更早遇到“天花板”，而整个传统零售业都在遭遇毛利率下滑的挑战，但我认为，这只是反映了供应链上此消彼长的关系，苏宁下一步将会通过提高服务能力，扩大毛利率的增长空间。
+其中，实体零售与电子商务共同承载着苏宁第二次创新转型的重任，“旗舰店+互联网”、线上线下融合发展将会成为苏宁转型的重点，苏宁正通过后台物流、供应链、人力资源、信息技术等资源的整合共享，全面打造虚实结合、线上线下协同发展的业态，从而实现商业模式的升级和盈利模式的优化。“线上线下融合”的发展模式是中国零售业转型升级的趋势，也是中国乃至全球都必须思考的问题。
+线上以苏宁易购为载体，率先大规模实现超电器化品类经营，并在组织团队建设、品类拓展、互联网运营、顾客体验、物流配送等各方面不断积累，保持快速发展。2012年苏宁易购全年销售额达183.36亿，2011年销售额为59亿元，同比增长210.8%。
+线下则以苏宁电器、乐购仕为双品牌战略，着力打造Expo超级店和地区旗舰店两大主力类型，向体验式消费转型。一方面，进行店面结构的调整，关闭效益较低的社区店，增加旗舰店占比；另一方面，有序地推进Expo超级店、地区旗舰店、乐购仕等创新业态。
+2012年是苏宁新十年战略推动整体布局的元年，以科技重塑传统零售业态。2013年苏宁将全面加快线上线下融合模式的实践，打造苏宁易购、苏宁门店两大前端开放平台和物流、IT、金融等后端开放平台。
+可以预见，2013年苏宁将以崭新面貌呈现在消费者面前。通过互联网、物联网技术的广泛应用，实体店会越来越虚，并进一步增强门店的体验、展示和服务的功能；线上苏宁易购得益于门店虚拟出样、物流自提、退换货中心等，越来越实。与此同时，线上线下两大渠道将在商品、配送、售后服务等各方面实现无缝对接，线上下单，线下提货；线上比价，线下下单等购物体现成为现实，真正走向交互融合发展的新阶段。
+根据长远规划，苏宁将实现全品类综合经营、线上线下虚实互动、供应链物流IT全面开放。布局实体零售、电子商务、定制销售“全渠道”，经营实物、虚拟、整体解决方案“全品类”，覆盖个人消费者、家庭用户、中小企业用户“全客群”，定义零售新未来。
+金锣集团总裁郭维世：业绩将进一步增长
+过去一年，中国宏观经济形势可概括为两点：“复苏期的低谷”和“黑暗后的黎明”。
+一方面，欧债危机从希腊向西班牙等欧洲大国蔓延，发达经济体整体呈现增长乏力的态势，新兴经济体则增速回落，这些复杂的外部环境使中国宏观经济下行风险加大。GDP增速延续年初的下行趋势；另一方面，在全球经济低迷的环境下，2012年中国经济实际增长与预期目标之间的差距是2000年以来最小的一年，主要宏观经济指标基本达到预期。
+具体到肉制品行业而言，2012年，受粮食涨价、饲料和养殖成本上升等上游原材料市场因素影响，国内肉制品行业盈利水平集体下滑。同时，行业集中度逐渐提升，业内主要大企业整体呈稳健发展态势。
+过去几年，金锣集团的销售业绩一直呈“跨越式增长”的态势。2009年至今，单熟制品销售年均增长率达30%。
+2010年，我们集团推出了重点产品肉粒多，凭借创新概念和前所未有的卓越品质，一举赢得市场认可，引发行业内众企业效仿，成功开启肉食行业3.0时代，至今依旧在国内销售市场上保持领先。
+同时，我们还进一步整合了产业链优势，推出了高品质、味道纯正的清真系列“尚清斋”，一举塑造成为中国肉食清真第一品牌。
+在渠道建设方面，金锣集团实施“生鲜品直销和熟制品经销、分销”双核驱动策略，保持市场占有率。目前，金锣协助经销商实现了从“坐商”向“行商”的转变，完成销售力的全国布局。
+以冷鲜肉渠道建设为例，我们着力进行终端店铺建设，提升终端店铺形象，强化经营分析能力，实时监控终端动态。截至目前，我们集团已经建设了18000家冷鲜肉专卖店，渠道遍布全国。
+2013年中国宏观经济应该整体趋于利好。随着“农业产业化”和“新城镇化”的政策出台，肉制品行业将面临更加宏大的发展格局，关于产业链、现代渠道发展等的竞争将更加激烈。同时，在消费已经取代投资成为中国经济最大驱动力的情况下，作为消费重要组成的肉食，产业前景值得期待。
+2013年，金锣集团继续优化组织结构和产品品类结构，坚持发展中高端产品和中低温类产品；同时，加大品牌投资，实现大品牌大营销的双核驱动。
+对于2013年的业绩，我们持谨慎乐观态度，相对2012年应该还会进一步增长。
+携程旅行网CEO范敏：挖掘十亿级旅游消费市场
+2012年，移动互联网快速的成长茁壮。携程酒店的无线交易占比超过10%，并仍保持增长。
+我们针对细分市场，以矩阵式推出包含携程无线、携程特价酒店、携程旅游、驴评网、铁友在内的无线应用群，同时还与高德、飞常准、途家、松果等合作构建全产品链，将在电话、网络预订领域积累的线上、线下服务能力，全面导入APP群的应用领域，缔造一站式服务能力。
+另一方面，开放与平台战略成为行业大势所趋。2012年，我们和Booking等海外同仁合作；开辟了酷讯、到到、新浪、优酷、360等新媒体通道；更向淘宝、京东、美团等渠道开放库存。同时，我们也创造性地开放自身平台，引进更多的产品和合作伙伴，2013年会从OTA转型、升级为OTP，成为一站式旅行服务平台。我相信，以携程的大平台、大流量、大数据，通过不断挖掘十亿级的旅游消费者大市场，一定可以为合作伙伴带来客源和销量的巨大提升，开创上下游产业的多赢格局。
+从趋势来看，众所注目的价格战，在2013年还会延续，但携程还会保持增长势头，并占据更大的市场份额；而消费者关心的竞争要素，由于价格压低趋同，会逐渐转向到产品、技术与服务等因素，消费者更能看到携程在产品、技术与服务等方面的优势。
+此外，开放平台的模式会充分发挥B2C平台强大的服务功能，形成与竞争对手C2C平台不同的价值区隔。携程的开放平台战略有两个层次，一个层次是开放库存给渠道，比如加入淘宝平台、开放给各种无线应用对接，增加了渠道销售；另一个层次，我们也会引进更多的合作伙伴，丰富携程的产品线的覆盖度。
+在此基础上我们会充分发挥强大的服务功能，这正是携程的价值所在。
+宝洁大中华区总裁施文圣：中国是增长发动机
+从增长上看，中国依然引领着全球市场。我们能够看到中国未来增长的强劲潜力。中国政府公布，到2020年实现人均收入翻番，并构筑“美丽中国”。我们有信心中国一定能实现这一美好愿景。
+中国市场一直是宝洁全球业务增长的发动机。我们刚刚宣布本财年第二季度的全球业绩明显高于预期，因此公司提升了本财年对销量和收益的整体预期，同时继续加大对创新和营销项目的投入以拉动增长。中国作为宝洁在美国以外的最大市场也将继续是公司加大投资的重点。
+为支持公司在中国市场的增长和发展规划，2012年我们不仅在江苏太仓落成了在中国的第十个生产基地，而且破土动工了第11家工厂。
+宝洁的数字化进程也获得了良好成果。我们的电子商务在2年内实现了10倍增长。因创新性利用微博等数字化平台，宝洁被新浪微博评为最具影响力公司；宝洁对客户服务的创新也获得了广泛认可。
+2013年是宝洁进入中国市场的第25年。我们将一如既往地通过不断创新的产品来满足消费者的需求，不仅包括既有品牌产品的创新，也包括新品牌的创新。我们刚刚在中国宣布了全球首发的最新护肤品牌海肌源即将全面上市。
+我们将继续紧跟中国消费者的步伐与需求，对理解消费者的投入是宝洁最大的优势。宝洁每年全球的研发投入总额达20亿美元。位于北京的创新中心有超过550名科学家致力于领先技术的探索和卓越产品的研发。
+此外，在中国，宝洁已经有10家生产和物流基地，加上覆盖全国的经销商和销售网络，使得宝洁每年能够通过优质产品服务超过10亿的中国消费者。同时，宝洁致力于与供应商与业务伙伴达到双赢的合作关系。
+员工是我们的核心优势。现在宝洁中国的业务由超过98%的本土优秀人才运营，这是让我们最感自豪的事情。过去两年，宝洁在人才培训与发展上的投资已经超过900万美元。宝洁将持续不断地完善人才战略以确保领先地位。
+走秀网CEO纪文泓：着重加强物流管理
+2012年可以说是走秀网的突破年，这个突破体现在方方面面。
+经过2012年一整年的摸索，走秀网开创了一种全新的开放平台模式，现在在走秀网这个平台上，我们不但直接引进海外品牌，更直接引进海外平台。我们与eBay携手推出了推出eBay秀频道，给中国消费者带来超过5000个品牌50万种商品的全球一站式风尚购物体验。
+我们在2012年获得了意大利顶级奢侈品牌菲拉格慕（Salvatore Ferragamo）正式官方授权，成为第一家获得奢侈品牌认可的中国电商。在年末走秀网更换了全新的LOGO，整个网站也进行了一次较大的改版。我们越来越明确，要成为全球时尚正品百货，将全球美好生活带给中国。
+过去的一年，走秀网总共获得了30多个全球品牌的在线独家或首家发布权。
+我们的业务模式已经从全部靠自主招商的传统B2C模式，向全球品牌对接中国用户的开放平台转变。而对于消费者来说，“全球时尚正品百货”，这将是走秀网明确并将一直坚持的定位，我们坚定且坚持地继续致力于将全球美好生活带给中国。
+为了适应业务升级和行业趋势，在新的一年里，走秀网还将从提高用户服务能力和服务品质入手，进行积极的组织结构调整。新成立的“品牌传播部”，将重视自身的品牌深化培育和与合作品牌的联合推广；“时尚运营部”，重视将真正有价值和风格的精品推介给用户；走秀网加大对客服中心的投入，重点突破贵重商品的质检和售后用户服务等等。
+2013年就走秀网自身来说，第一会着重加强的是物流方面的相关管理，在过去的一年里，因为涉及到跨国交易及海内外平台对接等多方面的问题，必须要承认的一个问题是，一部分国际直发的商品在物流上，特别是物流速度上没有做到令消费者非常满意的程度，而2013年这个方面的用户体验将是我们着重要加强的。
+英利集团董事长苗连生：冷静下来堵漏洞
+2012年光伏行业的危机，教育了很多人，比如说很多挤进这个行业的人。在光伏大跃进的时候，大家都缺乏各种风险控制和风险防范，对于成本控制、创新就更少了。
+光伏行业本身是很好的，这并不代表外部环境就好。但外部环境没有个两年是改善不了的，所以大家都不要心急。现在光伏行业的情况是，越冷的时候，越没有衣服穿；越渴的时候越给你放一把盐。
+其实遭遇“寒冬”也不是坏事儿，就像天气一样，春暖夏热秋凉冬寒，老天爷的规律。要是整个行业不这么刺激一下，企业都好不了。关键是要冷静下来，想想哪儿还有管理上的“老鼠洞”，能堵住就堵。
+以前行业成长太快了，难免遗留下来各种管理上、队伍上和公司战略上的问题。不光英利有这些问题，国内同行基本都差不多。现在夏天过去了，赶上冬天，其实挺好。身子骨不太好的得个感冒，再弱点的住院休息，都是为了把病治好。
+至于2013年，光伏行业的寒冬从一定意义上说现在已经过去了，从另外一种意义上说还没过去。全球市场跟国内市场已经缓过来了，但是发展环境没有一两年的培育起不来，比如政府和银行融资。
+2012年，英利的出货量做到了第一，这并不是好事，等于把自己放到了风口浪尖上，所有人都盯着。所以我开始在公司内部“搞运动”。
+第一个运动就是提醒大家别再夜郎自大了，别再老觉着自己东西不错，老觉着“我们的产品怎么会有质量问题”。
+我们要在公司内部开展常态的“3·15”活动，不停止不间断，每年都得有几个小高潮。但这个“3·15”跟国家的“3·15”不一样。
+我们主要想达到两个目的：一是从管理层到员工要转变观念意识，对质量问题重视起来；二是强化责任心。我们准备今年主要开展两方面教育，一个是质量教育，一个是学会当家，学会当家就是学会负起责任。
+还有一个就是将“一站式”升级。光伏“一站式”发展模式在2012年已经摸索出门道了。今年将开始升级，向终端服务化发展。除了超市和终端服务化之外，还有一个延伸，就是城市电站，设计管理城市公共能源。
+忠旺执行董事兼副总裁路长青：增加国企、央企客户
+有调查显示，2012年全年我国GDP同比增长的预测均值落在7.7%-7.8%区间内，与2011年全年GDP增长相比回落幅度较大。但我国政府对于铝工业的关注比过去更多，尤其是高端铝加工产业成为关注的重点。
+经过半个世纪的发展，目前我国已是全球最大的铝挤压材生产国、出口国与消费国。近期，中央经济工作会议为2013年的经济工作确定了“稳中求进”的总基调。其实，宏观经济对集团所属行业影响较小。
+当前，以节能减排和低碳环保为目标的轻量化发展已是大势所趋，铝合金因具有质量轻、耐腐蚀、导电快、传热好以及可回收再用等优良性能，市场正处于快速上升周期，一方面是需求的支撑作用，另一方面是政策的高度重视。
+2012年，工业铝型材的消耗量增幅明显高于建筑铝型材，工业铝型材将会成为我国铝挤压材产业的发展趋势。
+基于以上判断，中国忠旺迅速将业务重心转移至全球最大的铝型材消耗国——中国市场，扩大以大型国有企业及大型中央企业为主的客户基础，增加集团在中国市场的份额，有效减低美国“双反调查”的影响。
+从前三季度业绩来看，中国忠旺在产品研发、产品销售以及企业整体发展等多个方面取得了令人鼓舞的成绩。2012年前三个季度，集团收益及股东应占溢利分别较去年同期增长57.4%及108.4%，至约人民币107.4亿元及13.9亿元，产品销量按年上升57.7%至474,701吨，整体毛利率按年上升 1.5个百分点至21.4%，我们有信心完成全年50万吨的销售目标。
+针对目前的具体环境，管理层制定了以下主要的发展策略：首先，巩固现有主营业务工业铝型材在行业的领先优势。其次，积极有效实施300万吨高附加值铝压延材项目，为长远发展注入新的活力。第三，及时应对市场需求与变化，加大市场开拓力度与深度。
+巴斯夫大中华区管理董事会董事长、全球高级副总裁关志华：加强中国本土创新
+2012年，尽管市场增长趋缓，巴斯夫仍然在全球战略——“创造化学新作用，追求可持续发展的未来”的指引下，在中国进行了系列投资，巴斯夫的化学创新将在资源、环境与气候、食品与营养领域发挥至关重要的作用。
+在2012年第四季度，我们看到中国的经济略有提升，但是我们仍然保持谨慎，不会去过度解读。我们看到中国经济有暂时的下滑，但是这也有积极的意义，因为中国经济已经出现过热，宁愿在一定程度上减速，然后在稳定的基础上继续发展，以避免泡沫和之后的不良后果。我们认为，中国的基本情况并没有变，正在扩大的中产阶级、不断提高的生活水平和城市化，都意味着对我们产品需求会不断增长。
+即便市场增长缓慢，但是我们的承诺不会改变。根据全球战略，在2011-2020年间，巴斯夫计划资本支出将达到300亿-350亿欧元，其中1/3将投资于包括中国在内的新兴市场。同时，将加强以满足客户需求的业务为导向，进行产品组合的研发。到2020年，每年全球将有300亿欧元的销售额和70亿欧元的EBITDA来自于上市不足10年的产品。
+巴斯夫的目标是，在全球及亚太实现高于化工市场2个百分点的增长速度，希望到2020年全球销售额达到1150亿欧元，其中1/4来自于亚太地区，即290亿欧元。当然，中国将成为本地区高速增长的中心。过去两年，我们连续被CRF评为中国杰出雇主，未来也会继续在中国推广企业，致力于培养本土人才，为以后的增长做准备。
+展望2013，巴斯夫将继续致力于在中国市场的创新发展、积极参与中国化工行业的转型和健康发展，通过在本土的创新活动服务本土及全球市场。
+皇明太阳能集团董事长黄鸣：重回城市市场
+2013年，太阳能产业，无论是光伏还是光热领域，都将面临历史上形势最为严峻的一年。
+2012年11月8日，美国对华光伏产品“双反”终裁落地。不过，这并不是最可怕的。毕竟，我国光伏产品出口美国的占总出口量不到一成。目前，美国的举措已带动了欧盟的双反立案调查，涉案金额超过200亿美元。这是迄今对我国最大规模的贸易诉讼。如果2013年欧盟也加入到“双反”的行列，中国光伏企业将被彻底推向深渊。
+我在5年前就曾经预言过，原料、设备靠进口，产品靠出口，一个寄生于外国政府补贴的产业，就像建立在沙漠上的大厦，终有一天会发生危机。
+截至目前，国内光伏年产能30GW。按照我国可再生能源的规划，到2015年累计可完成25GW装机总量。大量过剩的产能在国内消化，每年至少需要数千亿的政府补贴，完全没有可能。2013年，欧盟的“双反”将会做出最后评判，如果国内光伏企业丧失欧洲市场，必然会出现大量企业倒闭的现象，预计只有两成的企业能够生存下来。而光热产业在2013年也是不容乐观。
+我曾在太阳能行业内反复强调，商业化、市场化是绿色产业发展的唯一出路。为什么皇明一年内推广的太阳能热水器相当于整个欧盟的总和、比北美的两倍还多。就是因为皇明给予了这一产品市场化的推广模式，由此带动出一个太阳能产业。
+眼下，太阳能产业正处于一个分水岭上。如果继续坐等政府补贴，纠缠于同质化、低质化竞争，这个行业将没有未来。今年年初，全国33个城市“毒雾”锁城，气候改变已是当务之急。可太阳能产业却远未能发挥应有的作用。
+2013年，皇明公司将率先实现转型。皇明的转型，并不是抛弃原产业，而是一种升级扩充。2013年，皇明将重回城市市场，通过气候改善商城将包括太阳能光热、光伏在内的各种节能技术进行市场化推广，让每一个人参与到节能减排、改善环境中来。这是一片全新的蓝海。
+汉能控股集团董事局主席李河君：年底太阳能会复苏
+近期，各主要经济体陆续发布2012年经济数据。整体来看，全球经济还是处于上行阶段。对于我国光伏业来说，2012年是整个产业的转型期。
+从全球范围看，虽然晶硅“相对过剩”导致许多光伏企业生存困难，但2012年整个光伏应用市场仍然取得了显著增长。
+汉能在2009年进入光伏行业之初，就对这个行业有几个基本判断。光伏行业竞争的核心是技术，柔性化、薄膜化是行业发展的必然趋势。
+光伏的大规模普及，光电转化效率的提升、成本的下降必不可少。我们也相信中国市场一定会启动，成为继美国和欧洲之后最大的市场。
+2012年，对于汉能来说主要工作是技术储备和产能形成。目前，汉能薄膜太阳能产能已达到3GW，成为世界上规模最大的薄膜太阳能企业。在薄膜技术领域，汉能坚持自主研发和海外并购并重的全球整合战略。汉能也积极拓展全球光伏应用市场。
+我始终相信全球经济是在向好的方向发展，特别是随着技术进步和大家对环境的重视，新能源的应用将会越发普及。作为新能源商会的会长，我认为全球光伏产业在2013年底、2014年初会赢来复苏。
+国内光伏业想要摆脱目前的市场困境，主要出路有两条。一是将市场重心由国外转向国内；二是跟上全球光伏技术转型升级潮流，将产品路线调整到薄膜这一未来发展方向上来。
+我们非常看好我国薄膜太阳能产业的发展前景。从政策环境来看，近期国家频繁推出光伏利好政策，鼓励分布式发电和BIPV(光伏建筑一体化)，国内市场即将大规模开启。从国际来看，光伏市场目前仍保持30%以上的增长率，大环境是在朝好的方向发展的。
+2012年是汉能产能实现的一年，2013年则是我们产能向产量转化的一年，预计产量将达到2.5GW。
+赢创大中华区总裁李汉卓：产品组合分散风险
+由于欧债危机以及美国和日本市场有限的增长，我认为过去一年全球经济颇具挑战。此外，一些新兴市场的增长前景也不容乐观。然而中国经济在经历一系列宏观经济政策调整及全球市场需求复苏后，在去年第四季度实现了反弹。
+尽管赢创的一些业务市场呈现出不利因素，但是我们拥有强大和广泛的产品组合，均匀分布在多元化的应用市场，如制药、汽车、照明、电子、食品、建筑和化妆品等。我们的产品在每个市场的分布均控制在20%以内。因此，我认为全球经济下滑对赢创的业务影响也是有限的。
+为了充分把握亚洲化学品市场的快速增长机遇，赢创已制订了长期全面的亚洲增长计划：以2010年为基础，到2016年将亚洲的销售额翻一番达到40 亿欧元。在此之间，我们计划在亚洲投资20 亿欧元，大力拓展包括基础研发在内的创新活动，并在亚洲新增2000名员工。总计数亿欧元的各项投资项目已于去年启动。
+赢创视大中华区为推动全球经济发展的驱动力之一，并为实现大中华区业务的持续增长而不断努力。我们预计到2016 年在大中华区实现20 亿欧元的销售额。而我们增长计划的其中一个重心就是开发能够满足本地客户需求的产品和解决方案。
+此外，中国城镇化的不断发展将鼓励越来越多的人从农村向城市迁移，从而创造更多的投资机会并刺激消费。这对于中国和世界来说是一个绝佳的机会，对赢创亦如此。
+2013年，全球经济发展仍面临巨大的不确定性，因此难以预测。这些经济不确定性也影响着赢创在新一年的业务预测。不过，尽管如此，我们预期市场对赢创的特种化学品需求仍然高涨，并期待赢创在新一年的成功表现。
+GE大中华区总裁兼首席执行官夏智诚：积极支持中国国家重点工程
+2012年，GE在研发方面的资金投入翻了一番。我们认为，创新是GE的DNA，也是我们收入增长的关键驱动力，GE每年将6%的工业年收入投资于研发。
+GE将持续投资于研发项目和研发人才的培养。我们将通过建设GE中国研发中心、在中国为中国项目、绿色挑战、与中国领先企业合作研发等方式来支持中国的经济增长，同时，我们致力于推动中国从低成本制造业向创新驱动的增长的转型。
+在过去的一年里，我们面临着两大主要挑战。其中之一是，我们推出本地化产品的速度还不够快。因此，我们在“在中国为中国”项目方面做了大量的工作。我们的医疗团队利用GE中国创新中心（成都），着重开发适合基层医疗需求的医疗诊断成像产品。同时，我们的研发团队不断深入挖掘电气化、页岩气勘探，交通运输及其他领域的市场潜力。
+另一个主要挑战是人才。GE中国的发展速度最终取决于我们吸引、培养和留住最优秀人才的能力。随着越来越多的中国企业走向全球，我们正面临着激烈的人才竞争。这些竞争不仅来自跨国公司，也来自本土的国有企业。
+未来中国经济将继续强劲增长，不太可能出现硬着陆。
+我们对中国的长期发展前景以及GE在中国的未来充满信心。经济改革需要进一步深化，尤其是国有企业和金融领域。GE在支持中国可持续发展中扮演着一个独特的角色。我们的优势业务与中国的发展重点紧密结合，如交通、能源、水处理和医疗等等。
+我们将坚定不移地执行现有的GE中国战略。我们将继续在中国投资，特别是在提升我们的研发和创新能力方面。我们的目标是成为一个更明智、更灵活的公司，积极支持中国的国家重点工程，如C919大飞机项目。我们将继续建立和加强与中国行业领先企业的战略合作。
+三一重工总裁向文波：国际化正在提速
+机械行业是一个强周期的行业，而国内的市场环境又不成熟，如果市场过分集中，系统性风险就会增大，这一切都使得三一不能像上述的几家世界巨头那样依赖于某几个市场。
+2012年，三一内部做了许多调整。这包括业务架构的调整（开始上马一些新的产品类型），但更多的是改变这家公司从上到下的逻辑——三一不是没有问题，但我需要一个长期的过程去解决它们。
+在业务上我们有两块不能省钱，一个就是产品研发费用，而另一个就是针对员工的培训费用。2013年是机械行业的“小年”，而三一刚好趁此机会“练练内功”。
+三一看起来已经很庞大，但我们只是排在全球的第六名。欧美有自己的工程机械产业，我们去打他们是非常困难的。所以，我们竞争的是国际市场，但又不是在欧美，而是在发展中国家，也就是在“第三战场”。目前三一海外销售的占比只有5%，而到2015年，这个数字将上升至30%。
+三一把国际化看成第三次创业。按照董事长的说法，如果三一不能成为一个国际型的企业，那么充其量就只是中国一个比较大的个体户。三一正在提速，但这不同于之前所经历的那个“中国机遇”。这“速度”是三一在匹配了内外资源之后的一种自发式的速度，它不再那么受制于所谓的外部环境。过快的速度确实存在风险，但现在我们的确有能力去承受这个速度。
+格力集团董事长董明珠：乐观应对2000亿目标
+长期以来，格力对市场都非常乐观，即使在制造业遭遇最严重寒冬的2012年。如果你能保持技术创新，市场就会永远存在。2012年，格力在逆境中实现了1000亿的目标，对于做不到的事情，格力从来不会承诺，未来格力将会保持每年增长200亿，在五年内实现2000亿的目标。
+未来格力集团怎样实现2000亿的目标，最主要的还是创新和脚踏实地。对于格力来说，我们也要沿着实干的思想对待每一个决策和决定。每年我们实现200亿的增长目标，也将会来自于技术的支撑和效率的提升。
+同时，格力也会更加注重专业化，专业化没有止境，特别是在制冷这个领域。格力已经走出了生产单一家用空调产品的时代，格力在制冷领域是多元化的企业，我们只是做多元化的专业细分。比如，我们讲食品加工是最简单的，如果食品满足保鲜的要求，这对温度有特别的要求，不仅是多少度的问题，包括环境的湿度、温度的恒温点、空气的净化程度等，都值得我们研究。
+当下环保领域，格力也有很多的文章可以做。现在在北方，感受最深的是北方很多都是管道输送，集体供暖，我在北方开会时，郊区的空气里面弥漫着二氧化碳、煤气的味道，早上起来，鼻子里面都是黑的，吐的痰都是黑的。从专业性的角度讲，如果我们的空调能实现在零下二三十摄氏度时也能用，又节能，用我的空调比供暖的费用还低，我觉得对空气就起到了很好的保护作用。
+格力永远不会做多元化，但依然坚持多元化的发展方向，我们可以做更多的研究，比如电机，压缩机，上游部件的核心技术的突破，我可以把电机延伸到一个产业里面，但是不影响我的专业化。
+此外，我要提醒的是，企业要珍惜城镇化的机会。中国的城镇化，把农民的生活习惯进行了彻底的改变，不是像过去日出夜归，更多的是生活方式的改变，生活方式的改变，使得市场对家电行业的需求量会在不断的放大。从简单意义来讲，给了我们家电行业机会了，但是我们不能像过去的某一个时段，把劣质的产品，都借此机会消化掉。而是，这样的机会来了，我们应该珍惜，尊重这个市场，更好的服务市场，而不是浑水摸鱼。如果真诚对待这样的机会，就会得到回报。
+西门子(中国)有限公司总裁兼首席执行官程美玮：跟紧城镇化步伐
+从去年开始，欧债危机再次引发全球经济下滑，挑战在未来还会继续存在。从长期来看，我们对中国的经济前景持乐观态度，我们对中国市场充满信心。
+2012财年，我们在中国的业绩表现接近上一财年的历史最高水平，新订单额达60.4亿欧元，营收额达63.5亿欧元。中国市场的营收在西门子全球营收中占8%，是西门子在德国之外的第二大海外市场。
+2012年，西门子全球第1000台MAGNETOM ESSENZA磁共振系统在深圳下线，并销往日本，进一步表明了中国在西门子全球医疗创新网络中的战略中心地位；工业业务领域推出了专门为中国市场设计的经济型数控控制器SINUMERIK 808D；在能源业务领域，西门子与上海电气建立战略联盟，成立两家新的合资公司，以进一步开拓中国风电市场；2012财年初刚刚建立的基础设施与城市业务领域，在2012财年为南京、青岛、重庆、苏州和东莞五个城市提供了先进的轨道交通解决方案。
+此外，隶属于西门子金融服务集团的西门子财务租赁公司也在2012财年在中国再次实现了超过60%的新业务增长，员工人数翻了差不多一番。
+未来，我们将始终坚持以西门子相关业务为核心，并围绕它们开展租赁业务，目前在中国已经有将近40%的西门子医疗业务使用了我们的融资产品。
+此外，我们始终紧跟中国市场变化，打造适合中国市场需求的产品。
+近十年来，中国城镇化进程明显加快。专家预测，到2020年中国城镇化率将超过60%。围绕城镇化布局发展的各类基础设施投资也将成为2013年经济复苏的重要力量，例如轨道交通等方面，都是西门子能够大展拳脚的领域。
+宝钢集团有限公司董事长徐乐江：以创新驱动转型发展
+过去的五年多来，尽管遭遇了史上罕见的全球金融危机、上游原材料市场的巨幅波动和下游市场的跌宕起伏，但是宝钢的发展，在体量和内涵上，都可以说是跨越式的。
+2013年是宝钢新一轮发展规划实施的第一年，钢铁企业所处的环境可谓“极度深寒”，但是极寒之下，我们更要有所作为，主动迎接挑战。宝钢已经踏上了“二次创业”的新征程，宝钢钢铁强国的梦想依然，跻身世界钢铁第一方阵的目标依然。
+未来，钢铁产能过剩的压力与结构性机会将长期并存，创新和软实力将成为行业最重要的竞争要素。宝钢最根本的对策是眼睛向内，深化改革和创新。目前，多元产业对主业依赖度还很高，独立发展能力还较弱；战略转型刚刚起步，许多措施有待落实；二次创业的布局已经全面铺开，但与深化改革、创新、攻坚克难的氛围还有不相适应等问题。
+可以预见，以创新为驱动的转型发展，是国内钢铁行业唯一的突围之路。但在这条突围之路上，却横亘着三道需要全力突破的关隘。
+第一道关隘是平衡发展模式。长期的粗犷式发展已使中国钢铁业在规模扩张方式、组织结构、产品结构、产业布局、资源供需等发展模式上失衡，制约了我国钢铁行业的健康发展，急需制度创新的支持。
+第二道关隘是国际化发展。尽管中国钢铁企业占据全球最大的钢铁企业前10强半数以上份额，但包括宝钢在内的中国大型钢铁企业还没有一家称得上是“跨国公司”。中国钢铁业国际化羸弱的一个根本原因，就是缺乏驾驭国际市场运营的经验和能力。管理创新能力，必然是中国钢企走向国际化的一大支撑。
+第三道关隘是资源环境困局。中国钢铁业要走向新生，资源与环境是一道很高的门槛，迈不过去必然被边缘化甚至被淘汰出局。中国钢铁业贡献了全球45%左右的产量，却鲜有影响世界钢铁业发展方向的突破性技术创新，这是中国钢铁业大而不强的典型症状。唯有技术创新，才是中国钢铁业发展摆脱资源和环境束缚的新支点。
+海尔集团首席执行官张瑞敏：进入网络战略阶段
+海尔集团的发展已经历了前四个阶段，即名牌战略（1984年—1991年）、多元化战略（1991年—1998年）、国际化战略（1998年—2005年）和全球化品牌战略（2005年—2012年）阶段。
+而今，海尔进入到第五个战略阶段——网络化战略阶段。互联网时代就是精细制造，精准营销。网购的价格非常低廉，可能是实体店的50%，或者70%，但是快递又可以变成精准快捷的配送，这完全颠覆了传统的模式。
+互联网颠覆了传统的经济模式，人单合一新模式的基础和运行都体现在网络上。既然用户和营销体系网络化了，所以企业必须转型，变成网络化的企业，才可能适应这个网络化的世界。
+在外部，用户的选择可决定企业的生死；在内部，员工主导企业。网络化后，用户个性化需求一定要靠员工去满足。海尔组织架构在变化，从原来的“正三角”转变为“倒三角”，又从“倒三角”扁平为节点闭环的网络组织。
+网络化的企业应该怎么做？我把它归纳为三个“无”。
+第一，企业无边界。海尔探索的就是一个平台型团队的按单聚散，海尔下一步要走的路，就是一定要把平台型团队，按单聚散做好。
+第二，管理无领导。用户是领导，用户说了算。我们正在探索人单合一的驱动机制。人就是员工，单就是用户，把员工和用户合起来，最后的目的就是自主经营体，自主经营体再变成一个个自治的小微公司，给最大的自主权，更快的反应更多的决策，最后做到人单自推动。
+第三，供应链无尺度。这使得可以满足大众和小众的需求。
+传统时代是大规模制造，互联网时代是大规模定制。现在海尔探索的就是按需设计、按需制造、按需配送的体系，这是最高的境界。海尔现在还做不到，还努力在第二个位置，大规模定制。但按需定制必须要去考虑了。为什么呢？因为3D打印真正发展起来后，用户可以自己设计，就把你放一边去了，这正是第五个战略发展阶段应该做的。
+在第五个网络化战略阶段，先是制定战略的思路，为了这个思路的实现，要找到实现这个思路的路径，也就是实现战略的路径。要有思想准备，做这个路径的时候要耐得住心，耐得住寂寞。因为这个过程就是一个试错的过程。
+富士胶片(中国)投资有限公司副总裁徐瑞馥：加大新兴市场投入
+在过去的一年里，包括富士胶片在内的日资企业几乎都面临着较为严峻的外部形势：欧洲经济受到欧债问题影响继续恶化；美国经济复苏缓慢；以亚洲为代表的新兴国经济增速放缓；日本经济虽在震后逐渐回复，但受全球经济增长减速的影响而后继乏力。
+即使面临这样的事业环境，富士胶片集团凭借自2010年3月开始实施的结构转型，历经两年构筑起了即便在严峻形势下依然能够确保盈利的企业体质。
+从2012年4月1日到2012年9月30日，富士胶片控股株式会社累计实现销售收入134.38亿美元，营业利润5.35亿美元。总体来讲，富士胶片在2012年发展情况和2011年相比达到了持平。
+过去一年，富士六大重点发展的事业领域，数码影像、医疗生命科学、印刷、高性能材料、光学元器件、文件处理都取得了不错的成绩。
+2013年，尽管可以预见局部经济增长的减速，但新兴市场经济已显示出将继续保持其作为全球经济推动者的地位。因此，富士胶片取得进一步发展的关键，就在于我们在这些市场中的定位和表现。这和我们早些时候发布的中期经营计划“VISION80”的主旨是完全吻合的。
+“VISION75”主要是大力收缩传统影像业务，并将“医疗·生命科学”、“印刷”、“文件处理”、“高性能材料”、“光学元器件”和“数码影像”等列为今后发展的六大重点事业，这一计划实现了富士业务结构转型。
+而新的“VISION80”计划，除了将推动这六大事业在全球市场的进一步发展，还将加速推进集团全球化，并明确了加大对金砖四国、土耳其、中东等新兴国家的投入，包括对地区人力资源的开发和有效利用、针对地区需求开发产品与服务，以及加强地区管理等。
+这也意味着富士胶片将更加重视中国市场。如果说过去，中国对于跨国公司而言扮演的是生产基地的角色，那么现在我们面临的问题是在这个基础上，怎样让这些制造企业生产出更好的质量更高的产品来。从这个意义上讲，跨国企业对于中国的投资将进入到一个新的阶段，而一些新的变化也将随之产生。
+金立集团董事长兼总裁刘立荣：渠道变革仍在继续
+2012年，金立手机的出货量总体良好，总量超过2000万部，内外销均超过1000万部。2013年金立计划完成3000万部的销量。包括1800万台的内销以及1200万台的外销。
+2012年的中国手机市场的规模表现很可观，但存在规模大、利润低的问题。目前大部分厂家做的都是安卓系统，这是一个开放的系统，有一个特别明显的特点是，厂家特别多，新的东西发展快，但想要做好用户体验就特别困难。因此，提升用户体验是我们目前关键的工作重心。
+大部分国产手机在过分追求产品硬件升级的速度，而忽视了消费者的需求。任何品牌的忠诚度、关注度、喜爱度，都是基于产品本身。国产手机可以通过慢慢渗透的方式，建立消费者对于品牌的理解。
+2012年中国厂家有进步，尤其是研发平台在产品设计方面有很大的进步。目前，国产智能手机已从价格之争中走出来，接下来我们需要面对的是如何解决差异化的问题。真正的差异化应该是从人群细分，就是真正从消费人群出发的。
+2012年智能手机市场进行了重大变革，至为关键的一点便体现在渠道合作上。终端厂商与运营商之间更为紧密的联合、运营商进军线上销售平台、终端厂商与移动互联厂商的互补融合等均在2012年有充足的表现。2013年，渠道的变革仍在延续，并将陪伴各大厂商战略调整始末。
+市场趋势发展到一定阶段肯定会有自然而然的改变，就像以前的彩屏手机取代黑白屏手机。以前我们没有合适的产品、客户关系和人才队伍，经过一些年的建立，我们都有了，所以我们选择了进入智能手机这个市场。这个时候转型也不算晚，市场的较量也才刚刚开始。
+春秋航空董事长王正华：做东北亚市场低成本龙头
+坦率地讲，2012年整体经济环境并不乐观。欧美经济一直处于阴影当中，中国经济也出现了下滑，我们都知道航空业是跟宏观经济走势紧密相关的。所以，外界的许多朋友一度都很担心我们这样的民营航空。
+作为低成本航空公司的春秋在过去一年尽管经历了种种挑战和困难，但整体来讲，我们发展趋于平稳，表现亦符合预期。2012年上半年整个航空业销售金额比去年同期下降40%，全年大致出现10%~20%的下滑。但春秋航空这方面则是增加的，仅上半年同期相比就增加了40%。国内几大传统航空公司2012年利润同比都出现了下降，我可以透露的是，春秋肯定没有出现这样的情况。
+在具体航线上，我们今年确实遇到一些挑战。比如日本航线的上座率受到了钓鱼岛事件的影响。之前这几条航线上座率能达到90%~95%，但现在下降到了50%左右。但即使如此我们基本没有削减过赴日的航线，这是对消费者的一种负责。
+在春秋航空的6条地区国际航线中，日本航线占去了3条，整整二分之一。所幸的是在春秋的整个营收中，来自日本航线的贡献率此前只是个位数，所以冲击不是很大。
+国内市场上，因为我们是低成本航空公司，之前和一些开航的二三线城市地方政府都有协议，春秋享有一定的政府补贴。但是2012年因为一些地方政府的换届，原有的一些补贴受到了影响。这个对于春秋的警醒很大，提醒我们以后在这方面要有所准备和应对。
+2012年低成本航空市场迎来了很多新进入者，这是一件好事，要知道，国外廉价航空占去了整个航空市场70%以上的份额，而中国目前这一比例仅为2%~3%。我并不认为这些新入者会瓜分春秋的市场份额、对我们的业务带来冲击。国内廉价航空市场还未成形，需要更多的参与者来和春秋一起培育和做大。
+我的担忧则在于对于廉价航空，国内消费认知和观念普及还不充分。廉价航空本身提供的是一种有限服务，有的乘客选择了春秋航空，却希望能够享受更多的服务。这让我们真的非常无奈。
+2013年对春秋而言是充满机遇，同时带有挑战的新一年。经济环境目前出现了一些回暖的态势，尤其随着新一届政府的上台，一些推动经济发展的新措施也将推出，而这些将会提振经济和消费。这是我们企业界所乐于看到的。
+在此背景下，春秋会加大国内二、三线城市市场的开拓。接下来，西部、东北部的很多城市大家都会看到我们的布点。
+此外，我们还将坚持“走出去”的发展战略。东北亚将成为我们未来的发展重点。东北亚市场的航线资源都非常棒，如含金量比较高的中日航线、台湾和首尔航线。我们的目标就是成为这一区域低成本航空的龙头公司，当然实现这一目标的基础是政府给予我们更多的支持，能给我们多一点买飞机的批文。
+万达集团股份有限公司董事长王健林：做大文化旅游
+光阴似箭，又过一年，时间过得飞快，但万达集团没有虚度，这一年成就显著。2012年万达资产达到3000亿元，同比2011年增长50%。2013年万达集团定下的总目标是：资产3500亿元，收入1790亿元，持有物业超过1700万平方米，净利润增长10%以上。
+未来，万达集团的文化旅游要做大。万达商业地产已经非常成功，为什么还要自找麻烦，再去转型做文化旅游？有三点原因：一是中国出现新的消费趋势。二是国家产业政策扶持。现在国家大力支持发展文化和旅游产业，万达文化产业集团一成立，就有五六家银行给了巨额授信。而且银行给文化产业的贷款期限长、利率低。三是为万达今后二十年储备核心竞争力。现在万达商业地产如火如荼、模仿者众，再过几年可能就会有市场容量问题，万达要未雨绸缪。
+2010年时万达提出五年中期目标，到2015年企业资产3000亿元，收入2000亿元，当时万达只有740亿元的收入，要达到这个目标必须每年增长30%，很多人怀疑能否实现。但现在万达的资产就已达到3000亿元，今年收入有可能达到2000亿元。原来的目标已经太低，要做调整。经过研究，我们重新确定了万达到2015的3年奋斗目标：资产4000亿元，收入2500亿元，纳税300亿元，净利润200亿元。实现这一目标，万达的收入规模将进入世界企业前300名，资产、净利润在200名以内，为万达成为世界一流企业打下坚实基础。老子曾说过一句话，叫做“取法乎上”，就是说目标</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>国产手机的2012：规模杀死利润</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21世纪经济报道</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>曾航严文韬</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>国产手机; 小米模式; 手机行业;</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2013-01-07</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>图景</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>026</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>信息科技; 经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>无线电电子学; 工业经济</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>F426.63</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2012年的最后几天，许多手机公司都是在清库存中度过的。各种促销活动在全国的手机卖场铺天盖地地展开。
+“最近手机行业的甩货已经到了不计成本的地步了，许多400块钱的手机，200块钱就卖了。”尼彩手机董事长卢洪波告诉记者，大部分手机公司的老板望着堆积如山的库存，以糟糕的心情结束了这个他们原本憧憬能大赚一票的年份。
+2012年初，国内许多手机厂商都将市场基调定位为“牺牲利润抢市场”。一些大的手机厂商希望，通过规模获得在产业链上下游的定价权。他们坚信，只要出货量和市场份额起来后就一定能够赚钱。在这样的背景下，中国的智能手机在10月份以后出现了严重的生产过剩。
+有规模无利润，是国产手机在2012年的主旋律。现在看来，许多厂商仍然没有从片面强调规模误区中走出。
+规模不再等同议价权
+2012年，中国智能手机销量的增长堪称“罕见”。这一年，中国迅速超越美国成为世界上最大的智能手机消费国，整个市场售出的智能手机接近2亿部，智能手机的渗透率也直追欧美。
+为迎接这历史上罕见的一次换机潮，大部分手机厂商在2012年定下的策略是不惜一切代价抢占市场份额。从结果来看，以中兴、华为、联想、酷派（简称“中华酷联”）为代表的大型厂商的销量都猛增。
+“对于品牌手机厂商来说，过于强调争夺市场份额是一个误区。”在手机行业从业十多年的青橙手机董事长王迅指出，目前国内强调冲规模的大型手机厂商，毛利都在10%-15%之间，这仅仅能够覆盖公司的日常运营成本。
+王迅指出，牺牲利润换规模的最大风险在于库存，当企业片面强调冲高规模时，许多货压给了渠道，但没有到达消费者手中，最终变成了库存。此外，许多手机厂商为了冲规模，会强调增加产品品类，最后也容易变成库存。由于手机是跌价特别快的产品，许多公司最后都死在库存上。
+运营商的集采是推动许多厂商冲规模的原始动力之一，其中又以“中华酷联”四大厂商最为典型。一些大厂商用卖通信设备一样的方式来卖手机，希望以规模、低价来杀死其他竞争对手，然后以更高的市场份额最后在产业链上下游获得话语权。
+“手机行业和DVD、微波炉行业不同，不是你有了规模，就能把别的厂商玩死。”王迅认为，因为手机毕竟是一个个人消费品，消费者会经常拿它出去Show，消费者需要多样的选择，所以这个行业不大可能出现少数厂商垄断的局面。他指出，即使在诺基亚最鼎盛的时期，所占全球份额也只有百分之三四十，历史上很强大的摩托罗拉、三星、苹果，也没有把其他手机厂商都杀死。
+国内手机厂商强调规模并非完全没有道理。因为在手机行业，一旦规模上去，单款手机的研发费用、营销费用、生产费用将会被大幅摊低，企业还可能在产业链上下游获得话语权。
+在3G数据卡时代，华为曾经可以依靠庞大的出货量从上游芯片厂商高通那里获得话语权，要求高通的供货价格比其他厂商便宜几美金。然而到了智能手机上，这些厂商不再能够依靠规模获得话语权。王迅表示，高通出货给大小手机厂商的芯片价格相差只有几十美分，这是因为高通需要时刻提防其对手联发科挖走那些对价格歧视不满的手机厂商。
+而“中华酷联”等厂商将规模冲上去之后，也同样没有在运营商那里获得话语权。这是因为许多参与运营商集采的厂商只是渠道品牌，而无法在消费者那里形成强大的消费者品牌，因此无法像苹果的iPhone那样从运营商那里获得溢价。
+在没有止尽的杀价中，手机厂商的利润越来越低。
+中兴副总裁何士友告诉记者，指望依靠规模把其他竞争对手玩死的做法不可取。“单纯你在一个局部市场采用这种过激的玩法肯定不行，你肯定扛不住。”何士友指出，“这种行为非常危险，中国只是全球市场的一环。”他强调必须从全球市场的总体局面出发是获益的，才能弥补一个局部市场的得失。
+快鱼吃慢鱼的一年
+从出货量上来看，联想手机堪称2012年最大的黑马。而联想出货量飙升的最核心战术，就是快。
+联想移动是通过收购厦华手机而来，总部在厦门。之前，由于业绩不佳，联想一度剥离了手机业务。
+联想智能手机在中国市场的份额2011 年三季度仅为1.7%，到了2012 年三季度快速增长至14.8%。联想已经是中国市场第二大智能手机销售商，超过苹果的6.9%，仅次于三星的16.7%。
+曾经在联想工作过的王迅总结，联想是一家以整合资源为主的公司，和华为这样主要依靠自主研发的公司区别较大，换句话说，联想能够更快地利用市场上各种开放资源推出产品。
+“中国的手机产业链在2G时代已经锻炼得非常成熟了，除了芯片和屏幕两个资本技术密集型行业依赖国外，其他都已经高度成熟了。”王迅指出，因此智能手机产业爆发起来远超过人们想象。中国智能手机用了1年的时间，就走过了PC行业许多年走过的路。
+其结果是，2012年智能手机的产品升级换代速度非常之快，让许多手机厂商难以适应。王迅总结道，2012年第一季度是加速启动功能机向智能机转换，第二季度主流机型进入单核1G时代，第三季度双核产品成为主流，第四季度单双四核CPU和各种尺寸显示屏配置的产品进入混战状态。而到了2013年一季度，主流产品将是四核处理器加5英寸显示屏的配置，产品升级速度已远突破摩尔定律。
+在这样快速变化的产业环境中，联想在PC时代积累的供应链管理经验开始起到作用。由于紧跟高通、联发科这样的芯片平台，联想今年推出的手机新品总是能够早于对手约一个月的时间。“大多数手机公司还没有将存货周转降到28天以内。”上海手机设计公司龙旗副总裁刘渝龙指出。
+龙旗副总裁刘渝龙总结道，今年运营商的大规模集采大大打乱了许多手机厂商的产品节奏——当运营商开始集中订购某种规格的手机，如4.3英寸的屏幕，这种规格迅速成为市场的主流，导致今年国内智能手机的产品生命周期特别短。原来产品周期在6到8个月的，今年缩短到3到4个月。
+“不像往年，一两款手机可以牛一年，但是今年是各领风骚几个月。”刘渝龙指出，许多手机公司这几个月赚了钱，但是竞争对手的新产品上市，自己就会出现大量库存，从而将之前赚的利润赔进去。
+“运营商今年补贴的力度非常大，导致我们今年的任务没有完成。”一家主打低端市场的手机公司的高层告诉记者，他们今年年初本来定下的目标是1000万部，但最后只卖出了几百万部。
+“明年运营商会在三线城市以下渠道通过300元左右的入门级智能手机挖掘第一次更换智能机的用户，瓶颈是在套餐设计而非购机价格，会把原有国产品牌的公开渠道侵蚀掉。”刘渝龙分析，而高端市场会被互联网品牌通过价格标杆尺的做法把利润吃掉，国产品牌没有规模优势的会很难受。
+从目前各种数据预估来看，2013年国产手机厂商对运营商集采的依赖恐怕将越来越大。
+按照工信部此前公布的数据预估，2013年中国整体手机市场出货量将达4亿部以上，其中智能手机出货量将达到3.2亿部，2013年底智能手机用户数将超过7亿。中国移动的TD手机捆绑出货将超1亿，电信的CDMA网络捆绑将达7000万，联通的捆绑超过5000万。2013年运营商的合约机将占领超过六成以上市场。
+刘渝龙表示，在运营商的集采高峰结束之前，中国的手机行业很难大规模盈利。
+渠道革命
+2012年中国手机行业的最大变革，来自渠道。
+多位手机业内人士向记者预估到，小米手机很可能是今年国内所有手机厂商中获得利润最高的一家。仅有不到2年历史的小米公司2012年获得新一轮融资，估值高达40亿美元。小米创始人雷军在一次采访中透露，小米过去一个财年的销售额超过100亿元。
+目前中国的智能手机主要依靠三大渠道销售：运营商渠道、社会公开卖场渠道、互联网渠道。在2012年当中，互联网渠道对社会公开卖场渠道产生了较大冲击。
+小米模式的成功引起了其他手机厂商的疯狂跟进，360的CEO周鸿祎在一系列的微博中，把小米的商业模式层层剥开给其他手机厂商看，小米被形容为一部手机有七八百元暴利。此后360推出模仿小米的网上买手机模式——360特供机，引发华为、TCL、夏新、海尔、青橙等多个手机厂商跟进。
+不过，360特供机的销售一直未有大的起色。从本质上来说，小米的成功有其特殊的时间窗口——首先是小米率先升级到双核1.5G的规格，领先业内推出这一规格长达半年之久，而其他网上卖手机的公司出来后，时间窗口已经没有。而且，许多模仿小米的公司在网络营销及和粉丝群体互动上，一直没有找到特别好的节奏。
+“小米带了一个很坏的头，让大家都认为卖10万台不赚钱，而卖100万台开始挣大钱。”手机中国联盟秘书长老杳指出，但实际上，有几款手机能像小米一样卖到100万台以上呢？小米模式的本质是让互联网用户参与设计手机，和其粉丝保持高度的互动，但是大部分手机厂商只学会了小米在互联网上有销售渠道，而没有学会小米那样的粉丝文化。
+学习小米模式的王迅指出，以前做手机的企业往往很强调市场份额和供应链，强调规模效益，注重技术的驱动，以及新技术的研发，而对于用户真正的需求，则隔了好几层。而小米这种让粉丝参与注重改善用户体验的做法，才能真正保持一定利润率。
+由于互联网手机的销售模式冲击了原有手机卖场的暴利，对一些依赖传统渠道的手机厂商产生了严重冲击，这使得曾经是暴利的传统手机销售渠道在2012年同样发生巨大变革。
+在实体渠道的变革中，由煤老板卢洪波创办的尼彩手机是最为激进，也是受到争议最大的一家公司。这家公司到2012年年底为止在全国开设了近5000家手机工厂店，自建了一个巨大的手机销售网络。
+卢洪波告诉记者，起初尼彩也开了许多加盟店，但是后来发现这些加盟店难以很好地执行总部的政策，因此该公司干脆逐步关掉加盟店，改为全部直营。
+卢洪波指出，尼彩手机库存最多时高达一百六七十万台，必须在短期内清掉，但许多加盟商不愿意亏本卖手机，还要加价赚钱，导致了总部政策的推行不力，此后尼彩开始收缩加盟店而改为直营。“现在我们基本是0库存。”卢洪波称，直营店的优势开始体现。
+卢洪波表示，就好像洗脚、理发是不可能通过网络来完成一样，手机仍然无法脱开实体渠道，尤其是在中国广大的县城、农村地区，人们依然需要依靠实体店铺购买手机。他回忆起了不久前尼彩在山东的某县城开业一家新店时的盛况，第一天居然来了超过8000人，当地政府被迫出动警力维持秩序。
+卢洪波指出，越是在县级以下市场，渠道层层加价的情况越严重，因此直营店可以省掉渠道暴利。
+大量手机厂商开始跟进品牌专卖店的模式，包括金立、天语在内的诸多国内手机厂商都在全国大量增加专卖店的数量。
+被逼出海
+随着中国智能手机市场日渐变成红海，2013年许多手机厂商很可能将加速走向海外市场。目前，华为、中兴、TCL在海外市场取得了不错的成绩，2013年联想等其他国内厂商很可能会在海外市场发力。
+“2013年是走出去的一年，中国市场毛利太低，只有在中国练手，在海外挣钱。海外拓展决定了盈利是否能够足够增长。”龙旗副总裁刘渝龙指出，目前东南亚、印度等地区的智能手机渗透率仅仅相当于中国一两年前，这给中国厂商留下了不小的机遇。
+何士友也向记者表达了类似的观点，他表示未来智能手机的竞争一定是全球的竞争，他认为仅仅专注于中国国内市场的手机公司，是没有前途的。不过，他似乎更加在意中兴在美国、欧洲、日本等发达国家的市场表现，他认为只有成功征服了这些“挑剔”市场的消费者，才能算是真正进入国际主流。
+除了加速走向海外，依靠手机以外业务赚钱，也开始成为手机厂商的共识。
+小米手机在出货量猛增之后，开始发力自己的小米手机游戏平台。由于用户优质，且手机适配不存在问题，小米游戏平台的增长很快。
+小米依靠游戏赚钱的模式也引来其他手机厂商的跟进。王迅表示，青橙很快也将上线自己的手机游戏平台——此前他曾表示青橙2013年的出货量有望达到1000万台，届时将形成一笔不小的移动互联网流量。
+“下一步，单纯卖手机肯定是赚不了钱的，手机就是一个广告代理。”卢洪波认为，手机厂商必须要有配套服务和增值服务。他表示尼彩手机的下一步，就是准备利用尼彩的5000家门店，帮助低端消费者刷机、装软件，变成手机应用的发行渠道，以此向手机应用厂商收钱。
+在经历了牺牲利润换规模的“野蛮生长”一年之后，相比起毛利很高的苹果和三星，中国的手机行业在盛世的表象下隐藏着重重的危机。但在一番厮杀下来之后，新的商业模式开始涌动。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>挣脱2012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>计算机世界</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>中央级</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>王臻李响王哲玮王博宋辰甘露黄柏雪汤铭李旭阳</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>出货量; 智能手机市场; Facebook; 中国概念股; 三网融合; CEO; 周鸿祎; 优酷土豆; 移动互联网;</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2012-12-31</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>封面设计</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>工业经济</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>F416.6</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>经营危机大都是因为几种原因：做事太过分；在潜在机遇面前不够大胆；看不起保守作风而仓促行事；害怕竞争者可能比自己走得更远。
+一个世纪之后，这仍然是IT产业屡陷困境的根源。所以——
+Windows 8来了，但没能挽救PC，那些曾经占据产业制高点的企业对未来感到迷茫；
+Facebook上市了，却没能创造奇迹，那些移动互联网的新垄断者也没能一手遮天；
+专利战、价格战、搜索战硝烟未尽，肉搏之后难见王者；
+国内电商营收过千亿，外包掀起合并潮，也难掩衰落的迹象。
+所谓“末日”的预言没有实现，但2012年，诸多企业却无限接近“末日”。
+如果世界末日如约到来，IT公司的日子可能会好过一点。
+时值年末，本报特意总结了2012年IT领域发生过的重大事件，与读者共同回顾这一年中上演过的求生大戏。
+微软要和OEM抢市场
+2012微软很忙。
+2月，微软发布Kinect for Windows；6月，必应搜索重大更新，而微软自有品牌的平板电脑Surface也首现真容；7月，发布新一代Office；8月，更新logo；9月，发布Windows Server 2012；10月，Windows 8和Surface正式推出；11月，Windows Phone 8面市。
+这些大多是代表着未来1~2年内微软的工作重点和方向的重量级产品，特别是Windows8和WindowsPhone8，这是微软有史以来首次在PC、平板电脑和智能手机三大终端的操作系统中使用同一个核心，而且为配合触屏操作，还以全新的Metro界面颠覆了传统的Windows体验。
+按照IDC数据，2012年全球PC市场的增长率不足1%，在PC产品出货量停滞不前的市场环境下，Windows 8被几乎所有PC厂商视为“救命稻草”，他们期待像过去一样，新一代的操作系统能够刺激PC产品的升级换代。但与此同时，OEM厂商们还不得不面对一个事实——微软推出了自有品牌的平板电脑Surface。
+实际上，微软又何尝不是把Windows 8和Surface视为自己的救命稻草？
+在iPad、智能手机和大批安卓系统平板电脑的冲击下，微软在上游对硬件产品的统治地位基石早已松动。特别是在移动互联领域，已经沦为不折不扣的追赶者。但即使微软按照游戏规则，推出自己的操作平台和应用商店，但对硬件的掌控缺失，让微软的移动生态系统一直发展缓慢。因此，微软CEO鲍尔默决定，“硬件与服务”才代表微软未来。而这必须打破微软以往的铁律——绝不涉足OEM合作伙伴所从事的终端制造领域。
+当然，Surface只是一个开始。虽然鲍尔默一再宣称Surface只是一个设计概念，是给OEM作为参考的指导产品。然而，另一方面，微软却在积极加强与第三方零售商的关系。对此，宏碁CEO王振堂不止一次在公开场合批评：“微软所作所为，正在摧毁整个计算机产业的生态系统。”
+然而，单从目前的市场反馈来看，虽然Windows 8上市一个月便售出了4000万份（微软官方公布数据），但并没有获得太多正面评价。市场研究公司NPD数据显示，从10月末Windows 8发布至12月首周，Windows设备在美国零售店的销量同比减少13%。很明显Windows 8的表现远不及Windows 7上市之初。
+而在年底的圣诞销售季，消费者们还是纷纷涌向了苹果零售店，Windows 8并没能引起微软商店门庭若市的景象。
+专利战火烧遍移动产业
+苹果和三星的专利战已经蔓延至12个国家，持续一年多，涉及数十起案件。2012年8月，这起案件在美国审理，苹果要求三星赔偿25.25亿美元。最终法院判定苹果胜诉，要求三星赔偿10亿美元。对三星和苹果来说，诉讼是拖住竞争对手的有效手段之一。
+Gartner预计，2012全球智能手机出货量将突破6.3亿部，其中Andriod系统的将占49.2%，苹果iOS仅占18.9%。而且还有Windows Phone，虽然目前只有2.6%的市场份额，但IDC预计，到2016年市场份额将达到11.4%。
+毋庸置疑，苹果要打击的不仅是威胁到自己的三星，还有以谷歌为首的Andriod阵营以及微软的Windows Phone。
+在这条路上，苹果一直是一个“孤独的进攻者”，然而11月，苹果与HTC忽然达成和解协议，双方撤销所有专利诉讼并签订为期10年的专利交叉授权协议，授权范围包括双方目前及未来所持专利。
+HTC曾是美国最大的智能手机制造商，也是Android阵营第一厂商。在美国一度占据23%的市场份额。但受苹果专利诉讼的打击，销量大幅下滑，拱手将市场让给了三星。此次与苹果达成协议，HTC可集中精力改善自己的产品线而苹果也可以用“敌人的敌人”打击对手。
+事情变得越来越混乱，苹果转向挖敌人墙角，而Android阵营也开始四面倒戈。HTC虽暂时从诉讼混战中抽身而出，但目前苹果与三星和摩托罗拉等Android其他成员的专利战不但没有和解迹象，反而有进一步升级的可能。苹果已经将战场进一步扩大到三星最新推出的平板Galaxy Note 10，甚至直接将矛头指向了谷歌Android4.1操作系统。
+与此同时，各大手机厂商也开始关注微软的Windows Phone系统，HTC已推出了8X和8S两款WP8产品，主打中高端市场。
+对于微软，苹果也没有松懈。就在微软全球发布Windows8和Surface的前三天，苹果推出了iPadmini和iPad4，摆明了是要抢占先机，压制竞争对手。
+不能忽略的是，智能手机市场已经日趋饱和。NPD分析师Stephen Baker表示，挑战性环境的增长速度已超出市场本身的增长速度，所以想要扩大市场份额并不容易。回头看看苹果、三星、谷歌和微软，曾经亦敌亦友，如今这种区分已经失去平衡了，随着竞争越来越激烈，或许还会有更意想不到的事发生。
+新媒体生吞传统出版
+12月31日，创刊于1933年、与《时代》和《美国新闻与世界报道》并称“美国三大时事周刊”的《新闻周刊》发行了最后一期纸质杂志。明年1月，《新闻周刊》的电子版《环球新闻周刊》将出现在读者的iPad、Kindle或iPhone上。事实上，早在今年10月，《新闻周刊》官方就宣布印刷版由于广告收入急剧下滑，将停止发行。近年来，数字新闻已成为美国公众获取信息的主要方式，大量美国报纸和杂志出版商被迫停止发行印刷版。
+但传统媒体要彻底走向复兴，却仍然面临考验。因为它们的溃败并非源自内容，而是商业模式，所以单纯地改变发行渠道并不见得就能够扭转亏损的局面。
+12月15日，新闻集团旗下的iPad报纸应用《TheDaily》宣布停止独立出版，享年不到两岁。“《TheDaily》将重新定义新闻。”当初发布时，新闻集团掌舵者、传媒大亨默多克显然对这个产品非常满意，“用户会花费更多时间去阅读我们的内容。当然，还有广告。”甚至连乔布斯也出来捧场：“这是iPad上最值得期待的新闻阅读应用。”
+如今，乔布斯已经离世，默多克不得不独自面对巨大的落差和尴尬：截止到关闭时，《The Daily》订阅用户不到20万，亏损3000万美元，与预期相去甚远。
+无独有偶，英国老牌媒体《卫报》也在随后传出关闭Facebook应用的消息。
+传统媒体往数字化的转变有几个方式：搜索引擎、门户网、社会化媒体。事实证明，没有哪一条能为媒体带来值得一说的盈利——对于非体制内的媒体来说，商业上的溃败等于全盘的溃败，缺乏市场激励，任何关于影响力、意见领袖、时代良心之类的愿景都难以为继。
+毫无疑问，这并不意味着数字化是错误的，只是在进行这个步骤的同时，媒体必须摆脱以传统广告为主的商业模式，发掘新的现金流产生方式。目前在这方面做得比较好的是彭博社，他们的主要盈利点是一种名为“盒子”的金融交易的终端产品，华尔街交易员办公桌上，装备的都是这款高速运转并有海量金融数据入口的终端电脑。31.5万名终端用户贡献了彭博大约85%的营收，他们每年要缴纳两万美元服务费。
+当然，并不是所有媒体都拥有彭博社的品牌、资金和技术能力。不过，总体思路是一致的：在传统广告下滑、新型广告累积不足的情势下，依托媒体定位横向拓展，探索现金流的产生点。
+2013年，传统媒体转型新媒体的战争仍将继续。
+制造业回流不必慌张
+在每一部苹果iPhone手机的背后，都印有这样一行话，“Designed by Apple in California（由苹果在加利福尼亚设计）”。也许再过几年，这话就会换成“Made in USA”。在乔布斯时代，这种情况是不可能发生的，但是在未来，美国制造的苹果产品又将成为可能——2012年12月，苹果公司CEO库克对外表示，苹果计划于2013年在美国花1亿美元打造生产线，生产部分苹果产品。
+苹果不是第一个计划将生产线回归美国的企业，之前GE、惠普等企业已经将部分生产线转移回美国本土。甚至在传统领域，也存在着同样的情况。在美国户外用品连锁店REI的网站上，产品特性的选择栏里专门列出了“Made in USA”的选项，不过目前入选的产品不多，也就一两款。
+至于回归的原因，既有美国国内政治上的原因，也有这些企业出于成本、供应链等多方面的考虑。在Computerworld的一项调查中，有40.89%的参与者认为这是富士康事件后的公关行为；还有31.9%的人认为这没有任何意义，因为大部分产品还是会在亚洲生产；12.25%的人认为这是为了避免未来可能出现的供应链问题；9.39%的人认为这是对公众担心工作机会外流的回应；5.57%的人认为此举会帮助苹果节省运输费用。
+对此鸿海旗下富士康集团相关人士表示，富士康正寻求扩大美国制造业务，以满足客户希望“让更多工作在美国完成”的目标。
+当然也有反应强烈的。有部分人士认为，在中国改革开放30多年后，“市场换技术”不尽如人意的情况下，对于这种回流的趋势，中国需要有明确的应对，甚至是反制措施；也有“悲观”人士认为，随着3D打印技术日益成熟，人力劳动大规模地为机器所代替，制造工厂向发达国家“回流”的趋势将会提速，中国制造业的前景将更加堪忧。
+对于前者，在商言商，这种反应也算正常，既然干了代工这件事，也许就要随时迎合客户的需求。至于后者的两种反应，则有些过度了。花旗集团副董事长、美国商务部前部长古铁雷斯曾经表示，“制造业回归”很难是一个长期性的政策。而且也有美国企业表示，即便是将生产搬回美国本土，在中国的采购项目还会增加，因为中国有较为完整的产业链。
+短期内，在这种潮流影响下，中国某些企业可能会很受伤。但是从长远来看，如果中国制造企业在这种潮流的“刺激”下，能够脱离原有纯粹拼劳动力成本的发展道路，走上通过创新等手段来提高产品的附加值的高端制造业发展道路，未尝不是一件好事。
+苹果开始褪色
+去年iPhone 4s发布时，很多果粉和黄牛都赶去通宵排队，北京三里屯苹果店甚至由于场面失控而停止出售，西单店也出动了警力维护，激烈场景堪比春运抢购火车票。可能有人会说：“不就一个手机，至于吗？”
+是的，这是一个手机，但在果粉眼里，这是一种精神象征。但今年iPhone5发布，场面安静了许多。
+苹果发布的2012年第三财季的财报显示，苹果本季度营收仅有350亿美元，相比第一财季的460亿美元，减少了110亿美元，而与此同时苹果的对手三星、华为等均实现了大幅度的增长。原本“耀武扬威，不可一世”的苹果到底怎么了?
+不能忽略的事实是，苹果的强大和乔布斯个人的影响有很大关系。乔布斯生病的消息传出后，苹果股价暴跌10%以上。不难想象，当一个人完全决定一个企业的步伐时，造成的结果就是当这个人离开，企业的发展就会陷入窘境。
+事实的确如此，乔布斯走后，苹果再也没有推出给业界带来惊喜的产品。乔布斯的继任者库克虽然曾经做过10年的COO，但他是一个守城之主，而不是攻城之主。
+库克选择了风险更小的软件和应用体系层面的创新，以避免暴露他与乔布斯在人文、品位方面的巨大差距。所以，你能看到苹果在硬件设计上与三星死掐专利，由攻势转为守势，甚至，按照业界盛行的说法，扶植HTC和摩托罗拉，以制衡这个日益强大的韩国企业。对于库克来说，硬件的想象空间已经很小了。
+在软件层面，苹果也受到了极大的挑战。客观说，iOS的用户体验仍然领先Android，不过谷歌已经开始在Android 4.0中收紧权限提升体验，并且他们的开发者群体也一直不逊色于苹果。除此之外，Windows 8和Windows Phone 8的发布已使得微软又重新成为移动互联战场的重要玩家，对手越来越多。
+而iPhone软件部门高级副总裁福斯特尔离开后，iOS的接手者是负责Mac OS的高级副总裁克雷格·费得里希。虽然没有任何证据，但这很有可能表示，Mac OS和iOS将最终融为一体，思路类似于Windows8的跨平台整合，完成移动终端和桌面PC的一体化。
+失去想象力对苹果来说是一个极大的隐患。也许他们在一定时期内仍然是行业领导者，这取决于移动互联产业的未来走势：如果硬件设计整体进入瓶颈期，那么苹果仍将凭借优质的软硬体验领跑;但如果竞争者的势能足够强大，库克和他的“绅士”苹果就会瞬间成为现在的诺基亚。
+IPv6小荷才露尖尖角
+临近年底，清华大学FIT楼内一片欢腾。国家发改委组织实施“2008年下一代互联网业务试商用及产业化专项”的最大项目“教育科研基础设施IPv6升级和应用示范”，在2012年12月25日通过了项目验收。这意味着，我国下一代互联网应用已经成功走完了第一步。根据规划，“十二五”期间，下一代互联网将逐渐走进寻常百姓家，2015年将完成全面商用部署。
+下一代互联网的最重要标志之一是IPv6。2012年，在全球范围内，IPv6取得了突破性的进展。在我国，受到网络立法和网络安全话题的刺激，IPv6受到的关注与日俱增。
+从技术储备角度来看，网络服务提供商Akamai的数据显示，在2011年的世界IPv6日，全球IPv6地址数量为28万，而到2012年世界IPv6日，IPv6地址数量已超过1800万。与之相应的是，IPv6地址的申请数量从2011年的300万激增至2012年的30多亿。同时，截至2012年8月，全球已有201个国家申请了IPv6地址，全球共分配了17万多个IPv6地址块。
+在应用端，全球目前已有77家电信运营商提供了IPv6的商用接入服务，共有包括谷歌、雅虎、腾讯等在内的3000多个网站提供IPv6商用访问。根据谷歌统计数据，通过IPv6网络访问谷歌的用户已由2012年年初的0.41%增长到今年8月底的0.86%，而且这一数字还在持续增长。
+来自亚太互联网络信息中心（APNIC）的数据显示，截至今年9月，美国已经拥有419万余个IPv6用户，用户总数排名第一。中国以371万左右的用户数排在第二位，日本IPv6用户数为241万余人，排名第三。
+目前，我国已经有多家门户网站开始正式支持IPv6访问。截止至2012年12月23日的统计显示，全球IPv6Enable认证的网站总计1918个，中国有523个，排名第一。在“教育科研基础设施IPv6升级和应用示范”项目的推动下，我国高校IPv6Enable认证网站达到473个，占国内总量的90%。此外，中国电信已经计划2013年底前开展大规模IPv6商用试点，中国移动9省市现网开展IPv6试点，中国联通也已开展了大量IPv6技术实验和小规模试点，预计未来两年开展IPv6规模商用。
+在产业端，IPv6概念股在股市持续低迷的今天依然还不断受到投资者的追捧。IPv6相关项目也一浪高过一浪地开展起来。来自中国政府采购网的数据表明，截至2012年10月，IPv6政府信息化采购招标项目多达2200多个，仅2012年1月到10月，招标数量就达到804个，近两年来的增长率超过100%。这些项目中涉及的产品包括交换机、路由器、服务器、防火墙、视频监控系统、安全网关等，采购涉及领域包括政府、公安、交通、工商、税务、司法、检察、教育、民政、社保等，几乎覆盖了社会各个领域。
+Facebook“香艳”上市
+2012年最受瞩目的IPO非Facebook莫属，在成立8年后，Facebook于5月18日在纳斯达克上市。虽然上市当天股价表现不尽如人意，但按IPO发行价为38美元计算，Facebook以约1040亿美元的市值，成为美国历史上规模最大的科技公司IPO。
+从哈佛的一个同学交友网络到全球最大的社交网络，Facebook创始人马克·扎克伯格缔造了一段神话。扎克伯格在10月发布第三财季财报之际表示：“Facebook的月度活跃用户达到了10亿，其中使用移动设备登入Facebook的已经达到6亿人。”同时，日活跃用户数同比增长28%。
+尽管如此，在传统互联网被移动互联网颠覆的2012年，如何向移动设备转型是IT企业共同的难题。
+Facebook最近一季财报中显示，移动用户数同比增长68%。当越来越多的用户通过移动设备访问社交网络时，Facebook能否实现广告收入的持续增长令人担忧。毕竟，移动设备的广告展示空间很小，很难容纳传统PC级别的显示广告。
+在开展移动广告业务9个月仍然一无所获后，今年第三季度，Facebook似乎到了一个转折点，在移动广告方面有了跨跃式增长。Facebook CFO David Ebersman透露，现在Facebook动态消息源上的广告每天有400万美元的收入，其中3/4来自于移动端。那么，每天Facebook移动端产生的广告收入就是300万美元，一年下来是11亿美元。
+当然，若想更好地在尺寸有限的移动设备屏幕上展示广告，Facebook还有很多功课要做，因为和广告老大谷歌相比还相差甚远。而在处理隐私保护问题方面，Facebook也显得有些力不从心，其必须在愉悦用户和讨好广告主之间找出一个平衡点。
+除此之外，作为积极发展移动战略的一部分，Facebook在2012年进行了多笔收购，其中最值得一提的就是4月以10亿美元现金及股票的价格收购成立不到两年的图片分享网站Instagram。在招股书中，Facebook指出，上市的一大风险在于Facebook移动业务。Facebook收购Instagram，既消除了竞争对手，又增强了移动业务，可谓一举两得。
+虽然在最新的季度财报中Facebook表现不错，Facebook移动端的战略始终变化无常。扎克伯格本人也在各种场合“委婉”地表达了对于Facebook移动端表现的不满。因此，想要在移动互联网站稳脚跟，Facebook要做的事情还有很多。
+惠普 为自救慌不择路
+11月20日，惠普发布了截至10月30日的2012财年第四季度及全年业绩，报告显示，2012财年全年净营收为1204亿美元，同比下滑5%，净亏损127亿美元。
+惠普CEO梅格·惠特曼（MegWhitman）称：“2012财年是惠普多年复苏征程中的第一年。我们尤其对第四财季的业绩感到满意，我们的资产负债表明显改善，产生41亿美元的运营现金流。”尽管如此，这仍然不能掩盖惠普公司的市值仅剩不到250亿美元的事实——相比两年前高达1000亿美元的市值，已经缩水80%。但对惠普来说，这绝不是惟一的问题。
+在PC产业遭遇有史以来最大的衰退危机时，PC产业的竞争也变得更加微妙。10月11日，Gartner发布了第三季度全球PC出货量检测数据，联想以15.7%市场份额取代惠普，成为全球第一大PC厂商。
+而在惠普内部，最近几年频繁更换CEO，也透射出了惠普人事和战略的混乱。
+在前几任CEO因窃听门、性丑闻等一系列“非技术”因素而下岗后，2010年11月，接替马克·赫德成为新任CEO的李艾科上任，并宣布剥离PC业务，放弃WebOS，以及收购Autonamy，转型服务。但很快，惠普便宣布放弃PC“不算数”。面对巨亏，2011年9月，惠普宣布由梅格·惠特曼取代李艾科出任公司总裁兼CEO。
+上任之初，惠特曼曾表示惠普的核心战略应该是继续担当IT基础设施、软件、服务和解决方案的最大供应商的角色，但除了将PC与打印业务合并成立PPS集团外，惠特曼似乎并没有采取多少有实际意义的行动，也从未在公开场合对公司战略做出任何诠释。
+而从惠普财报中各部门业绩来看，惠特曼提出的核心战略似乎也过于面面俱到，而导致惠普没有重点——第四财季，除软件和金融服务营收略有增长外，个人系统、打印、服务以及服务器、存储和网络业务均下滑9%~17.5%不等。
+现在，惠特曼被质疑的声音越来越大，难保有一天，热爱频繁更换CEO的董事会，会再一次替换了CEO。
+欧德宁“低调”卸任
+11月，英特尔现任CEO、62岁的保罗·欧德宁（Paul S.Otellini）突然宣布将于2013年5月召开的英特尔年度股东大会上，从CEO位置上退休。
+欧德宁1974年加盟英特尔，从财务部门的工作人员一步步进入英特尔的核心管理层。担任CEO8年来，他将英特尔的年营业收入提升近40%；欧德宁主导了奔腾微处理器的推出，为英特尔占据PC芯片市场立下赫赫战功。
+但是，相比偏执狂安迪·格鲁夫、摩尔定律之父戈登·摩尔、学院派的克雷格·贝瑞特，欧德宁的身上，缺少了强势的个人色彩和浓重的标签。他长相谦和，没有进攻性，很安静。也许正是这样的特性，让他在领导英特尔这艘巨轮向移动互联掉头时不够果断，多次错失先机。
+多年前，英特尔曾推出用于智能手机的X-scale处理器，并为此投入了100亿美元，花费长达10年时间进行培育，但X-scale未能取得成功，最终英特尔将通信及应用处理器业务出售。现在，能回忆起这款移动处理器的人寥寥无几；2008年，英特尔推出凌动处理器，准备重返移动通信市场。而那时，iPhone和Android才刚刚起步。但由于那时用于移动通信设备的Moblin操作系统尚未成熟到可以搭配凌动处理器，英特尔再次失去了先机。
+IDC曾预测，2012年全球智能手机出货量将达6.86亿部，而英特尔的份额还不到1%。如果当年英特尔没有退出智能手机芯片领域，现在ARM可能不会独霸市场，英特尔也不会面临前所未有的危机。
+另一方面，随着平板电脑正在不断侵蚀传统PC的领地，英特尔主导的超极本显得有些招架不住。就在宣布退休前一个月，欧德宁还表示，今年会有超过140款酷睿超极本发布。
+欧德宁给英特尔制定的目标是：用“二合一”超极本制衡平板，到2012年年底占据消费类笔记本销量的40%。但来自IDC的数据显示，截至今年上半年，全球超极本出货量仅50万台，远低于市场预期。
+从1992年起，英特尔就已经成为最大的芯片制造商，并在过去的17年一直保持第一。但是，2012年第二季度，基于ARM架构芯片产品的出货量约20亿颗，其中有一半来自手机。高通第四季度财报也显示，其在市值上首次超过了英特尔。面临对手不断地攻城略地，疲惫的欧德宁曾表示，“是时候向下一代领导层过渡了。”他已经不想再等到65岁的退休年龄，而是在英特尔处于变革的关键时期毅然离去。
+有人说，欧德宁的退休是为不重视移动市场的战略失误买单；也有人说，英特尔需要更大胆的领导来指挥更大的变革。但不管怎样，想要扭转英特尔在移动市场的被动局面，必须让业务更明确。英特尔和PC占主导的时代已经接近尾声，移动互联时代的迎战已经拉开了序幕。
+日企集体沉没
+2012年的最后一天即将过去，人们并没有迎来所谓的世界末日，但是，日企却并不一定。在亚洲，最能与西方国家经济持续低弥遥相呼应的就是日益颓废的日企财报。
+松下11月2日发布信息，公司将全年营收预期下调了7%，截至2013年3月31日的本财年净亏损将达到7650亿日元。夏普、索尼也先后宣布2012财年上半年出现巨额赤字，其中夏普预计2012财年全年亏损将达到4500亿日元；索尼方面宣布，2012财年上半年赤字401亿日元，去年索尼全年亏损4566亿日元。现在，松下、索尼、夏普三大日本电视巨头已纷纷甩卖资产自救，总额达30多亿美元。
+电子消费产业仅是日本企业集体沉没的冰山一角。
+日本政府12月公布的企业短期经济观测调查显示，制造业景气度已经降到了两年零9个月以来的最低水平。大型制造商们早已经无力掩饰自己的经营惨状。但日本政府警告说经济环境仍然低迷。
+但是，与外部影响相比，研发投资削减、缺乏创意和变革的勇气，令企业死气沉沉，才是日本企业抵抗能力减弱、积病不起的关键。
+以消费电子类市场为例，日本企业在上世纪80年代经历经济泡沫之后，就出现只强调利润率和财报漂亮的风潮，董事会并不喜欢看到大把的钱投入到研发上。而这一时期，三星和苹果却开始在消费电子领域大量投产研发，并最终成为智能手机领域的霸主。
+最后就是对市场的快速反应能力。目前进入四核时代，而索尼还抱着双核不放，操作系统无亮点、售价居高不下，这与欧美品牌或三星对市场变化快速做出降价反应的速度成了强烈对比。
+作为全球的第三大经济体，日本整体身份认知已经与制造业联系在一起。有媒体曾表示，之所以日本尚未触发欧债危机式的市场动荡，靠的是日本的金融机构、企业和个人在零利率下不断购买一个技术上已经破产了的政府债务。
+即便如此，日本制造业在世界舞台上的地位日渐衰落。20年前，日本经济产出占全球GDP的14%，如今只有不到9%。
+“好斗”的360
+如果说在2010年以前，四处出击惹犯众怒的腾讯是互联网“公敌”的话，那么2011和2012年这一名号非奇虎360莫属了。一手杀死传统杀毒软件产业，掀起3Q大战、3B大战的奇虎360，从来都不是互联网世界的守成者，在周鸿祎的带领下，奇虎360正向互联网秩序发起更加猛烈的挑战。
+周鸿祎说，他小时候就喜欢跟人打架，老是打不赢，但是坚决要打。在互联网圈子里，周鸿祎以“好斗”闻名。十几年前创立3721时，周鸿祎就曾和管网站注册报备的CNNIC干过仗；推出360安全卫士时和瑞星、金山、卡巴斯基都对骂过；2010年，轰轰烈烈的3Q大战强迫全国几亿网民选边站队，以至于惊动政府主管部门，随后出台了《规范互联网信息服务市场秩序若干规定》。
+360打着从安全的角度出发的旗子，接二连三地推出了360安全浏览器、360安全桌面等众多产品，在抢占用户桌面方面不遗余力。2012年，360再度出击，挑起与百度的搜索引擎之争。
+8月16日，奇虎360综合搜索上线，这意味着奇虎360与搜索巨头百度的直接较量开始了。虽然百度在中文搜索领域的霸主地位是无可争议的，不过这并不意味着360没有机会。百度股价已累计下跌了约15%，奇虎360股价则上涨了近19%。
+8月28日晚，百度针对360上线不久的综合搜索业务采取反制措施，在360搜索页面中，新闻、MP3、地图三项搜索由此前的跳转至百度搜索页面，变为直接跳转至百度首页。29日上午，360做出回应，将搜索引擎里的百度服务全部撤掉，360新闻搜索默认为360综合搜索，MP3默认为搜狗音乐服务，地图默认为谷歌地图。“3B”大战至此正式上演。
+“百度应当感谢360，它太需要一个对手了。”一些网友纷纷表示，“百度不缺钱、不缺人、不缺技术、不缺政策。但自从谷歌退出中国后，它有哪些令人印象深刻的创新？与谷歌的差距也越来越明显。即使内部天天将危机感挂在嘴边，也不如真正跳出一个挑战者更有力。”
+而近日周鸿祎更是颇为自信地表示，“我们360搜索有一个缺点，就是太快拿到10%的市场份额了，如果慢一点，可能就不会激起竞争对手这么大的反应了。”
+12月24日，奇虎360图片搜索也正式上线，产品线的完善无疑会给百度带来更大的挑战。
+毋庸置疑的是，在事关切身利益的搜索领域，用户和广告客户都希望看到新的竞争者加入。360搜索的出现，确实给近年来平淡不惊的互联网搜索市场注入了新的活力，但能否获得更多的市场份额撬动百度，不是光靠打着安全的旗号就能做到的。
+PC第一不是事儿
+10月11日，IDC和Gartner分别发布了各自的2012年第三季度PC行业报告。双方的数据均显示，联想的全球市场份额再创新高，达15.7%，季度出货量也刷新历史纪录，达到近1380万台。Gartner的数据表明，联想的PC全球市场份额已超出惠普0.2个百分点，成为行业第一，同比增长9.8%；IDC的数据则显示，联想同比增长10.2%，与惠普的差距已缩小至0.2个百分点。
+IDC和Gartner的这次季度报告，在国内受到的关注是空前的。虽然最终的结果似乎有些令人哭笑不得。但不可否认，对于中国的科技企业来说，这是历史性的一刻。“不论是第一还是第二，其实并不重要。”联想集团高级副总裁、中国区总裁陈旭东在微博上暗示，不管第三方报告如何描述，联想成为全球PC市场“无可争议”的领导者是迟早的事情。
+陈旭东的信心并非自欺欺人，联想在当今PC市场的状态确实可以用“所向披靡”来形容。PC市场整体需求下滑的趋势已经显而易见了，最新一季度的总体出货量更是出现了同比8%以上的大幅下滑。而联想仍然保有10%左右的增长，事实上此前联想已经连续14个季度保持着全球最快的增长速度。
+成为全球第一的PC厂商，对联想来说只能说是意料中的事情；但对于PC薄利的现实，联想集团董事长兼CEO杨元庆也必定明白，并就此在新兴领域展开布局。
+这就是联想在2012年内反复提及的“四屏一云”战略。即PC、智能手机、平板电脑、智能电视四种硬件产品，再加上云服务——提供内容和应用，链接四种硬件，从而形成无缝式体验。这是典型的苹果式运营思路，坦白说，联想当前在该领域的底蕴和积累距离苹果仍有一定差距，也逊色于产业链上下游最齐全的三星。
+挑战的难度是显而易见的，但联想仍有机会——它是中国的东道主。特殊的市场环境，使得联想深入村镇的渠道积累和销售手段成为决定性优势——虽然短期内无法在高端市场与苹果、三星相抗衡，但其在低端市场的条件是先天的。而一旦如PC般掌控了中国市场，联想就能更从容地辐射国际市场。
+“联想不仅仅是一家PC公司，成为PC+时代的领导者才是我们的目标。”杨元庆说。
+外包合并抱团取暖
+中国IT外包服务业已经走过20年寒暑。他们从做低端代码代工到可以在海外上市，再到收购欧美企业，成为一支可与印度外包企业抗衡的独特力量。
+但进入2012年，国内外外包市场的变化让这支队伍开始改变航向，尤其在有离岸外包业务的企业中表现得更加明显。
+奥巴马政府在年初宣称要把“劳务外包”转向“劳务内包”,创造国内就业机会。这样一来，美国市场对于中国离岸外包企业来说，未来一段时间内的业务增长空间很小；席卷欧洲的债务危机，及日益把欧洲转为在岸外包的印度企业，也成为影响中国离岸外包企业市场表现的两大要素；而东南融通事件给华尔街带来的负面信息，更成为催化剂，让抱团、减少内耗、规模效应成为中国外包业的必然选择。
+8月10日晚，中国离岸服务外包供应商排名前五名的两家企业，文思信息技术有限公司与海辉软件(国际)集团公司宣布，进行对等合并，合并后新公司名称为文思海辉技术有限公司，原文思董事长陈淑宁担任新公司非执行董事长，原海辉CEO卢哲群任新公司CEO。新公司拥有2.4万名员工，是中国目前人数最多的软件外包公司。
+而就在文思、海辉传出合并消息前后，中国本土还有两家大型外包企业也宣布合并。
+今年4月，中软国际与华为宣布合资组建中软国际科技服务有限公司；博彦科技于8月20日发布公告，与美国大展集团签署协议，收购该公司旗下Achievo Japan、北京北方新宇信息技术、大展信息科技(北京)、大展信城信息科技(上海)、北京大展协力信息技术与艾其奥信息科技(成都)六家全资子公司100%的股权。
+“近几年的外包产业，特别是在欧美市场，人数就是门槛，没有人数优势，几乎不可能拿到上亿元级的大项目。我希望文思海辉合并以后，也有这个竞争力。”陈淑宁曾在合并后对外宣称。而投资者与用户最关心的还是合并后能否达到“1+1&gt;2”的效果。
+总的来说，“二八理念”在印度很流行，让80%的员工，聚集在20%的企业，打造规模效应，而中国外包业也正走在这条路上。但解决合并后的人员冗余问题、有效实现业务部门的整合、拓展服务类型、提高企业实施行业解决方案的能力，才是合并后企业能否可持续发展的关键。
+中概股拒绝“诽谤”
+2012年，一家只有一个人的美国股票分析机构在中国突然变得鼎鼎大名。这就是香橼，在投资界因近年来频频做空中国概念股而为人所知。
+“这是个大玩笑：香橼说它懂中国。可是，这玩笑一点儿也不好笑。香橼正在用恶意扭曲的事实伤害所有的投资者。”8月15日，创新工场创始人李开复建立了一个名为CitronFraud.com的网站，作为指责香橼造假的“战斗阵地”。
+这被视为，中国概念股对国外做空机构的反击第一枪。
+8月27日，李开复在该网站发布文章《中国概念股做空者——打假还是造假？》，针对香橼在此前3天发布的一份做空奇虎360、做多搜狐的报告，他列举了7条质疑。此后又连续发布多篇檄文，对香橼进行逼问。
+随后，在李开复的号召下，包括华旗、乐百氏、SAP等国内外企业，以及投资机构、分析机构等各领域的61位企业高管联合署名，发表了一封抵制香橼的公开信，谴责其“为私利误导美国投资者，恶意做空中国概念股”。
+据了解，自2011年3月起，以浑水、香橼为代表的数家国外做空机构就频频对中国概念股发布调查报告，大多数涉及企业都被指责业绩造假、股价虚高。而香橼通常的做法是在中国雇佣一部分人，每天在市场上的公开文件中搜集信息，再以电子邮件汇总给香橼创始人，也是惟一一个正式员工莱福特。
+就是这样“简陋”的方式，让香橼变成了中概股的“死亡狙击手”——在被香橼盯上的20家中国股票中，15支跌幅超过2/3，东南融通等7家企业被迫退市。
+而更严重的是，中概股在纽交所也变得声名狼藉，这导致此后大批希望赴美融资的中国企业IPO受阻。2012年，仅有唯品会、欢聚时代两家中概股以IPO形式成功赴美上市，合计融资1.53亿美元，融资规模较去年大幅下降逾90%。
+如果情况继续恶化下去，中国概念股的上市融资通路将被彻底堵死。因此李开复也承认，公开打假也是为自身考虑，因为创新工场孵化的众多项目未来必然会选择海外上市。
+尽管由于语言、员工人数和素质有限等原因，香橼这类做空机构的报告并不算严谨。但有投资人向《计算机世界》指出，在投资者和做空机构之间可能存在着一定的信息不透明，但这并不是做空机构做空中概股屡屡成功的主要因素，更重要的在于，由于国内企业急于上市融资，大多选择走借壳上市的捷径，确实有一部分不规范的企业因急于求成，篡改财务数据，导致中概股被冠上造假“原罪”。中概股在反击的同时，也必须反省自身。
+“第四运营商”难产
+2012年是三网融合试点的收官之年，“第四运营商”的挂牌就像是所谓的“末日”预言一样，并没有如期到来。
+按照2010年国务院发布的《推进三网融合的总体方案》，2010年至2012年的阶段性目标是重点开展广电和电信业务双向进入试点。按照规定，在三网融合试点阶段要组建国家级有线电视网络公司，作为参与三网融合的市场主体。11月，虽然各家媒体都在密集报道中国广播电视网络公司（以下简称“国网”）已获国务院批准，注册资本45亿元，挂牌在即。但直到2012年的最后一周，这个有“第四运营商”之称的国网依旧不见挂牌。
+2012年是三网融合试点阶段的最后一年，虽然三网融合的速度低于业界的预期，但仍然可以看到，推进广电和电信业务双向阶段性进入的试点在今年下半年明显加快：6月，随着电广传媒旗下的湖南省有线电视网络(集团)股份有限公司与5家地方网络公司签署合作框架协议，标志着湖南广电网络整合雏形也已显现；
+9月，工业和信息化部开始向12个试点城市的广电企业发放业务许可证，同意广电企业开展基于有线电视网的互联网接入业务、互联网数据传送增值业务、国内IP电话业务。随后，广电系上市公司天威视讯、电广传媒、歌华有线相继发布相关公告；
+10月，国家广电总局正式发文批复同意中国电信集团公司关于从事互联网视听节目服务、IPTV传输服务和手机电视分发服务等3项业务的申请，同时向该集团公司颁发了《信息网络传播视听节目许可证》；
+11月，国家广电总局正式颁布我国第一个中间件行业标准——《下一代广播电视（NGB）终端中间件技术规范》。同月，以呼和浩特为代表的第二批试点城市陆续公布了三网融合试点方案，宣布进入三网融合时代。
+随着2012年结束，三网融合将告别试点阶段转而进入推广阶段。对于广电网络运营商而言，他们在2013年三网融合全面推广阶段将面临多重压力。在内部，行业自身的技术及网络仍未全部统一，广电运营商自身全国一盘棋运营格局还没有完成。而竞争对手电信运营商宽带提速计划正在开展，IPTV业务已成规模，据络达咨询发布的《中国IPTV市场发展状况及竞争分析报告（2012年版）》数据显示：截止至2012年三季度，中国IPTV用户数量达到2830万户。但这并不等同于电信系获得了极为重要的主播权。由于现行体制的原因，电信系想要获得广电许可，仍然是一个漫长等待的过程。
+然而就在广电系和电信系频频过招的时候，三网融合中的另一支力量——互联网凭借OTT的凶猛来势，给广电、电信运营商提出新的课题。
+或许，互联网创新业态将倒逼广电系、电信系的试点重点，从简单的业务双向进入过渡到广电、电信、互联网三者协同发展，形成一次采集、多次发布、多层次生成、多媒体传播的业务流程，打通多媒体平台的资源共享。
+电商大战 两家欢喜几家愁
+1万亿!这是一个惊人的数字，1万亿元占去年全国社会消费品零售总额的5.4%，这一数字甚至超过了排名最靠后的7个省份社会消费品零售额的总和。这是2012年11月30日阿里巴巴集团旗下的“淘宝+天猫”电商平台销售总额的历史性突破。
+来自艾瑞咨询的统计数据显示，今年以来，淘宝和天猫的服饰鞋包类消费超过3000亿元，占淘宝和天猫总交易额的30.3%。对比国家统计局的数据可以发现，全国约36%的服饰鞋包消费都是在淘宝和天猫上完成的。毫无疑问，消费者的消费习惯已经改变。
+在激烈的市场竞争环境下，即使是行业巨头，停下就有可能被超越。7月23日，阿里巴巴集团宣布重组淘宝、一淘、天猫、聚划算、阿里国际业务、阿里小企业业务和阿里云七大事业群。
+就在一家独大的阿里系重新整合自己的CBBS（消费者、渠道商、制造商、电子商务服务提供商）大市场时，以京东商城、苏宁易购为代表的平台电商轮番进行激烈的价格战，腾讯、甚至多家银行也推出了自己的电子商务平台。
+8月14日，刘强东的一条微博引发“围观”，京东挑战国美、苏宁线下店，10%的毛利让消费者得到实惠。随即得到苏宁、国美等卖场和其他电商的回应，相续加入大战。
+8月15日，京东与苏宁、国美展开“价格刷新战”。
+9月25日，苏宁以6600万美元收购母婴类垂直电商网站红孩子。红孩子保留品牌、保持相对独立的发展的同时，开始运营苏宁易购的母婴频道，红孩子的物流部门也将统一纳入苏宁旗下。
+12月3日，国美电器宣布合并两家独立运营的电子商务网站——国美电器网上商城和库巴网，“国美在线”结束了国美“左右搏右手”的局面，更释放出其加速电商平台建设和稳步推进“B2C+实体店”多渠道战略的信号。
+3月23日，唯品会正式登陆纽交所，尽管上市首日即“破发”，但唯品会依然是2012年惟一一家赴美IPO的电商企业，这家总部位于广州的中国折扣电商网站，一举打破中概股赴美上市僵局。不过，这些繁华和热闹的背后却有着大量团购网站、垂直电商相继倒闭死亡。电商出售、并购与整合成为了这一年的主旋律。
+华为遇阻 中兴巨亏
+2012年10月8日，美国国会众议院情报委员会发表调查报告称，中国华为和中兴公司可能对美国国家安全构成威胁，建议阻止这两家企业在美开展投资贸易活动。随即两家企业均回应称相关指控毫无根据，忽略了目前全球通信市场的技术和商业现实。
+华为面临的最主要指控之一，是如果美国政府允许它为Verizon等运营商建设网络，它有可能会在软硬件中留下后门，如此一来，它在中国的“朋友们”，就会利用这些后门攻入数据库，或在战时关闭网络。
+一时间，“安全威胁说”、“幕后推手说”、“刻意丑化说”、“拉拢选票说”、“贸易保护主义说”等各种报道让人眼花缭乱，难以厘清；中国外交部和商务部也相继做出回应，对此表示严重关切和强烈反对。
+几天以后的10月17日，来自路透社的报道称，一项由美国白宫委托、历时18个月的调查显示，没有证据显示华为公司在美国从事任何间谍活动。
+对华为和中兴而言，在这个越来越复杂的全球博弈时代，对话的元素已经涵盖了美国政府、中国政府、美国企业、中国企业甚至媒体和消费者。
+华为、中兴的遭遇颇为典型，它折射出了近年来中国企业在国际化进程中的阶段性特征。经过数十年的渗透，中国企业依靠成本优势发展的时代已经过去，国际竞争环境的巨变，迫使华为和中兴建立与之相匹配的新能力。这个阶段，除了提升产品和服务的竞争力外，适应国际企业规范，加强与所在国家政府、媒体、公众的沟通能力变得尤为重要。此外，除了做生意赚钱，中国企业还要让对方政府觉得你是一个企业公民，要对当地的发展有一定承诺。
+屋漏偏逢连夜雨，今年的多事之秋，中兴过得比华为还艰难。
+还未从在美国被“封杀”的泥沼中自拔，中兴通讯三季报显示巨损，金额高达19.45亿元。消息一出市场哗然。中兴将业绩下滑的原因，归咎于部分国际项目工程进度延迟、国内运营商集采模式的改变，以及欧亚和国内较多的低毛利率合同在该报告期内确认等因素。但是各种传言也如纸片飞来：管理层的隐秘利益分配体系、对高层的唯命是从、缺乏创新精神、无力协调部门之间的关系、5275亿元巨额银行授信埋下的偿债隐患、高达20%的裁员比例......
+面对如此窘境，中兴准备把所有资源集中在优势市场和产品领域；同时，做一些“减法”，对无法带来长期收获的弱势市场和亏损市场，进行结构性改变。不过，“减法”之举只能改善中兴的账面状况，对于中兴主业的改善与增长起不到实质性作用。电信市场的规律就是对大势和时机的判断和押注，中兴在“大国大T”(全球主要的电信市场和顶级的运营商市场)和4G上押下了巨额赌注，期待见分晓的时刻。
+微信开放平台化
+无线互联网是对传统互联网的颠覆。“目前国内惟一获得移动互联网门票的是腾讯，因为他们做成了微信。”要得到产品经理出身的奇虎360董事长周鸿祎的称赞，并不是一件容易的事情，更何况他还是业内公认的“腾讯宿敌”。“微信实在太性感了!”
+来自竞争对手的褒奖，对微信来说已经“习以为常”了，而它也不断用惊人的增长数据加以回应。2011年，微信彻底压倒小米的米聊成为国内移动即时通信市场的领军者；2012年3月，微信用户数突破1亿；2012年9月，突破两亿；12月14日，马化腾透露微信用户数将在1月份突破3亿??不断缩减的扩张周期甚至已经开始让中国移动这样“不可一世”的电信运营商产生了“恐慌”。
+“随着移动互联网发展，传统运营商业务正在受到猛烈冲击，使得运营商原来的短信、话音，甚至国际电话业务都受到了很大挑战。”中国移动总裁李跃甚至罕见地直接“点名”了腾讯的微信，“为什么用户使用微信而不使用中国移动自己的飞聊等相似业务，这是运营商和互联网企业产品的差距。”
+如果只是用户数和流量的爆炸式增长，那么微信在2012年的表现只能算是“情理之中”——真正让事情变得不同的，是4.2版本之后加入的微信公众平台。开放API、吸引第三方入驻，意味着腾讯开始在移动互联网打造“去中心化”的平台级应用，某种程度上说，这也是中国传统互联网豪强在移动互联网上真正意义上的“开放”。
+至此，微信的意义已经远远超过了一款单纯的即时通信类工具应用，O2O、CRM甚至“类AppStore”都成为了它的涉猎对象，微信的产品形态正向着纵深延展，移动基础服务平台的雏形初现。与此同时，服务提供商、用户以及腾讯公司本身对这个产品的期望也都开始产生了显著变化。围绕公众平台，三者在定位、营销、体验等层面开展了多层次的争论和博弈。
+开放的道路是坎坷的。如果说2011年，微信成为了一个万众瞩目的明星产品；那么在2012年，微信则成为了承载整个业界探路者的角色——移动互联到底应该如何开放，如何盈利，如何设计产品？所有人都在等着微信给出答案。
+互联网手机跨界大战
+2012年，智能手机市场延续了2011年的火热。iPhone 4S的热销和iPhone 5的发布，让苹果股价在9月中旬登上历史最高点——705.07美元；三星的表现越发抢眼，今年5月发布的Galaxy S3被一家英国IT新闻网站评价为“在每个方面都让iPhone5相形见绌”；诺基亚继续孤注一掷，采用Windows Phone 8系统的旗舰手机Lumia 920获得好评，重新点燃了人们对诺基亚“浴火重生”的期待。
+相比于国际市场上几大巨头争霸的格局，中国智能手机市场的情况更加纷繁复杂。中国企业强大的学习能力和植根本地土壤的“山寨精神”，使得智能手机更加让人眼花缭乱。不同人群消费需求和消费水平的巨大差异，让各种价位和功能特点的手机都能找到属于自己的定位。不管是大品牌还是小作坊，都急于从中分走一杯羹。这种急躁、亢奋的情绪弥漫于智能手机全行业，成为2012年的注脚。
+华为、中兴、联想、酷派依然在国产品牌中扮演领头羊的角色，与“洋品牌”在智能手机领域分庭抗礼。除此之外，新兴力量也在不断加入。2012年小米科技和“雷布斯”风头依旧，而引发争议最多的莫过于奇虎360、阿里巴巴、盛大等互联网巨头进军智能手机了。
+2012年，小米科技继续发力。8月16日，小米2手机发布，继续主打“性价比”牌。这款号称全球首款采用28纳米四核1.5GHz处理器的高端智能手机，甚至被冠以“性能怪兽”的称号。为了抢占市场份额，小米还推出了价格更低的小米1S和小米1S青春版，价格已逼近千元。
+奇虎360自5月以来，联手几家手机厂商连续推出了多款360特供机，包括华为闪耀、海尔超级战舰、夏新大V、优思小C、deovoV5等多款机型，并取得了不错的市场反响。
+阿里巴巴则再次与天语联手，于今年4月推出1499元的W806、699元的W619两款智能手机，采用阿里云OS操作系统。阿里巴巴官方称，阿里云OS是其自主研发的全新云操作系统，不过这一说法遭到谷歌方面的强烈反对。谷歌坚持认为阿里云其实是衍生自Android，为此不惜向阿里云的合作方宏碁施加压力，制止他们生产阿里云手机。
+同为网络巨头的盛大也不甘寂寞，一款名为Bambook Phone的智能手机于今年发布，同样也是主打自家的特色应用，云中书城、盛大网盘等盛大旗下的移动终端产品均内置其中。从2005的盛大盒子，到2010年的Bambook电子书，再到2012年的Bambook Phone，盛大孜孜以求地探索着自己的硬件之路。虽然很多人并不看好Bambook Phone的前景，但在陈天桥看来，要打造迪士尼式的互动娱乐王国，硬件是其中必不可少的一块拼图。
+在移动互联网大潮的席卷之下，2013年国内智能手机市场依然值得期待。
+优酷吞并土豆
+3月12日，中国最大的两家视频网站优酷和土豆宣布合并，新公司名为“优酷土豆”。
+2012年，视频行业已经结束了资本、牌照、带宽等方式的竞争，而回归到内容、用户体验与商业模式的竞争。优酷和土豆虽处于视频行业排名前两位，但百度、腾讯、盛大网络、搜狐都是其强有力的竞争对手。在经历过了去年争抢电视剧版权资源的惨烈局面后，视频网站的竞争变得更加紧张，账面上的财务数字也很不乐观。优酷2011年第三季度净亏损4750万元，土豆网当季净亏损5560万元。
+在合并公布前几个月，优酷网CFO刘德乐曾强调，2012年该公司的战略重点是加大投入，争抢市场占有率，盈利并不是主要意图。土豆网创始人王微也表示，2012年的战略重点是增加网站流量及收入。由此可见，抢占市场份额、烧钱仍将是今年的主流，而“抱团烧钱”显然能坚持得更久。
+就成本而言，合并之后，两家资源互补，可以分享各自的独家内容，这不但可以有效地降低支出，也将为两家网站创造更多的流量、点击和收入。而且，通过合并内容预算，优酷土豆可以拥有更全面的内容，在面对电视台及节目制作公司等合作方时，具有更多的谈判主动权。
+但这并不能完全弥补他们营业模式中的一些天然缺陷。奇艺借助百度搜索，带来强大的流量支持，腾讯、新浪、搜狐则有用户量庞大的门户网站支持，而优酷土豆缺乏这种渠道的支持，必须依靠内容吸引用户。不过，随着合并完成，优酷土豆占据了整个视频市场的35%，这种远超第二位的优势本身就会形成一种渠道：当用户想到看一个视频、一个电视剧、一个电影时，首先想到的就是优酷土豆，这种份额领先带来的“首选品牌效应”就成为了一种渠道。
+总体而言，市场对此次合并普遍持乐观态度。爱奇艺CEO龚宇、搜狐CEO张朝阳都持乐观态度，认为集中度提高，有利于行业的健康发展。
+从2005年土豆和优酷相继成立直至今日，视频网站从几百家逐渐缩减到十几家，这是一个市场迅速扩大、门槛逐步升高，但模式相对变化不大的时代。当视频的中国受众达到三四亿的量级，用户第一阶段“看视频”的教育完成，其实“用视频”和“消费视频”的大幕才刚刚拉开。无论是成本控制，还是市场营销，视频行业都将沿着“马太效应”的路径进行整合——强者愈强，弱者愈弱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>石耀武：中国小米第一品牌擎旗人</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>粮油市场报</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>姜华山</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>沁州黄; 原产地域保护;</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2010-09-14</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>中国粮油财富</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B01</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>农业经济</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>F326.11</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>石耀武一直有这样一个理念，就是他所经营的不再是普通的粮食，而是晋东南这块土地上特有的一种东西，是5000年农耕文明的结晶。“沁州黄”三个字，是小米，也是历史，还是文化，甚至还可以看作是健康，看作是高端的生活方式。他的任务就是不断提炼沁州黄的文化价值。
+坐在沙发上的石耀武并没有因为记者的到来而结束与客人的谈话。他讲起话来慢条斯理，声音低沉沙哑，脸上的表情安静，不像很多具有表现欲望的商人那样渴望去征服面前的听众。但如果知道他过去几年的人生履历，很多人会敬佩他在治理企业上所表现出的进取心和开拓精神。
+他刚刚从一场喜悦的喧闹中平静下来。不久前，石耀武和他所领导的山西沁州黄小米（集团）有限公司（以下简称“沁州黄集团”）刚刚主办了沁县“第二届沁州黄小米文化节”，在来自五湖四海的人们都沉浸在沁州黄历史故事情境剧及书法、绘画等活动的时候，沁州黄集团为本企业的沁州黄小米深加工项目———小米营养粉生产线举行了隆重的竣工投产仪式，让在场的人亲身体验了一把沁州黄的魅力。
+“该项目推动沁县小米产业迈入一个领域更宽广结构更加多元的全方位发展新阶段。”出席仪式的省市领导对石耀武的这一新举动给予了高度评价。
+不过，与石耀武对话之后才发现，今天所获取的成就仅仅是他踏上新征程的起点，在他眼中，拥有300多年历史文化的“沁州黄”，完全可以成为中国小米的第一品牌，而他已经擎起了这杆大旗。
+临危受命
+沁州黄小米在有“杂粮王国”之誉的山西拥有不可撼动的地位。它位列我国四大传统名米（小米）之首，是明清两朝的宫廷贡品，作为国品在光绪年间的巴拿马国际博览会和1919年的印度国际食品博览会两度摘金，在国内数次专家品鉴会上多次夺得冠军宝座，曾搭载神舟五号宇宙飞船遨游太空，还是全国谷物第一个原产地域保护产品。
+虽然曾经有过无比辉煌的历史。但沁州黄和它的神秘历史一样，一度被神话，被禁锢，到上世纪80年代甚至到了濒临灭绝的地步。
+在此之际，毕业于山西农业大学的高级农艺师耿聚萍主动请缨，进行了长达8年的研究，揭开了沁州黄生长的奥秘，并打破了沁州黄“不能下山、不能高产、不能施肥”的定论，使沁州黄的品质和产量大幅提高，种植区域也扩大到全县更多适宜生长的地方。沁州黄由此获得了新的发展生机。
+1988年沁县把沁州黄列为沁县农业七大开发项目之一，并且借助国家级贫困县的政策优势，在资金、政策、人员上大力倾斜，成立了沁州黄开发服务中心，注册了“沁州”商标，力图通过“公司+基地+农户”的模式，让沁州黄成为当地农民致富的一项产业。
+然而，这一举措并没有给沁县人带来更多的实惠，沁州黄也没有形成一项带动农民致富的产业。直到2000年，全县沁州黄的种植面积才将近667公顷，沁州黄的开发仍处于原始阶段。更难以置信的是，自收自支的沁州黄开发服务中心竟在银行负债500多万元，其他负债300多万元，企业资产几乎为零。沁州黄产业再次陷入发展危机。
+2000年是沁州黄发展历史上具有里程碑意义的一年。是年，时任沁县羊庄乡党委书记的石耀武被调任县农委副主任，并且兼任沁州黄开发服务中心主任。
+“从那时起，我基本上就算是弃政从商了。
+我的命运也接着发生了很大的转变。”回忆往事，石耀武依然表情平静，看不出他对当时的抉择持何种评价。
+似乎是习惯了进取与开拓，石耀武没有过多地回忆从前。从县农产品办公室主任到县乡镇企业局办公室主任、县人大办公室主任，再到段柳乡乡长、羊庄乡党委书记，他本可以在官场上顺利地走下去，尤其是在一个以“耕读传家”为传统的县城，人们更多是看重做官而非经商。
+然而，从小就听沁州黄成为贡米的故事、喝小米粥长大的石耀武更感兴趣的却是沁州黄这个金字招牌。他没有顾及周围的眼光，也没有品味社会的舆论，而是全身心地投入到了沁州黄开发服务中心的整顿、改制和产业发展中去。当时他已给自己定下了目标，那就是把名米开发事业做大做强，成为沁州黄新一代的传人，将沁州黄的美名播向全国，让普通的消费者尝到这一盛名甲天下的名米，让沁州黄成为带动当地农民致富的一大产业。
+“不过，现在看来还是有很大风险的。搞好了，沁县人可能忘了我们，但是搞不好，就成了历史的罪人。”已经小有所成的石耀武此时才暗暗舒了一口气。
+决胜市场
+开弓没有回头箭。石耀武上任后，面对沁州黄开发服务中心办公没场所、销售缺渠道、周转没资金的艰难现状，从抓科研提升产品质量，抓改革激发内部活力、抓销售拓展市场三项重点入手，三管齐下，迈出了企业自主创新、加快发展的步伐。
+企业体制改革是挽救企业的根本措施。他先是发动全体职工集资入股50万元，完成了国有性质的沁州黄开发服务中心向民营股份的转变，组建了“山西沁州黄有限责任公司”。随后，又通过增资扩股、制定章程、注册登记等一系列法定程序，把企业整体变更设立为“山西沁州黄小米（集团）有限公司”，提出了“诚信经营、追求卓越、创新服务、奉献社会”的经营理念，为企业的后续发展奠定了坚实的基础。
+沁州黄小米之所以位居中国四大传统名米之首，靠的就是它的品质。据说，在沁县过去妇女生孩子有100天内只喝米汤的习惯，但是大人小孩都是白白胖胖、健健康康，原因就是沁州黄营养成分齐全，对人体有益。
+为了保护沁州黄小米这些代代相传的口碑与荣誉，石耀武一直把科研攻关、提升产品品质作为公司发展的支撑点、主线。为此，沁州黄集团每年都要拿出销售利润的10%作为沁州黄的科研经费。
+在石耀武看来，中国农业生产方式是需要改革的，农民在缺乏科研、技术、资金、市场等产业要素的情况下，迈上产业开发道路并获得成功是不可能的，要改变这种局面，就是把农民的行为统一到企业行为中来，由企业组织农民去解决农民自己想解决而解决不了的事情。
+不过，小米产业联结着千家万户，从传统的自然经济走向现代农业，首要解决的是标准化问题。为此，沁州黄集团遵循沁州黄的生物学特性和它所要求的生态环境，制定并实施了耕作、施肥、轮作倒茬、播种、田间管理等标准，构建起了一套完整的基地建设标准体系，采取“统一规划地块、统一品种、统一供肥、统一技术规程、统一收购”方式，把基地变成了小米产业的原料生产车间，进行企业化管理。
+目前，沁州黄集团的标准化生产基地多年稳定在8万亩以上，带动农户3万多户，亩均产量达到300公斤，增产近100公斤，收购价也从2000年的1.5元/公斤增长到现在的5元/公斤，亩均增收1000多元，仅此一项，使户均增收2600多元。
+在石耀武的努力下，原汁原味、浑然天成的沁州黄小米于2003年列入国家原产地域保护产品，通过ISO9001国际质量体系认证，荣获“山西省著名商标”，2006年又荣获“中国驰名商标”、“中国名牌农产品”等称号。
+任何一个产品都是以市场的占有率为基础的。石耀武也深知这个道理，在沁州黄集团成立之初就确立了“内强三晋、外攻北京、辐射全国”的营销策略，确定了以配送中心、直销中心联合经营为载体的营销模式，一切工作以市场发展为目标。为了满足不同消费群体的需求，沁州黄集团还设立了高、中、低三个档次数十种系列包装，加大了在电视、报刊的广告宣传力度，产品迅速进入200多家省内大中型卖场，完成了沁州黄从礼品到商品的转变。随后，石耀武又设立了驻京办事处，实现了产品与北京主体超市200多个连锁店的顺利对接。在稳定占领首都销售市场之后，迅速把销售向大江南北长城内外扩展延伸。
+目前，石耀武领导的沁州黄集团已从一个资不抵债的亏损企业转变为集良种繁育、基地建设、加工包装、市场营销于一体，总资产达1.15亿元的省级农业产业化龙头企业，山西省“1311”工程重点企业，同时还是长治市最大的农业产业化企业。
+铸造品牌
+科研、标准和市场三驾马车把农民和小米带进了产业化经营的新历史，完成了沁州黄从扩大规模到占领市场再到战略扩张的“三级跳”。
+“但不是说这样就完事了，当农民行为方式企业化了，就轮到做品牌、塑形象的事了。”石耀武对沁州黄集团的未来发展方向及工作重点胸有成竹。
+产品质量是品牌的本质和基础，也是品牌的生命。沁州黄作为历代朝廷贡品，是凭借优良的品质取胜的。时至今日，传统农业耕作方式已经大大地改变了，环境、土壤结构、作物品种都跟过去不一样，沁州黄和其他农字号企业一样，面临巨大压力。“办法是技术创新，把科研攻关和质量维护作为品牌创新的基础，坚持不懈地做好守土有责的工作。”石耀武说。
+由于适宜沁州黄生长的土地十分有限，大约10万亩左右，为了保障沁州黄小米质量，维护沁州黄品牌，石耀武要求集团对种植地块实施全面监管，甚至还要采取特殊措施。比如，为防止种植户在轮作换茬期间超量施用化肥，公司采取了相应补贴对策，每亩每年给予300元补帖，从而稳定沁州黄基地面积，保护土壤结构，从而保证小米品质。
+2006年沁州黄被评为“中国驰名商标”，在全国范围内强化了它的知名度。为了拓展经营领域，延伸产业链条，近几年，沁州黄集团又在相关类别上向国家工商总局申请注册了20多项“沁州”和“沁州黄”商标，产品涵盖了100多个品种。
+同年，石耀武投资80万元，联合中国科学研究院的专家教授和海南凯洋咨询公司举办了沁州黄集团未来10年发展规划战略和战略研讨会，制定了沁州集团未来10年战略规划。
+按照这个规划，未来10年，沁州黄集团公司的愿景是：全方位开发小米的营养价值，创世界小米第一品牌。要实现的总体战略目标是：经过10年的发展，集团总产值超过26亿元，主营业务覆盖谷子品种选育、谷子专业肥生产、谷子种植、小米加工与销售、小米深加工、小米餐饮业等。到那时，绿色生态基地规模要达到25万亩，农户种植面积要达到30万亩，签约农户10万户，种子和肥料销售额接近9亿元，小米销售额超过6亿元，小米深加工和延伸产品销售额突破10亿元，太行山特色销售额达到1亿元，成为全国最大的高端小米产业集团。
+对此，石耀武颇有信心。在他心里一直有这样一个理念，就是他们所经营的不再是普通的粮食，而是晋东南这块土地上特有的一种东西，是5000年农耕文明的结晶。“沁州黄”三个字，可以是小米，也是历史，还是文化，甚至还可以看作是健康，看作是高端的生活方式。他和沁州黄集团的任务就是不断提炼沁州黄的文化价值，积极营建沁州黄文化平台，让消费者在文化层面提升沁州黄品牌的认同感，以此在市场和消费者中间树立沁州黄的鲜明个性，以消费者的信赖稳固品牌地位。
+石耀武已经开始了行动。善于借用外脑的他聘请高级营销策划专家，对产品进行包装，聘请专业文化艺人制作连环画册，创作沁州黄歌曲、诗词、鼓书、小品，演绎了沁州黄神秘的传说故事，再现沁州黄创业历程，利用国内重大活动和艺术节、旅游节广泛传播沁州黄文化。同时，他还充分发挥魅力长治、八路军总部红色旅游胜地、历史名人等文化资源优势，结合沁县创建“北方水城”兴办民俗文化节的时机，成功举办了两届“沁州黄小米文化节”，演绎了康熙赐名沁州黄传说，邀请国内演艺界知名人士举办“走进沁州黄”专场音乐会，举办了“沁州黄”杯龙舟邀请赛，从不同角度展示沁州黄文化。
+为了把沁州黄铸造成中国小米第一品牌，石耀武将逐步加大沁州黄文化价值与产品价值的比重，在他看来，“买一斤小米，80%的钱买文化”，是一种必然。
+■人物简史：
+石耀武，山西沁县人，先后担任沁县农产品办公室主任、县乡镇企业局办公室主任、县人大办公室主任、段柳乡乡长、羊庄乡党委书记、县农委副主任。2000年，他下海从商，组建山西沁州黄小米（集团）有限公司，任董事长兼总经理，开始担起振兴当地名产沁州黄小米的重任。10年来，公司产品销量已占到全国小米行业30%以上。
+■人物语录：
+1.沁州黄的好坏关键看沁州黄人怎样，看管理人员、营销团队，看老总的人格修为。
+2.搞好了，沁县人可能忘了我们，但是搞不好，就成了历史的罪人。
+3.任何一个产品都是以市场的占有率为基础的。
+4.当农民行为方式企业化了，就轮到做品牌、塑形象的事了。
+5.产品质量是品牌的本质和基础，也是品牌的生命。
+6.企业文化塑造是个庞大的系统工程，大的在决策，小的在细节，点点滴滴，集腋成裘。
+7.人们的购买欲望实际是一种心理满足，只要他信赖你，就会自然地掏钱消费。
+8.买一斤小米，80%的钱买文化。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>沁州黄集团：打造小米第一品牌</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>粮油市场报</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>姜华山任素华</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>沁州黄;</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2010-08-19</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>地理·解码</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>B02</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>工程科技Ⅰ辑; 经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>轻工业手工业; 工业经济</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>F426.82</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>传承丰富历史传说的沁州黄小米与宫廷文化有着300多年的紧密联系，它具有成为知名产品的先天优势。它所要做的就是把这种宫廷文化与实实在在的农业产业化结合起来。
+未来10年，沁州黄集团公司愿景是全方位开发小米的营养价值，创造世界小米第一品牌。
+1斤小米卖到100多元还供不应求，拥有300多年历史，一直是贡米的沁州黄小米，在经历了多年的产量危机之后，再次露出了“高贵”的姿态。
+而作为背后推手的沁州黄小米集团，正是通过传承历史创新品种，推行标准化种植，进而构筑黄金产业链，才给沁州黄小米带来了新生和新的辉煌。
+传承历史创新品种
+上世纪六七十年代，由于种子退化，栽培措施落后，沁州黄的种植走入了历史低谷，受到了产量的困扰。面对难题，在山西沁县科委工作的耿聚平主动请缨，承担了沁州黄提纯复壮的科研任务。历时5年，她终于选育出两个优良品系——沁84012、沁84017，并且打破了沁州黄“不能下山、不能高产、不能施肥”的定论，使沁州黄的品质和产量大幅提高，种植区域也扩大到全县更多适宜生长的地方。沁州黄由此获得了新的发展生机，而耿聚平也被人们誉之为“沁州黄传人”。
+1988年，沁县把沁州黄列为沁县农业七大开发项目之一，并且成立了沁州黄开发服务中心，它便是沁州黄小米集团的前身。
+但面对市场经济的浪潮，沁县人却显出了诸多的错位，特别是传统的经营模式和管理体制在与市场的碰撞中迸发的不是希望的火花，而是巨大的摩擦。12年间，沁州黄开发服务中心竟负债500多万元，其他负债300多万元，企业资产几乎为零，刚刚发展起来的沁州黄产业再次面临没落的危机。
+2000年3月，沁县的决策者果断地将时任乡党委书记的石耀武调任县农委副主任兼沁州黄开发服务中心主任。
+石耀武很快地就投入到了中心的整顿与产业的发展中去，决心将沁州黄恢复往日的辉煌，让普通的百姓尝到这一盛名甲天下的名米，让沁州黄成为带动当地农民致富的一大产业。
+他一改以收购农民谷子加工小米的做法，按照育种、种植、加工、销售一体化的经营思路，从科研着手，以重构公司管理模式为重点，整体推进沁州黄的开发，逐步形成了三大体系。
+一是与省农科院专家合作，加大对沁州黄品种的提纯复壮新品种的培育，建立了自己的科研体系；二是严格质量管理，将产品质量管理贯穿到生产、加工、包装、销售的全过程，形成了完善的质量保证体系；三是按照现代企业制度建设的要求，规范公司化运作，形成了现代化经营管理体系。
+2002年9月，石耀武组建了山西沁州黄小米（集团）有限公司。由此，沁州黄迈开了大举进发全国市场的脚步。
+当前，沁州黄小米集团已经拥有8万多亩标准化的生产基地，与3万多农户签约联盟，成为了集良种繁育、科研示范、基地建设、生产加工、市场营销于一体的省级农业产业化龙头企业。
+推行标准化种植
+沁州黄能在市场上受人青睐，靠的就是它的卓越品质。因此，如何保证它的品质历久弥新，就成了沁州黄集团的头等重任。据介绍，该公司每年都拿出利润的20%作为沁州黄的科研经费。
+近几年沁州黄集团公司又同山西省科学院、中国农大、山西农大等科研单位合作，投入专项资金300万元，聘请中国农科院首席谷子专家刁现民和山西省谷子专家陈瑛对沁州黄种子进行了等离子处理、提纯复壮抗病植株培育等一系列科研研究，培育了多个优质品种。
+据沁州黄集团副总经理温秀伟介绍，沁州黄小米对土地、光照、温差都有严格要求，土地至少3年不能重茬，生产优质小米甚至要5年不能重茬，而且土地在休养阶段，也只能种植红薯、土豆等作物，平时不能随意施肥，而这些一般的农户是做不到的。为了解决这个问题，确保小米的品质，打造沁州黄名牌产品，沁州黄集团公司在实践运行中逐步完善与农户的合作方式，建立基地，确立了公司为主体，主体带基地、基地连农户的集约型合作购销模式，实行订单农业，与种谷农户签订了长期栽培合作协议，严格按照“五统一”标准进行谷种选育，技术培训、田间管理、谷物收获和成品加工销售。这也是5A生态小米行业标准的由来。
+从产品质量的竞争到产品标准的竞争，是企业在市场竞争中的一次跨越。2003年8月，沁州黄小米被确定为全国第一个谷物原产地域保护产品后，又一次赢得了市场竞争的先决权。围绕着打造中国名米第一品牌，沁州黄集团严格按照原产地域保护产品质量标准要求，逐步完善了从良种繁育技术规程、种植技术规程到加工技术规程和储运包装技术规程。对企业经营管理的各个层面制订了管理标准和工作标准。
+2004年7月，由长治市质量技术监督局主持起草的《原产地域产品沁州黄小米》(GBI9503—2004)正式实施，同年沁州黄集团顺利通过lS09001：2000质量体系认证。
+继2003年荣获“国家原产地域保护产品”和“山西省名牌产品”之后，2005年沁州黄小米又获得了“山西省质量信誉AA级企业”，并蝉联“山西省名牌产品”称号，2006年荣获“中国名牌农产品”。
+如今，沁州黄集团的营销网络遍及北京、上海、齐齐哈尔等国内大中型城市和山西地市级以上城市。
+构筑黄金产业链
+很多产品的成名，似乎都与名山、名人有着千丝万缕的联系。有着丰富历史传说的沁州黄小米与宫廷文化有着300多年的紧密联系，因此，它要成为知名产品有着先天的优势。它所要做的就是把这种宫廷文化与实实在在的农业产业化结合起来。
+2006年，沁州黄集团有限公司投资80万元，联合中国农业科学院的专家教授和海南凯洋咨询公司,举办了沁州集团未来10年发展规划战略和战略研讨会，制定了沁州黄集团未来10年战略规划以及营销、经营管理、运营管理、视觉识别系统、深加工项目、企业文化6个配套规划。
+按照这个规划，未来10年，沁州黄集团公司的愿景是：全方位开发小米的营养价值，创造世界小米第一品牌。要实现的总体战略目标是：经过10年的发展，集团总产值超过26亿人民币，主营业务覆盖谷子品种选育、谷子专业肥生产、谷子种植小米加工与销售、小米深加工、小米餐饮业等。
+为了延伸沁州黄小米产业链，从2007年起，沁州黄集团投入300万元，与中国农大、山西农科院等7家科研单位联合研发小米营养粉深加工项目，经过3年多的时间，成功研发出沁州黄小米婴幼儿和中老年小米营养粉两个系列的新样品。2008年，公司申请了两项专利，一是婴幼儿小米米粉的制备方法，二是婴幼儿小米米乳粉的制备工艺。
+目前，沁州黄集团的这两项科研成果已经开始转化为产品，“谷之爱”牌系列小米营养粉已经开始试生产，9月份就将全面上市。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>“汾州香”为什么吃香</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>山西日报</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>范林鹏刘明亮雒晓利</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>汾阳市;</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2009-07-22</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>新闻纵深</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>B01</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>农业经济</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>F326.11</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>今年4月，享誉国内外的酒乡——汾阳市又多了一个新雅号：中国小米之乡。作为全国的小米之乡，主要支撑点便是“汾州香”小米。至此，汾阳市自豪地拥有了自己的“吉祥三宝”：汾酒、汾州核桃、“汾州香”小米。
+汾酒已经做强做大了，核桃产业在政府的推动下也渐成气候，前不久被列入“国家地理标志产品保护”名录。而“汾州香”小米则另辟蹊径，以独特的生产、加工和经营，走农业产业化和市场化路子，其拓路者正是民营企业山西汾州香米业有限公司。面对时下的金融危机，汾州香米业不放弃争当“小米王”的目标，实现着产业的深度拓展。
+“汾州香”香飘云天外
+对于古称汾州的汾阳而言，“汾州香”自好米来。
+2000年前后，我省发生过一起商标“保卫战”，使本已远近闻名的“汾州香”更是广为人知。1995年，省农科院经济作物研究所申报注册“汾州香”商标时发现，“汾州香”已被两家单位抢先申请注册。商标遭抢注的直接原因是“汾州香”本身有极大商业价值，更有极好的潜力市场。而这场“汾州香”商标保卫战，历时7年最终物归原主。
+“汾州香”的确不平凡。它源自上好的谷种，上好的田地，上好的加工。
+“汾州香”的原材料是“晋谷21号”。“晋谷21号”研制整整历时12载，研究人员为之呕心沥血。1972年，省农科院经济作物研究所在单位驻地汾阳研究培育出新谷种——“晋谷21号”。16年后，“晋谷21号”开始在汾阳境内种植推广。后来，扩大至全省及冀、陕、豫等地。
+生于汾阳，长于汾阳，用“晋谷21号”加工成的小米，被誉为“汾州香”。凭着卓越的品质，汾州香小米一路芬芳。自1992年中国首届农业博览会上获银牌奖(无金牌)后，各项荣誉接踵而至，全国性大赛多次夺魁：1995年第二届中国农业博览会，“晋谷21号”和“汾州香”小米获得双金奖；1997年第三届农业博览会，“晋谷21号”和“汾州香”小米双双荣获中国名牌产品荣誉，其样品被长期展览在中国农业展览馆……
+近几年，“汾州香”在汾州香米业有限公司的强势推动下，拥有了“山西名牌产品”和“山西省著名商标”的美誉。“中国小米之乡”的殊荣，让汾州香米走近了“汾州香”香飘天下的目标。“汾州香”借品牌之势，种植面积不断扩大，产业化规模不断扩张，经济效益不断彰显。
+“汾州香”为啥这样香
+2008年一个冬日，汾州香米业有限公司董事长王平正在生产车间忙碌，忽然接到一个来自芬兰的电话。对方自称是芬兰籍华人，在当地市场上看到华人圈里众口相传的“汾州香”小米，就按厂址打来电话。听完王平解释“汾州香”小米为什么色泽金黄光亮、米饭绵甜喷香后，对方啧啧称奇。后来，这位华人自然成了“汾州香”的铁杆客户，还把“汾州香”作为礼品馈赠他人。
+“汾州香”小米为什么这样黄？“晋谷21号”适应性强，四处皆可播种，但实践证明，汾阳的边山地区是其最佳的生长区域。只有好的产品，才会有好的品牌；只有好的品牌，才会有好的效益。“汾州香”的经营战略就此而生。基地为大，加工为本，营销做根，三位一体，统筹发展。
+像众多的农业龙头产业那样，汾州香米业也走“公司+农户”的路子。借品牌之势，农业产业化也得到长足发展。公司与谷农签订购销合同，产前、产中、产后提供相应的技术服务，最后收购成品谷子。靠这种模式公司建起了相对稳定的生产基地，原料及质量相对得到保障。至去年，他们在汾阳边山丘陵地带建成优质谷子生产基地1.2万亩，基地就业人员160人；直接带动农户4000户，间接带动农户1万户，年增加农民收入540万元。
+今年，公司直接从农民手中租赁土地2000余亩，由公司聘请专家直接指导，保证小米品质。租赁土地的农民又被公司返聘为田间管理的劳力，既保证了公司生产的原料与品质，又有效增加了农民的收入。
+“汾州香”的加工过程讲的是精益求精。先看看公司的“五关”：原料购进关、清杂除尘关、碾抛分级关、探测色选关，包装计量关。整个生产过程要经过清杂、除尘、排瘪、砻谷、扒壳、碾米、抛光、色选、金属探测、分级、计量、包装、检验等工序完成。好米有了，还要靠市场营销。在末端环节的市场营销上，汾州香米业大做文章，开通了网上银行、组建了营销团队。在京津、山东、广东等地及周边县市都建立了营销网点，省城太原的大型超市均有“汾州香”。
+“汾州香”想更大更强
+仲夏时节，行走在汾阳市贾家庄镇新丰村的田间道路上。只见，绿油油的谷苗舒展着幼小而健壮的身躯。高云斌和他的爱人还有年过六旬的父亲正在间谷苗。他家的地以合同的形式租给了汾州香米业有限公司，现在是在自家地里给公司干活，每亩地的收益能多出200元。以前和公司是订单关系，现在是合伙关系。在田间，许多农民说，现在的合伙模式好处很多。种植风险公司承担了，心里的负担没了。大伙还注意到，以前撂荒的地复垦了，种的大多是“晋谷21号”。
+新型的土地流转合作模式是汾州香米业在现实中的理性选择。其操作要义是：你的土地我使用，你的风险我承担，你的种植我管理，你的利益我保障。把一家一户的小规模合作变为集中连片，精耕细作的大生产，农民除得到可靠的土地租赁费外，还按照公司核算的田间作业定额得到相应的报酬。这也是汾州香米业作为农业产业公司的一种涵养农业优质资源的积极探索。这是双赢的选择：既保证了谷农的利益，又保证了“汾州香”原料的质量，更符合生产需要，最终把“汾州香”产业做得更大更强。
+几年来，汾州香米业公司硬是利用汾阳市边山适宜谷子生长的土壤、气候条件，应用现代科技成果的优良谷子品种，采用传统小米加工原理与现代化机械结合,精雕细刻生产出营养及色、香、味俱全的优质小米，再通过公司的营销策略，使“汾州香”小米从汾阳走向全国，远销海外，使当地农民得到实惠，消费者得到美味，公司得到长足发展。
+“汾州香”永远不满足
+“汾州香”之所以能在市场经济的大潮中效益日益彰显，除了追求卓越外，更重要的还是致力创新。
+市场上需要什么就生产什么，包装有大有小，计量有多有少，等级有高有低，多方位适应不同的消费群体。围绕“汾州香”这一品牌，他们开发了金斗小米、五谷小米、苦荞小米等系列产品。公司自行研制开发的“小米方便粥”系列产品，以“汾州香”小米为原料，采用先进的生产工艺和科学的配方精制而成，既保留了传统煮粥的色泽、营养和口味，又省去了传统炉火熬粥的麻烦，成为现代生活中广为推崇的食品。不久，公司特聘饮食专家研制，专供孕妇食用的月子小米即可上市。
+作为吕梁的市级“技术中心”——汾州香米业成立了食品科研部，与科研单位共同研制开发新产品。公司长期以来与省农科院经作所等科研单位建立了友好合作关系。在“晋谷21号”基础上新研制出的“晋谷40号”于2006年3月经省农作物品种审定委员会认定，品质更优，市场前景看好。
+面对金融危机，汾州香米业有限公司围绕争当“小米王”的目标，实现产业的深度拓展。随着市场的不断扩张，原年产5000吨的小米已不能满足消费者的需求。当下，他们积极筹建万吨汾州香小米加工扩建项目。公司的目标是：争当全省“小米王”、全国“小米王”、世界“小米王”！</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>论“农”字号国家级品牌的社会价值</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>山西经济日报</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>地方级</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>本报记者</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>沁州黄; 产业化; 驰名商标认定; 农业龙头企业; 中国驰名商标; 小米深加工; 社会价值;</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2009-04-02</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>论坛</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>农业经济</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>F324.9</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>“如何以现代市场经济的经营理念，真正打造中国名米第一品牌，让‘小米成就大事业’，在公司发展壮大的同时带动基地农民致富，为地方经济，为新农村建设作出自己的贡献，这是沁州黄小米集团的企业理想”。
+这是来自我省某媒体的一段话，一家农业龙头企业的经营雄心和社会情怀扑面而来。
+在此，笔者希望剖析“农”字号国家级品牌的社会价值，即:农业龙头企业凭借自己的国家级品牌，对地方经济的发展以及农民收入的巨大带动功能。
+三农问题是举国关注的热点话题。不管是全面建设小康社会的战略目标，还是从眼下应对金融危机实现经济平稳较快增长的近期目标来看，大幅增加农民收入，提升农村消费力都是刻不容缓的大事。在今年3月13日十一届人大二次会议记者招待会上，温家宝总理在回答记者提问时，再一次指出，中国有9亿农民，这个市场的投资和消费如此之大，是中国战胜金融危机的信心之一。而农民增收，农业发展，农业龙头企业的作用无可替代。特别是，手握全国性品牌的明星级农业龙头企业，因为它们具备较强的市场竞争力，可以在自身不断崛起的同时，成功带动一方产业兴旺，带动一方百姓致富。所以，可以这么说，它们单个的发展可能关乎区域发展，而它们集体的发展关乎中国农村的发展，关乎中国的发展。
+一、手握知名品牌的农业龙头企业才能更好地促进农业产业化，也才能更好地促农增收。
+解决农业发展农民增收等问题，要求农业产业化，而手握知名品牌的农业龙头企业才能更好地促进农业产业化。
+所谓农业产业化，就是以市场为导向，以资源为依托，以农户和产业化组织为主体，以科技为手段，通过从事生产、加工、销售的产业化组织产前、产中、产后的企业化管理、一体化运营和社会化服务，对区域性主导产业实行专业化、标准化、国际化的生产，实现农村工业化。
+能否成功产业化，很大程度取决于农业龙头企业的表现，看它们能否培育出知名的农产品品牌。因为只有有了知名品牌，才能开疆辟土，才能成功打开省内国内市场，甚至是国际市场，从而把千家万户与市场连接起来，上游老百姓才能实现“一荣俱荣”，成为造福一方的富民产业。
+尤其是，比如山西沁州黄小米集团这样的公司，获得全国性知名度，拥有“中国驰名商标”，国家“名牌产品”等称号，类似重量级企业的带动辐射作用会更强，更令人期待。
+道理很简单，品牌已经成为当今市场竞争的公认利器。
+品牌是国家权威部门和社会对一种产品的公认度，集中体现在“驰名商标”“名牌产品”等荣誉上。随着经济社会的不断发展，市场经济的逐步完善，品牌已不是可有可无，而是各地政府和企业全力以赴的追求，有品牌者方有天下。
+从市场经济发展过程来讲，品牌是市场经济趋向成熟的必然要求。计划经济不存在竞争，品牌不能显示它的价值；物质贫乏时代消费的选择空间很小，品牌失去存在的意义。这两种情况下，品牌都难有用武之地，不能显现它对经济发展的推动作用。市场经济发展初期，市场竞争往往是一种无序的竞争，人们的品牌意识也很淡薄，品牌也只能处于萌芽状态。随着市场经济日益趋向成熟，各种因素都有了发展变化，品牌逐渐成为必然的追求，对经济发展的推动作用也日益显现。
+从企业自身发展来讲，品牌无疑大大提升企业的竞争力。在市场中，有时无形的品牌甚至比一个有形的企业还重要。全世界著名品牌“耐克”运动鞋，自己就没有一个生产车间；我国名牌服装，温州市的“美斯特·邦威”也没有自己的生产企业。他们共同的经验，就是经营好一个品牌。可以说，品牌既是一种无形的资产，也是一种现实的生产力。
+从区域经济的发展来讲，品牌直接影响着区域经济发展的可持续力。一个知名品牌一旦建立，就具有广泛的、深厚的社会基础，就具有公认性、深入性、持久性，这就给一个地方的经济奠定了发展的基础和潜力。此外，品牌可以增加城市的知名度，提高城市的外在形象，增强城市的对外吸引力。“海尔”为青岛增了辉，“雅戈尔”为宁波添了彩，“海天”塑机、“贝发”笔也为北仑增了光。实践证明，品牌，尤其是“中国驰名商标”这样的知名品牌显现着一个地方经济的综合实力和外在的影响力，是地方经济可持续发展的动力。
+当前，以驰名商标为代表的品牌经济已经形成一种强势经济和主导经济，推进商标战略已成为衡量一个地区、一个企业发展水平和综合竞争力的一个重要标志。
+以山西为例:近年来，山西省委、省政府以科学发展观为指导，紧密结合山西省情，确定了走出“四条路子”、实现“三个跨越”的发展思路，并把“品牌兴省”工作提到了战略的高度。省工商局作为政府主管商标与“品牌兴省”战略工作的主要职能部门，就这项工作全力谋篇布局。山西的驰名商标由2002年的4件，发展到现在的30件，沁州黄小米集团的“沁州”商标就是其中之一。据统计，受调查的15个驰名商标企业，驰名商标认定前三年企业的产值、销售额、税金、利润、市场占有率分别合计为4431164.33万元、4507653.02万元、385935.83万元、244236.35万元、233.42%，驰名商标认定后三年企业的产值、销售额、税金、利润、市场占有率分别合计为8443295.58万元、8290624万元、649644.77万元、467441.79万元、259.85%。认定后比认定前按增加比率计算，产值增加90.5%、销售额增加83.9%、上缴税金增加68.3%、利润增加91.4%、市场占有率增加11.32%。从详实的数据对比中，我们可以清晰地看到“中国驰名商标”这个招牌对企业及区域经济发展的巨大作用。
+单以农字号“中国驰名商标”而论，品牌贡献自然是对当地特色种植业的促进，对农民收入的促进。再以沁州黄小米集团为例，2006年的《人民日报》刊发如下文章，生动鲜活，不需笔者另费笔墨:
+“正值春播季节，在山西省沁县次村乡‘沁州黄’小米生产基地，农民小徐正在沁州黄小米集团有限公司技术人员的指导下，把公司统一配送的优质谷种播进田垄。他高兴地说:“拿着公司的订单明白种田，育种、施肥都有‘方’可依，一亩产到700多斤，还全是一级米，俺这20亩谷子地比以前多挣6000多块钱!”
+“谷子亩产从不足400斤提高到700多斤，种植面积从几千亩发展到8万亩。”“沁州黄”小米集团公司有关人士告诉记者，如今沁县“沁州黄”小米种植农户户均收入2000多元。
+种“沁州黄”谷子，农民得实惠。辛店一户农民在沁州黄公司的带动下，从试种四五亩谷子发展到100多亩，每年仅谷子种植收入就达10万多元。如今“沁州黄”公司已带动全县13个乡镇、220个行政村的2.4万农户种植“沁州黄”谷子，农民每亩收入由600元增至1050元，增收幅度达70%。
+沁州黄公司的小米加工包装为当地农民提供了就近就业的舞台。每到谷子播种繁育时节，次村乡后氐沟村农民张淑珍就来到“沁州黄”公司良种繁育基地，为公司种、收和管理谷田，每日工资30元；南里水村农家妇女吕彩霞常年在“沁州黄”公司拣米车间做拣米工，不仅月收入近干元，还可就近回家给孩子做午饭。除基地种植农户和公司固定员工外，还有3000多名当地农民在沁州黄公司从事小米生产、加工和管理。沁州黄公司目前正进一步延伸产业链条，开发科研含量高、附加值高的精细深加工产品，带动更多的农民增收致富。
+二、国家级品牌是企业苦练内功，在以消费者为上帝的企业价值观指导下持之以恒地狠抓产品质量、抓售后服务最终才崛起的。
+那么，怎么才能“炼”就具有巨大社会价值的农产品品牌呢?
+从众多企业的实践都可看出，品牌的建立来之不易，是企业长年累月兢兢业业培育的果实，其中的甘苦远非外界所能全部了解。比如，一个中国驰名商标，它绝非先天存在，也绝非一夜之间诞生，而是企业苦练内功，在以消费者为上帝的企业价值观指导下，持之以恒地狠抓产品质量，持之以恒地狠抓售后服务，一点一滴取得市场的认可，最终才可能成为知名品牌。如果没有这种十年磨一剑的决心和毅力，就不会有品牌的崛起。
+而且，这里面是真金白银的投入，笔者研究品牌多年，一般讲，培育一个中国级品牌或中国驰名商标，大约投资2000万元到8000万元。据说山西某牛肉品牌每年仅广告费投入约200万元，前后10年约2000万元。
+还以沁州黄小米集团的故事为例。由于种种原因，到上世纪70年代末沁州黄严重退化，濒临绝种的境地，在这个关键时刻，毕业于山西农业大学的高级农艺师、农产品专家耿聚平女士主动请缨，带领技术人员开始了沁州黄谷种提纯复壮和异地开发的试验研究。此后，围绕着打造中国名米第一品牌这个目标，改制而来的沁州黄小米集团强化绿色生态意识，按照绿色食品生产要求，依托当地无污染源的特点，建立了完善的无公害生产、加工技术准则，制定实施了统一的产品质量控制体系。从谷种选育、地块规划，生产管理，谷物收获到产品入库加工，全部纳入了规范化的质量程序控制，顺利通过了国家绿色食品认证、省无公害生产技术鉴定和国际通行的IS09001质量体系认证。公司从品种的繁育抓起，坚持对品种进行提纯复壮，并投入巨资对不同绿肥、不同地质、不同品系进行对比试验和品尝鉴定，建立了133hm2高标准良种繁育基地，繁育出4个优良品系。与此同时，与省农科院专家合作，采用现代高科技等离子技术，对沁州黄老品种进行人工促变处理，出现了明显的变异，两个抗逆、抗病品系经受住了考验。针对地块瘠薄、肥力偏低对品质的影响，组成专家组进行科研攻关，按照土壤状况，确立了科学的配方施肥方案，并联合生产出了专用有机肥，从而确保了沁州黄的品质。
+从产品质量的竞争到产品标准的竞争是企业在市场竞争中的一次跨越。围绕着打造中国名米第一品牌，沁州黄小米集团公司严格按照原产地域保护产品质量标准要求，对标准进行了修订，逐步完善了从良种繁育技术规程、种植技术规程到加工技术规程和贮运包装技术规程，对企业经营管理的各个层面制订工相应的管理标准和工作标准。在此基础上，公司完善企业的质量体系建设和环境体系建设，形成了以技术标准为核心、从基地到市场的标准化体系。
+因为有了这一系列的“内功”，沁州黄小米集团的产品才能占领太原、北京、上海、齐齐哈尔、大连等国内大中型城市市场，进入国内1000多个大中小型超市，其中A级超市200多家，销售总量占全国小米销售市场10%左右，成为真正意义上的“米中之王”，也才能荣获“中国驰名商标”这一称号。
+这是农产品品牌成长的典型故事。山西省名优开发中心的两位专家在调研后撰文:好牌子靠的是不断地探索，投入和创新，这应当是适用所有企业的不二法门。
+三、全国性品牌来之不易。因此，一定要让农业龙头企业全力挖掘品牌潜力，在自身发展的同时造福产业链上游的千家万户。
+那么，如何全力发挥国家级农产品品牌的社会价值呢。
+“驰名商标”这样的全国性品牌来之不易，因此作为农业龙头企业，必须倍加珍惜，全力挖掘品牌的潜力，发挥自身的社会价值，在自身发展的同时造福广袤的乡村，造福产业链上游的千家万户。
+从沁州黄集团的现实看，当地产业和农民已经受益这个品牌。但是，作为全国性品牌，它的潜力远未发挥。
+作为品牌拥有者，在品牌成功建立起来后，一定要借品牌之威，及时进行产业链的扩张，或横向，或纵向，把企业做大做强，化无形资产为实实在在的有形资产，这也是品牌价值的基本所在。
+据报道，沁州黄集团事实上一直有品牌运营的规划，只是受特定事情所累，难有精力全部付诸实施。
+按照规划，经过10年的发展，集团主营业务覆盖谷子品种培育、谷子专业肥生产、谷子种植、小米加工与销售、小米深加工、小米餐饮业等。种子和肥料销售额要达数亿人民币，小米销售及小米深加工和延伸产品销售额也要达数亿人民币……力争成为全国最大的高端小米产业集团。
+依托“中国驰名商标”这个全国性品牌，集团未来10年的业务贯彻在整个小米产业链中:
+不断加大研发投入，加强合作研发，逐步建立集团的研发队伍和谷子研发实验室，力争成为国内谷子品种综合研发能力最强的企业；
+通过委托或合作研发，建立专用的大规模小米加工和包装一体化流水线，制定和实施加工车间符合质量安全(QS)标准；
+建立和不断优化小米销售渠道，加强经销商的选择、评估和激励，打造国内小米第一品牌，高端小米销售量及销售额占据全国市场第一；
+年内形成小米方便粥与小米保健品等小米深加工能力，同时兼顾公司的资源和外部机会，可通过并购或开发等方式适当进入米醋、米酒、米饼、小米营养粉、小米糕点等食品生产领域；
+主打小米粥和其它小米食品，开发太行山特色农家菜系，形成特色餐饮品牌，以合作或加盟方式低成本扩张，开辟新的小米销售通路和小米消费市场；
+适应谷子轮种的需要，引进和种植太行山特色农副产品如玉米、大豆、高粱等，实现基地收益最大化……
+如果这些计划都辅助实施，对当地小米产业而言，对当地老百姓而言，都是极大的贡献。沁州黄集团也可谓做好了品牌运营的大文章。驰名商标作为该企业，也可说是山西的财富，才真正起到了价值裂变效应。
+四、为了让农字号国家级品牌造福社会，必须对驰名商标依法保护。
+说到品牌价值贡献，自然要谈到依法保护问题，因为只有“保护好”才能“运营好”。
+与一般商标不同，对驰名商标的保护要更为严格，全球如此。因为，正如上文笔者所分析，驰名商标凝聚了商品生产者和经营者以及服务提供者大量的智慧和劳动，是企业生存和发展的一大法宝，拥有驰名商标即意味着拥有卓著的产品信誉和广阔的行销市场。对广大消费者来说，驰名商标意味者产品质量高、形象好，甚至能够体现出消费者的身份和地位。因此，对驰名商标的有效保护不仅关系到商标权人的利益，也是维护消费者的利益所需。如果让一个辛辛苦苦培育的驰名品牌受到损害，被市场抛弃，不仅是企业之不幸，也是当地经济乃至全社会之不幸。对某个农产品品牌来说，就是当地产业和产业链上游的农民之不幸，是消费者之不幸。
+那么，驰名商标的保护范围是哪些呢?根据法律规定，主要有以下一些:
+就相同或者类似商品申请注册的商标是复制、摹仿或者翻译他人未在中国注册的驰名商标，容易导致混淆的，不予注册并禁止使用；就不相同或者不相类似商品申请注册的商标是复制、摹仿或者翻译他人已经在中国注册的驰名商标，误导公众，致使该驰名商标注册人的利益可能受到损害的，不予注册并禁止使用；已经注册的商标，违反商标法相关规定的，自商标注册之日起五年内，商标所有人或者利害关系人可以请求商标评审委员会裁定撤销该注册商标。对恶意注册的，驰名商标所有人不受五年的时间限制；
+使用商标违反商标法第十三条规定的，有关当事人可以请求工商行政管理部门禁止使用。经商标局依照商标法第十四条的规定认定为驰名商标的，由工商行政管理部门责令侵权人停止违反商标法第十三条规定使用该驰名商标的行为，收缴、销毁其商标标识；商标标识与商品难以分离的，一并收缴、销毁；驰名商标所有人认为他人将其驰名商标作为企业名称登记，可能欺骗公众或者对公众造成误解的，可以向企业名称登记主管机关申请撤销该企业名称登记。企业名称登记主管机关应当依照《企业名称登记管理规定》处理；他人的域名或其主要部分构成对驰名商标的复制、模仿、翻译或音译的，应当认定其注册、使用域名等行为构成侵权或者不正当竞争。
+放眼全球，瑞士、英国、日本等众多经济发达国家对驰名商标实行绝对保护。如日本东京地方法院曾判决禁止将照相机商标“雅西卡”使用于化妆用品。英国则规定准许驰名商标权人为避免他人冒用，可申请将驰名商标注册于其非经营范围的产品。美国严格禁止出售的商品包含他人姓名、商号而使公众误认为该商品是他人或他人商号产品的做法，也禁止通过使用“Copy”(仿制品)等字样，而使自己的产品与驰名商标相提并论的做法。德国禁止针对驰名商标做比较性的广告；法国、比利时、瑞士和意大利等国均禁止针对驰名商标做直接或间接或暗示的比较性广告。
+除了司法保护，政府在依法保护驰名品牌方面起相当作用。作为市场秩序守护者，政府可通过行政执法保障合法竞争，这方面的新闻经常见诸报端。如，《齐鲁晚报》报道，作为泰安市首个驰名商标，泰山生力源集团的“泰山”牌白酒在市场的占有率占到绝对优势。然而，大量假冒仿冒给企业带来了经济上的损失，更造成了泰山白酒产品和商标声誉上的损害。为保护“泰山”牌系列商标的专用权，泰安市和生力源集团先后多次开展专项治理行动和联合打假。自2006年以来，泰安市与以泰山生力源集团为代表的泰安市78家重点骨干企业建立了联手维权机制，保护品牌86个，并在国内20多个省市开展了维权活动，为企业直接挽回和避免损失6000多万元。
+充分认识“农”字号国家级品牌的社会价值并全力依法保护，让它们充分带动一地农业特色产业并带动农民致富，进而提升消费力，启动内需，促进中国经济可持续发展，这是各级政府和全社会都要重视的大课题。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>食“色”之患 挥之不去</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中国质量报</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>中央级</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>王娅莉</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>开心果; 工业用双氧水; 染色剂; 食用色素;</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2005/03/15</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>3·15专题报道</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>T00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>经济与管理科学</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>市场研究与信息</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>BHC</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>目前，市场上的染色食品越来越多，其中有些使用工业用人工合成色素，对人体健康造成严重影响，专家提醒消费者要警惕食品中的“色”。
+“绿色大米”后染成
+眼下，绿色食品越来越受到广大消费者的青睐，于是，商家就大打“绿色”牌，什么绿色消费、绿色食品、绿色家具、绿色汽车等新名词、新概念越来越多。在绿色食品王国更是种类繁多，绿色大米、绿色面粉、绿色蔬菜、绿色酱油等，令人眼花缭乱。
+专家介绍，绿色产品的主要特点有两个方面：一是无公害、无污染、无农药残留，不含对人体和畜禽有毒有害的成分；二是不构成对环境的污染和破坏，有利于环保事业的发展。然而，现在一些厂家未经任何部门认证便私自给产品冠以“绿色”之名，坑骗消费者。
+市场上的一些有明显颜色的大米，有不少都是后染色的。据调查，在哈尔滨市某镇的一个村的一家大米加工点，有人往装满大米的大铁盆里倒入一种散发着刺鼻气味的绿色液体，几个戴着皮手套的人不停地在里面搅拌，给大米上色。其他人则将已变成绿色的大米放在煤炉筒上烘干，并将已烘干的大米装入一只只印制精美的包装袋里，然后用封口机封好。包装袋上赫然印着“××牌”商标以及“天然绿色食品”等字样。
+这类所谓的“绿色”，其实都是后加工“染色”而成。用于染色的色素，有的竟是工业用色素，这对消费者的健康将会产生不良影响。即使是食用色素，人们吃多了，也于健康无益。对于这种以假乱真，用“染色食品”冒充“绿色食品”、用工业油抛光上色的大米等违法行为，有关部门应该严格查禁。
+黄小米变白小米
+小米以其营养丰富，而受到消费者的喜欢，但市场上出现的染色小米，却令人倒胃口。黄灿灿的小米用水一洗，水黄了，米却白了；黑米用水一冲，冲出了深紫色的淘米水。2月3日，太原市学府街山西粮油批发市场的两家粮油经销部销售染色劣质小米和黑米，共有9000多公斤被查获。
+有一位姓张的消费者，在粮油店买回的小米经水一淘变白了，淘米水却成了黄灿灿的。质监人员立即根据举报查获这家粮油店，当场发现15公斤多染过色的小米。经调查，这些染色小米来自太原市一粮油批发市场。这些经过染色的小米来自河北的赵县，是一名推销粮油的推销员上门推销的，每公斤2．32元，自己往外批发每公斤多挣2分钱。而市场上一些品质较好的小米售价大约3．2元／公斤～3．4元／公斤。
+执法人员当场对这些小米和黑米进行了抽检，并且对现场的221袋小米和7袋黑米进行了封存，大约共有9520公斤。
+干果被美容
+市场上的各种干果，五颜六色，可有些彩色干果，食用并不安全，有的竟是化工原料加工而成。
+今年2月，广东省质量技监局对干果加工场所进行执法检查。据统计，在普查的3个干果食品加工点中，就有两个加工点存在违法生产、加工的事实，现场查获工业用双氧水3吨，用于着色的添加剂“果绿”30公斤，经工业用双氧水加工过的开心果成品多达39吨。在鹤山市龙口镇地区的某果仁厂内，执法人员查获、封存开心果成品6．5吨，共计650箱，另有正在加工开心果半成品16．4吨及堆如小山高的工业用双氧水罐。老板毫不讳言：“用工业用双氧水浸泡、漂白开心果省钱。”据了解，他们所加工的干果食品一般销往广州一德路批发市场，干果品牌名为“×水手”和“×星”。据悉，工业用双氧水含有砷、重金属等多种有毒有害物质，严重危害健康。执法人员还发现为数不少的食品添加剂“果绿”（用于着色），由于“果绿”含重金属等有害物质，因而被严禁用于干果类食品加工。
+大虾涂“胭脂”
+一些商家，给食品染色是为了赚取更大的利润，这些行为不收敛也会惹官司。目前，浙江温岭染色虾米案被移送该市检察院。三名涉案人员被警方指控涉嫌生产销售有毒有害食品。
+去年4月台州及温岭市两级卫生监督部门在石塘镇金星村进行突击检查时，发现个别虾米生产经营户（场）违法使因食用色素“胭脂红”、“柠檬黄”甚至具有强致癌化学品俗称“酸性大红73”的“亮藏花精”，给虾米“整容”。卫生执法人员随即对其中三名加工户包爱华、潘云绕、潘志明开展立案侦察。三人在四月底被移送当地公安机关。据悉，在生产、销售的食品中掺入有毒有害的非食品原料的，或者销售者明知掺有有毒、有害的非食品原料的食品的，处五年以下有期徒刑或者拘役，并处或者单处销售金额50％上两倍以下罚金；造成严重食物中毒或者其他严重食源性疾患，对人体健康造成特别严重危害的，处十年以上有期徒刑、无期徒刑或者死刑。
+染色食品遭遇信誉危机
+英国食品标准局2月18日宣布有359种食品含有可致癌的苏丹红（一号）工业染色剂后，2月21日再次宣布38种食品也含有同样成分，包括联合利华在内多家知名食品公司加工食品均上了黑名单。食品行业遭遇信任危机。
+据专家介绍，苏丹红（一号）是一种红色素，主要用于汽油、机油、汽车蜡和鞋油等工业产品。实验室研究曾发现，将该染色剂添加在给老鼠的食物中，可以今老鼠罹患癌症。然而，令人担心的是，目前，含苏丹红（一号）染色剂的辣椒粉曾被广泛用于许多超市自有品牌食品，以及包括联合利华在内知名食品公司加工食品所用的一种调味酱中，这导致苏丹红（一号）染色剂大量进入英国食品。据估计，这起大面积食品召回事件损失严重，仅英国食品行业的损失就超过15亿英镑，如果算上从英国进口调料的国家，损失将更为惨重。
+为防止含苏丹红（一号）的食品危害消费者安全健康，国家质检总局、国家工商总局、卫生部日前开始从各个环节进行严查。
+染色食品能常吃吗？
+专家指出，不少孩子平时任性、脾气暴躁，常出现过激行为，与食用染色食品非常有关。儿童正处于生长发育期，体内器官功能比较脆弱，神经系统发育尚不健全，对化学物质尤为敏感，若过多过久地进食色素浓的食品，会影响儿童神经系统的冲动传导，以致容易引起儿童好动、情绪不稳定、注意力不集中、自制力差、行为怪癖、食欲减退等症状。
+据了解，“彩色食品”所用的色素，有天然色素和人工合成色素两类。天然色素是从动、植物中提取的，有姜黄素、叶红素等，是安全的食用色素。但天然色素价格高，着色力差，使用并不广泛；人工合成色素则是从煤焦油中提炼出来的，具有成本低廉、着色力强等优点，因而被广泛运用。而人工合成色素在合成过程中，有的可能混入杂质如砷、汞等物质，对人体健康有害。
+我国食品卫生管理部门允许使用胭脂红、靓蓝等几种着色剂，但对其使用范围和使用量都有明确而严格的规定。尽管加入食品中的用量极少，但长期食入含有不符合规定的着色剂的食品后，就会对人体健康产生不良的影响。尤其是一些个体商贩和个别生产厂家，不按国家规定，在食品和饮料中随意使用人工合成色素，对正处于生长发育阶段的儿童健康危害更大。
+专家提醒，父母在给孩子选购食品时，应注意“彩色食品”的食入量，切勿食用过多、过久，以免在体内蓄积中毒，从而影响孩子的健康成长。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
